--- a/data/treatmentC.xlsx
+++ b/data/treatmentC.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="25120" windowHeight="13820" tabRatio="500"/>
+    <workbookView xWindow="2920" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TX.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TX.csv!$A$1:$F$1</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="210">
   <si>
     <t>OLD</t>
   </si>
@@ -631,6 +632,30 @@
   </si>
   <si>
     <t>PRUPEN_G08</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>humM</t>
+  </si>
+  <si>
+    <t>humL</t>
+  </si>
+  <si>
+    <t>humH</t>
+  </si>
+  <si>
+    <t>tempM</t>
+  </si>
+  <si>
+    <t>tempH</t>
+  </si>
+  <si>
+    <t>tempL</t>
+  </si>
+  <si>
+    <t>soil.11.Feb</t>
   </si>
 </sst>
 </file>
@@ -679,9 +704,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -951,7 +977,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -962,8 +988,8 @@
   <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A149" sqref="A149"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -986,7 +1012,7 @@
         <v>86</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1005,35 +1031,32 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>9.3000000000000007</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
         <v>88</v>
@@ -1041,10 +1064,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
@@ -1052,10 +1075,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
@@ -1063,10 +1086,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
         <v>88</v>
@@ -1074,1057 +1097,967 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>9.4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>8.6</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>9.1999999999999993</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>179</v>
+      </c>
+      <c r="B49" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="B54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B58" t="s">
         <v>125</v>
       </c>
-      <c r="C22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="C58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
         <v>13</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B59" t="s">
         <v>118</v>
       </c>
-      <c r="C29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="C59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
         <v>17</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B60" t="s">
         <v>121</v>
       </c>
-      <c r="C30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
+      <c r="C60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
         <v>101</v>
       </c>
-      <c r="B34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
+      <c r="B61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
         <v>101</v>
       </c>
-      <c r="B35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
+      <c r="B62" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
         <v>24</v>
       </c>
-      <c r="B36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>101</v>
-      </c>
-      <c r="B38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
+      <c r="B63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
         <v>24</v>
       </c>
-      <c r="B39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="B64" t="s">
         <v>119</v>
       </c>
-      <c r="C40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="1">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
+      <c r="C64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
         <v>22</v>
       </c>
-      <c r="B44" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
+      <c r="B65" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
         <v>20</v>
       </c>
-      <c r="B45" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="B67" t="s">
         <v>126</v>
       </c>
-      <c r="C49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
+      <c r="C67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
         <v>38</v>
       </c>
-      <c r="B53" t="s">
-        <v>129</v>
-      </c>
-      <c r="C53" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" t="s">
-        <v>131</v>
-      </c>
-      <c r="C54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="B68" t="s">
         <v>135</v>
       </c>
-      <c r="C55" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
+      <c r="C68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
         <v>37</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B69" t="s">
         <v>136</v>
       </c>
-      <c r="C56" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
+      <c r="C69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
         <v>127</v>
       </c>
-      <c r="B59" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
         <v>127</v>
       </c>
-      <c r="B60" t="s">
-        <v>132</v>
-      </c>
-      <c r="C60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>127</v>
-      </c>
-      <c r="B61" t="s">
-        <v>134</v>
-      </c>
-      <c r="C61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>127</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="B71" t="s">
         <v>138</v>
       </c>
-      <c r="C62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>32</v>
-      </c>
-      <c r="B63" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>40</v>
-      </c>
-      <c r="B64" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
+      <c r="C71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
         <v>42</v>
       </c>
-      <c r="B65" t="s">
-        <v>130</v>
-      </c>
-      <c r="C65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66" t="s">
-        <v>133</v>
-      </c>
-      <c r="C66" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
+      <c r="B72" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
         <v>42</v>
       </c>
-      <c r="B67" t="s">
-        <v>137</v>
-      </c>
-      <c r="C67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>42</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="B73" t="s">
         <v>139</v>
       </c>
-      <c r="C68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>34</v>
-      </c>
-      <c r="B69" t="s">
-        <v>35</v>
-      </c>
-      <c r="C69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>42</v>
-      </c>
-      <c r="B70" t="s">
-        <v>43</v>
-      </c>
-      <c r="C70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>44</v>
-      </c>
-      <c r="B71" t="s">
-        <v>140</v>
-      </c>
-      <c r="C71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>141</v>
-      </c>
-      <c r="B72" t="s">
-        <v>142</v>
-      </c>
-      <c r="C72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>44</v>
-      </c>
-      <c r="B73" t="s">
-        <v>143</v>
-      </c>
       <c r="C73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>44</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>44</v>
       </c>
       <c r="B75" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C75" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>44</v>
       </c>
       <c r="B76" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C76" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="B77" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C77" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="B78" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="B79" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="B81" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C82" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B83" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="C83" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B84" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C84" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="B85" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="C86" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="B87" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C87" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B88" t="s">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="B90" t="s">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="B91" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="C91" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="B92" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="C92" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="B93" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="C93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="B94" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="B95" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="C95" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="B96" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="C96" t="s">
         <v>92</v>
@@ -2132,140 +2065,155 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B97" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97">
-        <v>8.6999999999999993</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B98" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="C98" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B99" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="C99" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>166</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>88</v>
+        <v>6</v>
+      </c>
+      <c r="D100">
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>167</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>88</v>
+        <v>6</v>
+      </c>
+      <c r="D101">
+        <v>9.4</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="D102">
+        <v>8.6</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="D103">
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="D104">
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="B105" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="D105">
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B106" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C106" t="s">
         <v>6</v>
       </c>
       <c r="D106">
-        <v>9.3000000000000007</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="B107" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
       </c>
       <c r="D107">
-        <v>9.6</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="C108" t="s">
         <v>6</v>
@@ -2276,417 +2224,492 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="C109" t="s">
         <v>6</v>
       </c>
       <c r="D109">
-        <v>10.1</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="B110" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="C110" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="D110">
+        <v>9.6</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B111" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
       </c>
-      <c r="D111">
-        <v>9.4</v>
+      <c r="D111" s="1">
+        <v>4.8</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B112" t="s">
-        <v>175</v>
+        <v>27</v>
       </c>
       <c r="C112" t="s">
-        <v>88</v>
+        <v>6</v>
+      </c>
+      <c r="D112">
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B113" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="C113" t="s">
-        <v>88</v>
+        <v>6</v>
+      </c>
+      <c r="D113">
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="C114" t="s">
-        <v>88</v>
+        <v>6</v>
+      </c>
+      <c r="D114">
+        <v>9.5</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B115" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="C115" t="s">
-        <v>88</v>
+        <v>6</v>
+      </c>
+      <c r="D115">
+        <v>8.4</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="B116" t="s">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="C116" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="D116">
+        <v>10.3</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="B117" t="s">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="C117" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="D117">
+        <v>8.5</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>197</v>
+        <v>37</v>
       </c>
       <c r="B118" t="s">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="C118" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="D118">
+        <v>13.4</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="B119" t="s">
-        <v>199</v>
+        <v>33</v>
       </c>
       <c r="C119" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="D119">
+        <v>8.5</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B120" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C120" t="s">
         <v>6</v>
       </c>
       <c r="D120">
-        <v>8.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="B121" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
       </c>
       <c r="D121">
-        <v>8.3000000000000007</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B122" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
       </c>
       <c r="D122">
-        <v>9.6</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B123" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="C123" t="s">
         <v>6</v>
       </c>
       <c r="D123">
-        <v>7.7</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="C124" t="s">
-        <v>88</v>
+        <v>6</v>
+      </c>
+      <c r="D124">
+        <v>9.6</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B125" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="C125" t="s">
-        <v>88</v>
+        <v>6</v>
+      </c>
+      <c r="D125">
+        <v>9.1</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B126" t="s">
-        <v>182</v>
+        <v>55</v>
       </c>
       <c r="C126" t="s">
-        <v>88</v>
+        <v>6</v>
+      </c>
+      <c r="D126">
+        <v>9.4</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B127" t="s">
-        <v>184</v>
+        <v>51</v>
       </c>
       <c r="C127" t="s">
-        <v>88</v>
+        <v>6</v>
+      </c>
+      <c r="D127">
+        <v>9.6</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B128" t="s">
-        <v>189</v>
+        <v>52</v>
       </c>
       <c r="C128" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="D128">
+        <v>8.4</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B129" t="s">
-        <v>190</v>
+        <v>54</v>
       </c>
       <c r="C129" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="D129">
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B130" t="s">
-        <v>191</v>
+        <v>47</v>
       </c>
       <c r="C130" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="D130">
+        <v>7.8</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B131" t="s">
-        <v>195</v>
+        <v>57</v>
       </c>
       <c r="C131" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="D131">
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B132" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C132" t="s">
         <v>6</v>
       </c>
       <c r="D132">
-        <v>10.7</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B133" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C133" t="s">
         <v>6</v>
       </c>
       <c r="D133">
-        <v>8.1</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B134" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C134" t="s">
         <v>6</v>
       </c>
       <c r="D134">
-        <v>8</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>179</v>
+        <v>62</v>
       </c>
       <c r="B135" t="s">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="C135" t="s">
-        <v>88</v>
+        <v>6</v>
+      </c>
+      <c r="D135">
+        <v>10.1</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B136" t="s">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="C136" t="s">
-        <v>88</v>
+        <v>6</v>
+      </c>
+      <c r="D136">
+        <v>9.4</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="B137" t="s">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="C137" t="s">
-        <v>88</v>
+        <v>6</v>
+      </c>
+      <c r="D137">
+        <v>8.9</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="B138" t="s">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="C138" t="s">
-        <v>88</v>
+        <v>6</v>
+      </c>
+      <c r="D138">
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="B139" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="C139" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="D139">
+        <v>9.6</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B140" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="C140" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="D140">
+        <v>7.7</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B141" t="s">
-        <v>194</v>
+        <v>69</v>
       </c>
       <c r="C141" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="D141">
+        <v>10.7</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="B142" t="s">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="C142" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="D142">
+        <v>8.1</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B143" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C143" t="s">
         <v>6</v>
       </c>
       <c r="D143">
-        <v>9.6999999999999993</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2694,13 +2717,13 @@
         <v>74</v>
       </c>
       <c r="B144" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C144" t="s">
         <v>6</v>
       </c>
       <c r="D144">
-        <v>7.7</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2708,13 +2731,13 @@
         <v>74</v>
       </c>
       <c r="B145" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C145" t="s">
         <v>6</v>
       </c>
       <c r="D145">
-        <v>8.9</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2722,44 +2745,47 @@
         <v>74</v>
       </c>
       <c r="B146" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C146" t="s">
         <v>6</v>
       </c>
       <c r="D146">
-        <v>7.9</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B147" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C147" t="s">
         <v>6</v>
       </c>
       <c r="D147">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c r="B148" t="s">
-        <v>201</v>
+        <v>85</v>
       </c>
       <c r="C148" t="s">
-        <v>88</v>
+        <v>6</v>
+      </c>
+      <c r="D148">
+        <v>7.7</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1">
-    <sortState ref="A2:F147">
-      <sortCondition ref="B1:B147"/>
+    <sortState ref="A2:F148">
+      <sortCondition ref="C1:C148"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2772,4 +2798,93 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>42766</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <v>65</v>
+      </c>
+      <c r="D2">
+        <v>99</v>
+      </c>
+      <c r="E2">
+        <v>59</v>
+      </c>
+      <c r="F2">
+        <v>61</v>
+      </c>
+      <c r="G2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>42777</v>
+      </c>
+      <c r="B3">
+        <v>83</v>
+      </c>
+      <c r="C3">
+        <v>68</v>
+      </c>
+      <c r="D3">
+        <v>91</v>
+      </c>
+      <c r="E3">
+        <v>55</v>
+      </c>
+      <c r="F3">
+        <v>68</v>
+      </c>
+      <c r="G3">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data/treatmentC.xlsx
+++ b/data/treatmentC.xlsx
@@ -1,32 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/freezingexperiment/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="2920" yWindow="460" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TX.csv" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TX.csv!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TX.csv!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="211">
   <si>
     <t>OLD</t>
   </si>
@@ -373,9 +378,6 @@
     <t>ALNINC_S12</t>
   </si>
   <si>
-    <t>ALNINC_S13</t>
-  </si>
-  <si>
     <t>ALNINC_W14</t>
   </si>
   <si>
@@ -656,6 +658,12 @@
   </si>
   <si>
     <t>soil.11.Feb</t>
+  </si>
+  <si>
+    <t>BBCH.11.Feb</t>
+  </si>
+  <si>
+    <t>ALNINC_H13</t>
   </si>
 </sst>
 </file>
@@ -977,7 +985,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -985,20 +993,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1012,13 +1020,16 @@
         <v>86</v>
       </c>
       <c r="E1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" t="s">
         <v>209</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1028,8 +1039,11 @@
       <c r="C2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1039,8 +1053,11 @@
       <c r="C3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="E3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1050,8 +1067,11 @@
       <c r="C4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="E4">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1061,8 +1081,11 @@
       <c r="C5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="E5">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1072,8 +1095,11 @@
       <c r="C6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="E6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1083,8 +1109,11 @@
       <c r="C7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="E7">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1094,8 +1123,11 @@
       <c r="C8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="E8">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1105,8 +1137,11 @@
       <c r="C9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="E9">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -1116,8 +1151,11 @@
       <c r="C10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="E10">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -1127,8 +1165,11 @@
       <c r="C11" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="E11">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -1138,8 +1179,11 @@
       <c r="C12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="E12">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -1149,8 +1193,11 @@
       <c r="C13" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="E13">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -1160,8 +1207,11 @@
       <c r="C14" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="E14">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1171,8 +1221,11 @@
       <c r="C15" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="E15">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1182,382 +1235,517 @@
       <c r="C16" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="E16">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="E17">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="E18">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="E19">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" t="s">
         <v>131</v>
       </c>
-      <c r="C20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" t="s">
-        <v>132</v>
-      </c>
       <c r="C22" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="E22">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="E23">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="E24">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
       <c r="B25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25">
+        <v>7.8</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>140</v>
       </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>141</v>
       </c>
-      <c r="B26" t="s">
-        <v>142</v>
-      </c>
       <c r="C26" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="E26">
+        <v>7.3</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C27" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="E27">
+        <v>7.6</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="E28">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
         <v>146</v>
       </c>
-      <c r="B29" t="s">
-        <v>147</v>
-      </c>
       <c r="C29" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="E29">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="E30">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C31" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="E31">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" t="s">
         <v>144</v>
       </c>
-      <c r="B32" t="s">
-        <v>145</v>
-      </c>
       <c r="C32" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="E32">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" t="s">
         <v>160</v>
       </c>
-      <c r="B33" t="s">
-        <v>161</v>
-      </c>
       <c r="C33" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="E33">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>62</v>
       </c>
       <c r="B34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>163</v>
       </c>
-      <c r="C34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>164</v>
       </c>
-      <c r="B35" t="s">
-        <v>165</v>
-      </c>
       <c r="C35" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="E35">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>62</v>
       </c>
       <c r="B36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" t="s">
         <v>166</v>
       </c>
-      <c r="C36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>164</v>
-      </c>
-      <c r="B37" t="s">
-        <v>167</v>
-      </c>
       <c r="C37" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="E37">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C38" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="E38">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C39" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="E39">
+        <v>8.9</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C40" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="E40">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C41" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="E41">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C42" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="E42">
+        <v>8.4</v>
+      </c>
+      <c r="F42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C43" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="E43">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C44" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="E44">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C45" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="E45">
+        <v>9</v>
+      </c>
+      <c r="F45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" t="s">
         <v>179</v>
       </c>
-      <c r="B46" t="s">
-        <v>180</v>
-      </c>
       <c r="C46" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="E46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C47" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="E47">
+        <v>7.6</v>
+      </c>
+      <c r="F47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B48" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" t="s">
         <v>185</v>
       </c>
-      <c r="C48" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>179</v>
-      </c>
-      <c r="B49" t="s">
-        <v>186</v>
-      </c>
       <c r="C49" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="E49">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C50" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="E50">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1567,8 +1755,11 @@
       <c r="C51" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="E51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1578,8 +1769,11 @@
       <c r="C52" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="E52">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -1589,8 +1783,11 @@
       <c r="C53" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="E53">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1600,8 +1797,11 @@
       <c r="C54" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="E54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1611,8 +1811,11 @@
       <c r="C55" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="E55">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -1622,52 +1825,67 @@
       <c r="C56" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="E56">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="E57">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C58" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="E58">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C59" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="E59">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C60" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="E60">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>101</v>
       </c>
@@ -1677,426 +1895,573 @@
       <c r="C61" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="E61">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="C62" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="E62">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C63" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="E63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C64" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="E64">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C65" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="E65">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C66" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="E66">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C67" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="E67">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="E68">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>37</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="E69">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C70" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="E70">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C71" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="E71">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C72" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="E72">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>42</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C73" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="E73">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>44</v>
       </c>
       <c r="B74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C74" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="E74">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>44</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C75" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="E75">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>44</v>
       </c>
       <c r="B76" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" t="s">
+        <v>92</v>
+      </c>
+      <c r="E76">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" t="s">
+        <v>92</v>
+      </c>
+      <c r="E77">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" t="s">
+        <v>92</v>
+      </c>
+      <c r="E78">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" t="s">
         <v>158</v>
       </c>
-      <c r="C76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>151</v>
-      </c>
-      <c r="B77" t="s">
-        <v>152</v>
-      </c>
-      <c r="C77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>146</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="C79" t="s">
+        <v>92</v>
+      </c>
+      <c r="E79">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" t="s">
         <v>154</v>
       </c>
-      <c r="C78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>146</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="C80" t="s">
+        <v>92</v>
+      </c>
+      <c r="E80">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" t="s">
+        <v>92</v>
+      </c>
+      <c r="E81">
+        <v>11.1</v>
+      </c>
+      <c r="F81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>159</v>
       </c>
-      <c r="C79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>144</v>
-      </c>
-      <c r="B80" t="s">
-        <v>155</v>
-      </c>
-      <c r="C80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>144</v>
-      </c>
-      <c r="B81" t="s">
-        <v>157</v>
-      </c>
-      <c r="C81" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>160</v>
-      </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C82" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="E82">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>58</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C83" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="E83">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>62</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C84" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="E84">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>62</v>
       </c>
       <c r="B85" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" t="s">
+        <v>92</v>
+      </c>
+      <c r="E85">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" t="s">
         <v>170</v>
       </c>
-      <c r="C85" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
+      <c r="C86" t="s">
+        <v>92</v>
+      </c>
+      <c r="E86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>172</v>
       </c>
-      <c r="B86" t="s">
-        <v>171</v>
-      </c>
-      <c r="C86" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
+      <c r="B87" t="s">
         <v>173</v>
       </c>
-      <c r="B87" t="s">
-        <v>174</v>
-      </c>
       <c r="C87" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="E87">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>67</v>
       </c>
       <c r="B88" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C88" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="E88">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>71</v>
       </c>
       <c r="B89" t="s">
+        <v>195</v>
+      </c>
+      <c r="C89" t="s">
+        <v>92</v>
+      </c>
+      <c r="E89">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>196</v>
       </c>
-      <c r="C89" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
+      <c r="B90" t="s">
         <v>197</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
+        <v>92</v>
+      </c>
+      <c r="E90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F90">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" t="s">
         <v>198</v>
       </c>
-      <c r="C90" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>197</v>
-      </c>
-      <c r="B91" t="s">
-        <v>199</v>
-      </c>
       <c r="C91" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="E91">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>79</v>
       </c>
       <c r="B92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C92" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="E92">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F92">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>79</v>
       </c>
       <c r="B93" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="E93">
+        <v>8.1</v>
+      </c>
+      <c r="F93">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>79</v>
       </c>
       <c r="B94" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C94" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="E94">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F94">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>79</v>
       </c>
       <c r="B95" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C95" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="E95">
+        <v>9.6</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B96" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C96" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>8.5</v>
+      </c>
+      <c r="F96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>74</v>
       </c>
       <c r="B97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C97" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>74</v>
       </c>
       <c r="B98" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98">
+        <v>9</v>
+      </c>
+      <c r="F98">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B99" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C99" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>7.4</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -2109,8 +2474,11 @@
       <c r="D100">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -2123,8 +2491,11 @@
       <c r="D101">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -2137,8 +2508,11 @@
       <c r="D102">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -2151,8 +2525,11 @@
       <c r="D103">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -2165,8 +2542,11 @@
       <c r="D104">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>15</v>
       </c>
@@ -2179,8 +2559,11 @@
       <c r="D105">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>15</v>
       </c>
@@ -2193,8 +2576,14 @@
       <c r="D106">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F106">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>15</v>
       </c>
@@ -2207,8 +2596,11 @@
       <c r="D107">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -2221,8 +2613,11 @@
       <c r="D108">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -2235,8 +2630,11 @@
       <c r="D109">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="E109">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>29</v>
       </c>
@@ -2249,8 +2647,11 @@
       <c r="D110">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="E110">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>24</v>
       </c>
@@ -2263,8 +2664,11 @@
       <c r="D111" s="1">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="E111">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>24</v>
       </c>
@@ -2277,8 +2681,11 @@
       <c r="D112">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="E112">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>24</v>
       </c>
@@ -2291,8 +2698,11 @@
       <c r="D113">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -2305,8 +2715,11 @@
       <c r="D114">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>22</v>
       </c>
@@ -2319,8 +2732,11 @@
       <c r="D115">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -2333,8 +2749,11 @@
       <c r="D116">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>38</v>
       </c>
@@ -2347,8 +2766,11 @@
       <c r="D117">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>37</v>
       </c>
@@ -2361,8 +2783,11 @@
       <c r="D118">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="E118">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>32</v>
       </c>
@@ -2375,8 +2800,11 @@
       <c r="D119">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>40</v>
       </c>
@@ -2389,8 +2817,11 @@
       <c r="D120">
         <v>9</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>34</v>
       </c>
@@ -2403,8 +2834,11 @@
       <c r="D121">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="E121">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>42</v>
       </c>
@@ -2417,8 +2851,11 @@
       <c r="D122">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="E122">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>44</v>
       </c>
@@ -2431,8 +2868,11 @@
       <c r="D123">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="E123">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>44</v>
       </c>
@@ -2445,8 +2885,11 @@
       <c r="D124">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="E124">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>44</v>
       </c>
@@ -2459,8 +2902,14 @@
       <c r="D125">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125">
+        <v>9.1</v>
+      </c>
+      <c r="F125">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>44</v>
       </c>
@@ -2473,8 +2922,14 @@
       <c r="D126">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="E126">
+        <v>7.7</v>
+      </c>
+      <c r="F126">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>50</v>
       </c>
@@ -2487,8 +2942,11 @@
       <c r="D127">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="E127">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>50</v>
       </c>
@@ -2501,8 +2959,11 @@
       <c r="D128">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="E128">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>53</v>
       </c>
@@ -2515,8 +2976,11 @@
       <c r="D129">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="E129">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>46</v>
       </c>
@@ -2529,8 +2993,14 @@
       <c r="D130">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="E130">
+        <v>9.6</v>
+      </c>
+      <c r="F130">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>56</v>
       </c>
@@ -2543,8 +3013,11 @@
       <c r="D131">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="E131">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>58</v>
       </c>
@@ -2557,8 +3030,11 @@
       <c r="D132">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="E132">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>60</v>
       </c>
@@ -2571,8 +3047,11 @@
       <c r="D133">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="E133">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>62</v>
       </c>
@@ -2585,8 +3064,11 @@
       <c r="D134">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="E134">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>62</v>
       </c>
@@ -2599,8 +3081,11 @@
       <c r="D135">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="E135">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>64</v>
       </c>
@@ -2613,8 +3098,11 @@
       <c r="D136">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="E136">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>67</v>
       </c>
@@ -2627,8 +3115,14 @@
       <c r="D137">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="E137">
+        <v>10.9</v>
+      </c>
+      <c r="F137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>71</v>
       </c>
@@ -2641,8 +3135,11 @@
       <c r="D138">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="E138">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>67</v>
       </c>
@@ -2655,8 +3152,11 @@
       <c r="D139">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="E139">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>71</v>
       </c>
@@ -2669,8 +3169,14 @@
       <c r="D140">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="E140">
+        <v>7.9</v>
+      </c>
+      <c r="F140">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>68</v>
       </c>
@@ -2683,8 +3189,14 @@
       <c r="D141">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="E141">
+        <v>9.1</v>
+      </c>
+      <c r="F141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>77</v>
       </c>
@@ -2697,8 +3209,11 @@
       <c r="D142">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="E142">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>79</v>
       </c>
@@ -2711,8 +3226,11 @@
       <c r="D143">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="E143">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>74</v>
       </c>
@@ -2725,8 +3243,11 @@
       <c r="D144">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="E144">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>74</v>
       </c>
@@ -2739,8 +3260,11 @@
       <c r="D145">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="E145">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>74</v>
       </c>
@@ -2753,8 +3277,11 @@
       <c r="D146">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="E146">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>74</v>
       </c>
@@ -2767,8 +3294,14 @@
       <c r="D147">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="E147">
+        <v>7.3</v>
+      </c>
+      <c r="F147">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>84</v>
       </c>
@@ -2781,9 +3314,15 @@
       <c r="D148">
         <v>7.7</v>
       </c>
+      <c r="E148">
+        <v>8.1</v>
+      </c>
+      <c r="F148">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1">
+  <autoFilter ref="A1:G1">
     <sortState ref="A2:F148">
       <sortCondition ref="C1:C148"/>
     </sortState>
@@ -2792,11 +3331,6 @@
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2808,32 +3342,32 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
         <v>202</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>203</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>204</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>205</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>206</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>207</v>
       </c>
-      <c r="G1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42766</v>
       </c>
@@ -2856,7 +3390,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42777</v>
       </c>
@@ -2881,10 +3415,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/data/treatmentC.xlsx
+++ b/data/treatmentC.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TX.csv" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TX.csv!$A$1:$G$1</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="221">
   <si>
     <t>OLD</t>
   </si>
@@ -665,9 +666,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Freeze Date</t>
-  </si>
-  <si>
     <t>BBCH</t>
   </si>
   <si>
@@ -680,7 +678,19 @@
     <t>OUT</t>
   </si>
   <si>
-    <t>SWITCH VIBCAS B's and A's ASAP!!!!!!!!! 1 MESS UP!</t>
+    <t>13.FEB</t>
+  </si>
+  <si>
+    <t>Freeze.in</t>
+  </si>
+  <si>
+    <t>Freeze.out</t>
+  </si>
+  <si>
+    <t>13.Feb</t>
+  </si>
+  <si>
+    <t>14.Feb</t>
   </si>
 </sst>
 </file>
@@ -742,27 +752,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1030,7 +1045,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1041,8 +1056,8 @@
   <dimension ref="A1:G148"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G149" sqref="G149"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3386,6 +3401,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3473,237 +3505,362 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>211</v>
       </c>
       <c r="B1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" t="s">
         <v>212</v>
       </c>
-      <c r="C1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C2" s="3">
         <v>0.66875000000000007</v>
       </c>
-      <c r="E2">
+      <c r="D2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="F2">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>188</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C3" s="3">
         <v>0.66875000000000007</v>
       </c>
-      <c r="E3">
+      <c r="D3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="F3">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C4" s="3">
         <v>0.66875000000000007</v>
       </c>
-      <c r="E4">
+      <c r="D4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="F4">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C5" s="3">
         <v>0.66875000000000007</v>
       </c>
-      <c r="E5">
+      <c r="D5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="F5">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6" s="3">
         <v>0.66875000000000007</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="F6">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>194</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" s="3">
         <v>0.66875000000000007</v>
       </c>
-      <c r="E7">
+      <c r="D7" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="F7">
         <v>10</v>
       </c>
-      <c r="F7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>189</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C8" s="3">
         <v>0.66875000000000007</v>
       </c>
-      <c r="E8">
+      <c r="D8" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="F8">
         <v>11</v>
       </c>
-      <c r="F8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>190</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9" s="3">
         <v>0.66875000000000007</v>
       </c>
-      <c r="E9">
+      <c r="D9" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="F9">
         <v>11</v>
       </c>
-      <c r="F9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>183</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C10" s="3">
         <v>0.66875000000000007</v>
       </c>
-      <c r="E10">
+      <c r="D10" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="F10">
         <v>11</v>
       </c>
-      <c r="F10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C11" s="3">
         <v>0.66875000000000007</v>
       </c>
-      <c r="E11">
+      <c r="D11" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C12" s="3">
         <v>0.66875000000000007</v>
       </c>
-      <c r="E12">
+      <c r="D12" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="F12">
         <v>10</v>
       </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A14:F14"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/data/treatmentC.xlsx
+++ b/data/treatmentC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12560" yWindow="3620" windowWidth="36680" windowHeight="22120" tabRatio="500"/>
+    <workbookView xWindow="12560" yWindow="3620" windowWidth="36680" windowHeight="22120" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="6" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="GH" sheetId="2" r:id="rId3"/>
     <sheet name="FRZ" sheetId="3" r:id="rId4"/>
     <sheet name="tx.counts" sheetId="5" r:id="rId5"/>
+    <sheet name="soil.moisture" sheetId="7" r:id="rId6"/>
+    <sheet name="monitor" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FRZ!$A$1:$G$1</definedName>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="257">
   <si>
     <t>OLD</t>
   </si>
@@ -770,6 +772,42 @@
   </si>
   <si>
     <t>Do again with cuttings!!</t>
+  </si>
+  <si>
+    <t>boat.wt</t>
+  </si>
+  <si>
+    <t>wet.wt</t>
+  </si>
+  <si>
+    <t>dry.wt</t>
+  </si>
+  <si>
+    <t>day.in</t>
+  </si>
+  <si>
+    <t>day.out</t>
+  </si>
+  <si>
+    <t>total.hrs</t>
+  </si>
+  <si>
+    <t>PRUPEN_SH12</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>reading</t>
+  </si>
+  <si>
+    <t>16.FEB</t>
+  </si>
+  <si>
+    <t>time.in</t>
+  </si>
+  <si>
+    <t>time.out</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -4188,10 +4226,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4541,6 +4579,40 @@
         <v>10</v>
       </c>
       <c r="G15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="F17">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4728,4 +4800,408 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="C2">
+        <v>10.879</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>9.6039999999999992</v>
+      </c>
+      <c r="E2">
+        <v>10.4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3">
+        <v>1.2809999999999999</v>
+      </c>
+      <c r="C3">
+        <v>13.202</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D11" si="0">C3-B3</f>
+        <v>11.920999999999999</v>
+      </c>
+      <c r="E3">
+        <v>10.9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4">
+        <v>1.2789999999999999</v>
+      </c>
+      <c r="C4">
+        <v>13.17</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>11.891</v>
+      </c>
+      <c r="E4">
+        <v>10.7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5">
+        <v>1.2929999999999999</v>
+      </c>
+      <c r="C5">
+        <v>12.185</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>10.892000000000001</v>
+      </c>
+      <c r="E5">
+        <v>11.3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6">
+        <v>1.282</v>
+      </c>
+      <c r="C6">
+        <v>15.253</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>13.971</v>
+      </c>
+      <c r="E6">
+        <v>10.3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7">
+        <v>1.2889999999999999</v>
+      </c>
+      <c r="C7">
+        <v>14.895</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>13.606</v>
+      </c>
+      <c r="E7">
+        <v>10.8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="C8">
+        <v>12.282</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>10.977</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>1.284</v>
+      </c>
+      <c r="C9">
+        <v>10.747</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>9.4629999999999992</v>
+      </c>
+      <c r="E9">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="C10">
+        <v>11.776</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>10.500999999999999</v>
+      </c>
+      <c r="E10">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G10" t="s">
+        <v>254</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11">
+        <v>1.282</v>
+      </c>
+      <c r="C11">
+        <v>12.911</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>11.629</v>
+      </c>
+      <c r="E11">
+        <v>11.5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>254</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/treatmentC.xlsx
+++ b/data/treatmentC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12560" yWindow="3620" windowWidth="36680" windowHeight="22120" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="24760" yWindow="2720" windowWidth="36680" windowHeight="22120" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FRZ!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TX.csv!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="259">
   <si>
     <t>OLD</t>
   </si>
@@ -808,6 +808,12 @@
   </si>
   <si>
     <t>time.out</t>
+  </si>
+  <si>
+    <t>20.FEB</t>
+  </si>
+  <si>
+    <t>percent</t>
   </si>
 </sst>
 </file>
@@ -4804,15 +4810,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -4846,8 +4852,11 @@
       <c r="K1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -4864,14 +4873,30 @@
       <c r="E2">
         <v>10.4</v>
       </c>
+      <c r="F2">
+        <v>4.0374999999999996</v>
+      </c>
       <c r="G2" t="s">
         <v>254</v>
       </c>
       <c r="H2" s="3">
         <v>0.47916666666666669</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K2">
+        <v>95.5</v>
+      </c>
+      <c r="L2">
+        <f>((C2-F2)/C2)*100</f>
+        <v>62.887213898336249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>131</v>
       </c>
@@ -4888,14 +4913,30 @@
       <c r="E3">
         <v>10.9</v>
       </c>
+      <c r="F3">
+        <v>4.4884000000000004</v>
+      </c>
       <c r="G3" t="s">
         <v>254</v>
       </c>
       <c r="H3" s="3">
         <v>0.47916666666666669</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>257</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K3">
+        <v>95.5</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L11" si="1">((C3-F3)/C3)*100</f>
+        <v>66.002120890774123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -4912,14 +4953,30 @@
       <c r="E4">
         <v>10.7</v>
       </c>
+      <c r="F4">
+        <v>4.6595000000000004</v>
+      </c>
       <c r="G4" t="s">
         <v>254</v>
       </c>
       <c r="H4" s="3">
         <v>0.47916666666666669</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>257</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K4">
+        <v>95.5</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>64.620349278663639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -4936,14 +4993,30 @@
       <c r="E5">
         <v>11.3</v>
       </c>
+      <c r="F5">
+        <v>4.4255000000000004</v>
+      </c>
       <c r="G5" t="s">
         <v>254</v>
       </c>
       <c r="H5" s="3">
         <v>0.47916666666666669</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>257</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K5">
+        <v>95.5</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>63.680755026672131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -4960,14 +5033,30 @@
       <c r="E6">
         <v>10.3</v>
       </c>
+      <c r="F6">
+        <v>4.9896000000000003</v>
+      </c>
       <c r="G6" t="s">
         <v>254</v>
       </c>
       <c r="H6" s="3">
         <v>0.47916666666666669</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>257</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K6">
+        <v>95.5</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>67.287746672785687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>199</v>
       </c>
@@ -4984,14 +5073,30 @@
       <c r="E7">
         <v>10.8</v>
       </c>
+      <c r="F7">
+        <v>5.0781999999999998</v>
+      </c>
       <c r="G7" t="s">
         <v>254</v>
       </c>
       <c r="H7" s="3">
         <v>0.47916666666666669</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>257</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K7">
+        <v>95.5</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>65.90668009399127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -5008,14 +5113,30 @@
       <c r="E8">
         <v>9</v>
       </c>
+      <c r="F8">
+        <v>4.6997999999999998</v>
+      </c>
       <c r="G8" t="s">
         <v>254</v>
       </c>
       <c r="H8" s="3">
         <v>0.47916666666666669</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>257</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K8">
+        <v>95.5</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>61.734245236932097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -5032,14 +5153,30 @@
       <c r="E9">
         <v>8.6999999999999993</v>
       </c>
+      <c r="F9">
+        <v>4.5034999999999998</v>
+      </c>
       <c r="G9" t="s">
         <v>254</v>
       </c>
       <c r="H9" s="3">
         <v>0.47916666666666669</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K9">
+        <v>95.5</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>58.095282404391924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -5056,14 +5193,30 @@
       <c r="E10">
         <v>10.199999999999999</v>
       </c>
+      <c r="F10">
+        <v>4.4480000000000004</v>
+      </c>
       <c r="G10" t="s">
         <v>254</v>
       </c>
       <c r="H10" s="3">
         <v>0.47916666666666669</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K10">
+        <v>95.5</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>62.228260869565212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>251</v>
       </c>
@@ -5080,11 +5233,27 @@
       <c r="E11">
         <v>11.5</v>
       </c>
+      <c r="F11">
+        <v>4.7872000000000003</v>
+      </c>
       <c r="G11" t="s">
         <v>254</v>
       </c>
       <c r="H11" s="3">
         <v>0.47916666666666669</v>
+      </c>
+      <c r="I11" t="s">
+        <v>257</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K11">
+        <v>95.5</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>62.921539772287197</v>
       </c>
     </row>
   </sheetData>
@@ -5096,7 +5265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>

--- a/data/treatmentC.xlsx
+++ b/data/treatmentC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24760" yWindow="2720" windowWidth="36680" windowHeight="22120" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="7380" yWindow="2740" windowWidth="36680" windowHeight="22120" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="6" r:id="rId1"/>
     <sheet name="TX.csv" sheetId="1" r:id="rId2"/>
-    <sheet name="GH" sheetId="2" r:id="rId3"/>
-    <sheet name="FRZ" sheetId="3" r:id="rId4"/>
-    <sheet name="tx.counts" sheetId="5" r:id="rId5"/>
-    <sheet name="soil.moisture" sheetId="7" r:id="rId6"/>
-    <sheet name="monitor" sheetId="8" r:id="rId7"/>
+    <sheet name="FRZ" sheetId="3" r:id="rId3"/>
+    <sheet name="tx.counts" sheetId="5" r:id="rId4"/>
+    <sheet name="soil.moisture" sheetId="7" r:id="rId5"/>
+    <sheet name="monitor" sheetId="8" r:id="rId6"/>
+    <sheet name="GH" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FRZ!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FRZ!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TX.csv!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="279">
   <si>
     <t>OLD</t>
   </si>
@@ -814,13 +814,73 @@
   </si>
   <si>
     <t>percent</t>
+  </si>
+  <si>
+    <t>BBCH.17.Feb</t>
+  </si>
+  <si>
+    <t>BBCH.23.Feb</t>
+  </si>
+  <si>
+    <t>23.Feb</t>
+  </si>
+  <si>
+    <t>slight wilt</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>wilted</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>dead?</t>
+  </si>
+  <si>
+    <t>12 (side); N/A</t>
+  </si>
+  <si>
+    <t>low(10);N/A</t>
+  </si>
+  <si>
+    <t>17.Feb</t>
+  </si>
+  <si>
+    <t>21.FEB</t>
+  </si>
+  <si>
+    <t>23.FEB</t>
+  </si>
+  <si>
+    <t>FREEZING</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>slight discoloration</t>
+  </si>
+  <si>
+    <t>some discoloration and wilting</t>
+  </si>
+  <si>
+    <t>discoloration and wilting</t>
+  </si>
+  <si>
+    <t>severely discolored and wilted</t>
+  </si>
+  <si>
+    <t>all leaves severly discolored and severly wilted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -864,6 +924,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -893,12 +966,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1184,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1251,6 +1327,59 @@
         <v>244</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>278</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1258,11 +1387,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:K149"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L121" sqref="L121"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1271,7 +1400,7 @@
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1296,8 +1425,14 @@
       <c r="H1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1313,8 +1448,9 @@
       <c r="G2" s="1">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1330,8 +1466,9 @@
       <c r="G3" s="1">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1347,8 +1484,9 @@
       <c r="G4" s="1">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1364,8 +1502,9 @@
       <c r="G5" s="1">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1381,8 +1520,14 @@
       <c r="G6" s="1">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="7">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1398,8 +1543,9 @@
       <c r="G7" s="1">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1415,8 +1561,9 @@
       <c r="G8" s="1">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1432,8 +1579,9 @@
       <c r="G9" s="1">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -1449,8 +1597,9 @@
       <c r="G10" s="1">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -1466,8 +1615,9 @@
       <c r="G11" s="1">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -1483,8 +1633,9 @@
       <c r="G12" s="1">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -1500,8 +1651,9 @@
       <c r="G13" s="1">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -1517,8 +1669,9 @@
       <c r="G14" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1534,8 +1687,9 @@
       <c r="G15" s="1">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1551,8 +1705,9 @@
       <c r="G16" s="1">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1568,8 +1723,9 @@
       <c r="G17" s="1">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1585,8 +1741,9 @@
       <c r="G18" s="1">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1602,8 +1759,9 @@
       <c r="G19" s="1">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1619,8 +1777,9 @@
       <c r="G20" s="1">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>125</v>
       </c>
@@ -1636,8 +1795,9 @@
       <c r="G21" s="1">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -1653,8 +1813,9 @@
       <c r="G22" s="1">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1670,8 +1831,9 @@
       <c r="G23" s="1">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1687,8 +1849,9 @@
       <c r="G24" s="1">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -1710,8 +1873,14 @@
       <c r="H25">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="7">
+        <v>9</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -1730,8 +1899,12 @@
       <c r="G26" s="1">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="7"/>
+      <c r="J26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1753,8 +1926,14 @@
       <c r="H27">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="7">
+        <v>9</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -1770,8 +1949,12 @@
       <c r="G28" s="1">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="7"/>
+      <c r="J28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>144</v>
       </c>
@@ -1787,8 +1970,9 @@
       <c r="G29" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -1804,8 +1988,9 @@
       <c r="G30" s="1">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -1821,8 +2006,9 @@
       <c r="G31" s="1">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>142</v>
       </c>
@@ -1844,8 +2030,14 @@
       <c r="H32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="7">
+        <v>11</v>
+      </c>
+      <c r="J32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -1861,8 +2053,9 @@
       <c r="G33" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>170</v>
       </c>
@@ -1878,8 +2071,12 @@
       <c r="G34" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="7"/>
+      <c r="J34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -1895,8 +2092,9 @@
       <c r="G35" s="1">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>162</v>
       </c>
@@ -1912,8 +2110,12 @@
       <c r="G36" s="1">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="7"/>
+      <c r="J36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -1929,8 +2131,14 @@
       <c r="G37" s="1">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" s="7">
+        <v>9</v>
+      </c>
+      <c r="J37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -1946,8 +2154,14 @@
       <c r="G38" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="7">
+        <v>9</v>
+      </c>
+      <c r="J38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -1966,8 +2180,12 @@
       <c r="H39">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" s="7"/>
+      <c r="J39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -1986,8 +2204,14 @@
       <c r="G40" s="1">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" s="7">
+        <v>12</v>
+      </c>
+      <c r="J40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -2006,8 +2230,9 @@
       <c r="H41">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -2023,8 +2248,14 @@
       <c r="G42" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="7">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>177</v>
       </c>
@@ -2040,8 +2271,12 @@
       <c r="G43" s="1">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" s="7"/>
+      <c r="J43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -2063,8 +2298,14 @@
       <c r="H44">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" s="7">
+        <v>10</v>
+      </c>
+      <c r="J44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>177</v>
       </c>
@@ -2080,8 +2321,14 @@
       <c r="G45" s="1">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" s="7">
+        <v>9</v>
+      </c>
+      <c r="J45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>177</v>
       </c>
@@ -2100,8 +2347,14 @@
       <c r="G46" s="1">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" s="7">
+        <v>11</v>
+      </c>
+      <c r="J46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -2120,8 +2373,14 @@
       <c r="H47">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" s="7">
+        <v>9</v>
+      </c>
+      <c r="J47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -2140,8 +2399,9 @@
       <c r="G48" s="1">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -2163,8 +2423,9 @@
       <c r="H49">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -2183,8 +2444,9 @@
       <c r="G50" s="1">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -2203,8 +2465,14 @@
       <c r="G51" s="1">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" s="7">
+        <v>9</v>
+      </c>
+      <c r="J51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -2223,8 +2491,14 @@
       <c r="G52" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" s="7">
+        <v>11</v>
+      </c>
+      <c r="J52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -2246,8 +2520,14 @@
       <c r="G53" s="1">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" s="7">
+        <v>9</v>
+      </c>
+      <c r="J53">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -2266,8 +2546,12 @@
       <c r="G54" s="1">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" s="7"/>
+      <c r="J54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>78</v>
       </c>
@@ -2286,8 +2570,14 @@
       <c r="G55" s="1">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" s="7">
+        <v>12</v>
+      </c>
+      <c r="J55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -2306,8 +2596,14 @@
       <c r="G56" s="1">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" s="7">
+        <v>9</v>
+      </c>
+      <c r="J56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>73</v>
       </c>
@@ -2326,8 +2622,14 @@
       <c r="G57" s="1">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" s="7">
+        <v>12</v>
+      </c>
+      <c r="J57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -2346,8 +2648,14 @@
       <c r="G58" s="1">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" s="7">
+        <v>9</v>
+      </c>
+      <c r="J58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>70</v>
       </c>
@@ -2363,8 +2671,12 @@
       <c r="G59" s="1">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" s="7"/>
+      <c r="J59" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>67</v>
       </c>
@@ -2383,8 +2695,12 @@
       <c r="G60" s="1">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" s="7"/>
+      <c r="J60" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -2400,8 +2716,9 @@
       <c r="G61" s="1">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -2417,8 +2734,9 @@
       <c r="G62" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" s="7"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -2434,8 +2752,9 @@
       <c r="G63" s="1">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -2451,8 +2770,9 @@
       <c r="G64" s="1">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -2468,8 +2788,9 @@
       <c r="G65" s="1">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -2485,8 +2806,9 @@
       <c r="G66" s="1">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66" s="7"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -2502,8 +2824,9 @@
       <c r="G67" s="1">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67" s="7"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -2519,8 +2842,9 @@
       <c r="G68" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68" s="7"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -2536,8 +2860,9 @@
       <c r="G69" s="1">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69" s="7"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2553,8 +2878,9 @@
       <c r="G70" s="1">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70" s="7"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -2570,8 +2896,9 @@
       <c r="G71" s="1">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71" s="7"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>100</v>
       </c>
@@ -2587,8 +2914,9 @@
       <c r="G72" s="1">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72" s="7"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -2604,8 +2932,14 @@
       <c r="G73" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73" s="7">
+        <v>9</v>
+      </c>
+      <c r="J73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -2621,8 +2955,9 @@
       <c r="G74" s="1">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74" s="7"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -2638,8 +2973,9 @@
       <c r="G75" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75" s="7"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -2655,8 +2991,9 @@
       <c r="G76" s="1">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76" s="7"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -2672,8 +3009,9 @@
       <c r="G77" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77" s="7"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>37</v>
       </c>
@@ -2689,8 +3027,9 @@
       <c r="G78" s="1">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78" s="7"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>36</v>
       </c>
@@ -2706,8 +3045,9 @@
       <c r="G79" s="1">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79" s="7"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>125</v>
       </c>
@@ -2726,8 +3066,9 @@
       <c r="H80">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80" s="7"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>125</v>
       </c>
@@ -2746,8 +3087,9 @@
       <c r="H81">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81" s="7"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -2766,8 +3108,9 @@
       <c r="H82">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82" s="7"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>41</v>
       </c>
@@ -2783,8 +3126,9 @@
       <c r="G83" s="1">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83" s="7"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>43</v>
       </c>
@@ -2800,8 +3144,14 @@
       <c r="G84" s="1">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84" s="7">
+        <v>9</v>
+      </c>
+      <c r="J84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>43</v>
       </c>
@@ -2817,8 +3167,12 @@
       <c r="G85" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85" s="7"/>
+      <c r="J85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>43</v>
       </c>
@@ -2834,8 +3188,12 @@
       <c r="G86" s="1">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86" s="7"/>
+      <c r="J86" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>149</v>
       </c>
@@ -2851,8 +3209,12 @@
       <c r="G87" s="1">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87" s="7"/>
+      <c r="J87">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>144</v>
       </c>
@@ -2871,8 +3233,9 @@
       <c r="H88">
         <v>9</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88" s="7"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>144</v>
       </c>
@@ -2888,15 +3251,16 @@
       <c r="G89" s="1">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="I89" s="7"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E90" s="1">
@@ -2911,15 +3275,21 @@
       <c r="H90">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="I90" s="7">
+        <v>10</v>
+      </c>
+      <c r="J90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E91" s="1">
@@ -2931,8 +3301,14 @@
       <c r="G91" s="1">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91" s="7">
+        <v>10</v>
+      </c>
+      <c r="J91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>158</v>
       </c>
@@ -2948,8 +3324,9 @@
       <c r="G92" s="1">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92" s="7"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>57</v>
       </c>
@@ -2965,8 +3342,12 @@
       <c r="G93" s="1">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93" s="7"/>
+      <c r="J93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>61</v>
       </c>
@@ -2982,8 +3363,9 @@
       <c r="G94" s="1">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94" s="7"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3381,14 @@
       <c r="G95" s="1">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95" s="7">
+        <v>9</v>
+      </c>
+      <c r="J95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>170</v>
       </c>
@@ -3019,8 +3407,14 @@
       <c r="H96">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96" s="7">
+        <v>9</v>
+      </c>
+      <c r="J96">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>171</v>
       </c>
@@ -3036,8 +3430,12 @@
       <c r="G97" s="1">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97" s="7"/>
+      <c r="J97">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>70</v>
       </c>
@@ -3056,15 +3454,21 @@
       <c r="H98">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="I98" s="7">
+        <v>10</v>
+      </c>
+      <c r="J98">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E99" s="1">
@@ -3076,8 +3480,12 @@
       <c r="G99" s="1">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99" s="7"/>
+      <c r="J99" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>195</v>
       </c>
@@ -3093,8 +3501,12 @@
       <c r="G100" s="1">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100" s="7"/>
+      <c r="J100" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>78</v>
       </c>
@@ -3113,8 +3525,12 @@
       <c r="G101" s="1">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101" s="7"/>
+      <c r="J101" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>78</v>
       </c>
@@ -3133,8 +3549,12 @@
       <c r="G102" s="1">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102" s="7"/>
+      <c r="J102" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>177</v>
       </c>
@@ -3153,8 +3573,14 @@
       <c r="G103" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I103" s="7">
+        <v>9</v>
+      </c>
+      <c r="J103" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>73</v>
       </c>
@@ -3170,15 +3596,20 @@
       <c r="G104" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="I104" s="7"/>
+      <c r="J104" s="6">
+        <v>9</v>
+      </c>
+      <c r="K104" s="6"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E105" s="1">
@@ -3190,8 +3621,13 @@
       <c r="G105" s="1">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I105" s="7"/>
+      <c r="J105" s="4">
+        <v>5</v>
+      </c>
+      <c r="K105" s="5"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>177</v>
       </c>
@@ -3210,8 +3646,12 @@
       <c r="G106" s="1">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I106" s="7"/>
+      <c r="J106" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -3230,8 +3670,9 @@
       <c r="G107" s="1">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I107" s="7"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -3250,8 +3691,9 @@
       <c r="G108" s="1">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108" s="7"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>61</v>
       </c>
@@ -3270,8 +3712,9 @@
       <c r="G109" s="1">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I109" s="7"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>61</v>
       </c>
@@ -3290,8 +3733,14 @@
       <c r="G110" s="1">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110" s="7">
+        <v>9</v>
+      </c>
+      <c r="J110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>66</v>
       </c>
@@ -3313,8 +3762,14 @@
       <c r="G111" s="1">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I111" s="7">
+        <v>9</v>
+      </c>
+      <c r="J111">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>66</v>
       </c>
@@ -3333,8 +3788,12 @@
       <c r="G112" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I112" s="7"/>
+      <c r="J112" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>67</v>
       </c>
@@ -3356,8 +3815,12 @@
       <c r="G113" s="1">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113" s="7"/>
+      <c r="J113" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>73</v>
       </c>
@@ -3376,8 +3839,12 @@
       <c r="G114" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I114" s="7"/>
+      <c r="J114" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>73</v>
       </c>
@@ -3399,8 +3866,12 @@
       <c r="G115" s="1">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I115" s="7"/>
+      <c r="J115" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>83</v>
       </c>
@@ -3422,8 +3893,12 @@
       <c r="G116" s="1">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I116" s="7"/>
+      <c r="J116" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>78</v>
       </c>
@@ -3442,8 +3917,11 @@
       <c r="G117" s="1">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J117" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>78</v>
       </c>
@@ -3462,8 +3940,11 @@
       <c r="G118">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J118" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>78</v>
       </c>
@@ -3482,8 +3963,11 @@
       <c r="G119">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J119" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>78</v>
       </c>
@@ -3502,8 +3986,11 @@
       <c r="G120">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J120" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -3523,14 +4010,14 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D122">
@@ -3542,8 +4029,11 @@
       <c r="G122">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J122" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>14</v>
       </c>
@@ -3569,7 +4059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -3592,7 +4082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>12</v>
       </c>
@@ -3615,7 +4105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -3638,7 +4128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>28</v>
       </c>
@@ -3658,7 +4148,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>23</v>
       </c>
@@ -3678,7 +4168,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>23</v>
       </c>
@@ -3698,7 +4188,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>23</v>
       </c>
@@ -3721,7 +4211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>19</v>
       </c>
@@ -3741,7 +4231,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>21</v>
       </c>
@@ -3761,7 +4251,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>21</v>
       </c>
@@ -3781,7 +4271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>37</v>
       </c>
@@ -3801,7 +4291,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -3821,7 +4311,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>31</v>
       </c>
@@ -3841,7 +4331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>39</v>
       </c>
@@ -3861,7 +4351,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>33</v>
       </c>
@@ -3881,7 +4371,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>41</v>
       </c>
@@ -3901,7 +4391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>43</v>
       </c>
@@ -3920,8 +4410,14 @@
       <c r="G140">
         <v>9</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I140">
+        <v>9</v>
+      </c>
+      <c r="J140">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>43</v>
       </c>
@@ -3940,8 +4436,14 @@
       <c r="G141">
         <v>9</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I141">
+        <v>9</v>
+      </c>
+      <c r="J141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>43</v>
       </c>
@@ -3963,8 +4465,11 @@
       <c r="G142">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>43</v>
       </c>
@@ -3986,8 +4491,11 @@
       <c r="G143">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>49</v>
       </c>
@@ -4006,8 +4514,11 @@
       <c r="G144">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J144">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>49</v>
       </c>
@@ -4026,8 +4537,11 @@
       <c r="G145">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J145">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>52</v>
       </c>
@@ -4046,15 +4560,18 @@
       <c r="G146">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+      <c r="J146" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D147">
@@ -4069,8 +4586,14 @@
       <c r="G147">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I147">
+        <v>9</v>
+      </c>
+      <c r="J147" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>55</v>
       </c>
@@ -4090,7 +4613,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>63</v>
       </c>
@@ -4125,117 +4648,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>42766</v>
-      </c>
-      <c r="B2">
-        <v>90</v>
-      </c>
-      <c r="C2">
-        <v>65</v>
-      </c>
-      <c r="D2">
-        <v>99</v>
-      </c>
-      <c r="E2">
-        <v>59</v>
-      </c>
-      <c r="F2">
-        <v>61</v>
-      </c>
-      <c r="G2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>42777</v>
-      </c>
-      <c r="B3">
-        <v>83</v>
-      </c>
-      <c r="C3">
-        <v>68</v>
-      </c>
-      <c r="D3">
-        <v>91</v>
-      </c>
-      <c r="E3">
-        <v>55</v>
-      </c>
-      <c r="F3">
-        <v>68</v>
-      </c>
-      <c r="G3">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>42780</v>
-      </c>
-      <c r="B4">
-        <v>84</v>
-      </c>
-      <c r="C4">
-        <v>67</v>
-      </c>
-      <c r="D4">
-        <v>92</v>
-      </c>
-      <c r="E4">
-        <v>59</v>
-      </c>
-      <c r="F4">
-        <v>68</v>
-      </c>
-      <c r="G4">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4598,6 +5014,12 @@
       <c r="C16" s="3">
         <v>0.4375</v>
       </c>
+      <c r="D16" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.48472222222222222</v>
+      </c>
       <c r="F16">
         <v>12</v>
       </c>
@@ -4615,10 +5037,210 @@
       <c r="C17" s="3">
         <v>0.4375</v>
       </c>
+      <c r="D17" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.48472222222222222</v>
+      </c>
       <c r="F17">
         <v>11</v>
       </c>
       <c r="G17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="F18">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>271</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="F22">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="F24">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" t="s">
+        <v>271</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="F25">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="F26">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>271</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="F27">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4633,7 +5255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -4808,11 +5430,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -5261,17 +5883,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -5281,8 +5903,11 @@
       <c r="C1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -5292,8 +5917,11 @@
       <c r="C2">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -5303,8 +5931,11 @@
       <c r="C3">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>184</v>
       </c>
@@ -5314,8 +5945,11 @@
       <c r="C4">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -5325,8 +5959,11 @@
       <c r="C5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -5336,8 +5973,11 @@
       <c r="C6">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -5347,8 +5987,11 @@
       <c r="C7">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -5358,8 +6001,11 @@
       <c r="C8">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>143</v>
       </c>
@@ -5368,9 +6014,119 @@
       </c>
       <c r="C9">
         <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>42766</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <v>65</v>
+      </c>
+      <c r="D2">
+        <v>99</v>
+      </c>
+      <c r="E2">
+        <v>59</v>
+      </c>
+      <c r="F2">
+        <v>61</v>
+      </c>
+      <c r="G2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>42777</v>
+      </c>
+      <c r="B3">
+        <v>83</v>
+      </c>
+      <c r="C3">
+        <v>68</v>
+      </c>
+      <c r="D3">
+        <v>91</v>
+      </c>
+      <c r="E3">
+        <v>55</v>
+      </c>
+      <c r="F3">
+        <v>68</v>
+      </c>
+      <c r="G3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>42780</v>
+      </c>
+      <c r="B4">
+        <v>84</v>
+      </c>
+      <c r="C4">
+        <v>67</v>
+      </c>
+      <c r="D4">
+        <v>92</v>
+      </c>
+      <c r="E4">
+        <v>59</v>
+      </c>
+      <c r="F4">
+        <v>68</v>
+      </c>
+      <c r="G4">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/treatmentC.xlsx
+++ b/data/treatmentC.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="281">
   <si>
     <t>OLD</t>
   </si>
@@ -874,6 +874,12 @@
   </si>
   <si>
     <t>all leaves severly discolored and severly wilted</t>
+  </si>
+  <si>
+    <t>Status.post</t>
+  </si>
+  <si>
+    <t>24.FEB</t>
   </si>
 </sst>
 </file>
@@ -966,7 +972,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -975,6 +981,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4648,18 +4655,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -4681,8 +4689,11 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -4705,7 +4716,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>197</v>
       </c>
@@ -4728,7 +4739,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -4751,7 +4762,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>174</v>
       </c>
@@ -4774,7 +4785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>175</v>
       </c>
@@ -4797,7 +4808,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>182</v>
       </c>
@@ -4820,7 +4831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>187</v>
       </c>
@@ -4843,7 +4854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -4866,7 +4877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>189</v>
       </c>
@@ -4889,7 +4900,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -4912,7 +4923,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -4935,7 +4946,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>198</v>
       </c>
@@ -4958,7 +4969,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -4981,7 +4992,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -5004,7 +5015,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -5027,7 +5038,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>196</v>
       </c>
@@ -5050,7 +5061,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>153</v>
       </c>
@@ -5073,7 +5084,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>155</v>
       </c>
@@ -5096,7 +5107,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -5119,7 +5130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -5142,7 +5153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -5152,14 +5163,23 @@
       <c r="C22" s="3">
         <v>0.46388888888888885</v>
       </c>
+      <c r="D22" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.40138888888888885</v>
+      </c>
       <c r="F22">
         <v>11</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>194</v>
       </c>
@@ -5169,14 +5189,23 @@
       <c r="C23" s="3">
         <v>0.46388888888888885</v>
       </c>
+      <c r="D23" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.40138888888888885</v>
+      </c>
       <c r="F23">
         <v>12</v>
       </c>
       <c r="G23" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>169</v>
       </c>
@@ -5186,14 +5215,23 @@
       <c r="C24" s="3">
         <v>0.46388888888888885</v>
       </c>
+      <c r="D24" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.40138888888888885</v>
+      </c>
       <c r="F24">
         <v>11</v>
       </c>
       <c r="G24" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -5203,14 +5241,23 @@
       <c r="C25" s="3">
         <v>0.46388888888888885</v>
       </c>
+      <c r="D25" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.40138888888888885</v>
+      </c>
       <c r="F25">
         <v>11</v>
       </c>
       <c r="G25" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -5220,14 +5267,23 @@
       <c r="C26" s="3">
         <v>0.46388888888888885</v>
       </c>
+      <c r="D26" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.40138888888888885</v>
+      </c>
       <c r="F26">
         <v>11</v>
       </c>
       <c r="G26" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -5237,11 +5293,20 @@
       <c r="C27" s="3">
         <v>0.46388888888888885</v>
       </c>
+      <c r="D27" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.40138888888888885</v>
+      </c>
       <c r="F27">
         <v>11</v>
       </c>
       <c r="G27" t="s">
         <v>91</v>
+      </c>
+      <c r="H27" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/treatmentC.xlsx
+++ b/data/treatmentC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="2740" windowWidth="36680" windowHeight="22120" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="7380" yWindow="2740" windowWidth="36680" windowHeight="22120" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="283">
   <si>
     <t>OLD</t>
   </si>
@@ -880,6 +880,12 @@
   </si>
   <si>
     <t>24.FEB</t>
+  </si>
+  <si>
+    <t>26.FEB</t>
+  </si>
+  <si>
+    <t>27.FEB</t>
   </si>
 </sst>
 </file>
@@ -1396,9 +1402,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A104" sqref="A104:C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3136,13 +3142,13 @@
       <c r="I83" s="7"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="A84" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E84" s="1">
@@ -3159,13 +3165,13 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="A85" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E85" s="1">
@@ -3373,13 +3379,13 @@
       <c r="I94" s="7"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="A95" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E95" s="1">
@@ -3588,13 +3594,13 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="A104" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E104" s="1">
@@ -4425,13 +4431,13 @@
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+      <c r="A141" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D141">
@@ -4451,13 +4457,13 @@
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+      <c r="A142" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D142">
@@ -4655,10 +4661,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5307,6 +5313,162 @@
       </c>
       <c r="H27" s="8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" t="s">
+        <v>281</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="F28">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="F29">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="F30">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>281</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="F31">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>281</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="F32">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" t="s">
+        <v>281</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="F33">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/treatmentC.xlsx
+++ b/data/treatmentC.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="292">
   <si>
     <t>OLD</t>
   </si>
@@ -886,6 +886,33 @@
   </si>
   <si>
     <t>27.FEB</t>
+  </si>
+  <si>
+    <t>BBCH 27.FEB</t>
+  </si>
+  <si>
+    <t>female catkins!</t>
+  </si>
+  <si>
+    <t>not good</t>
+  </si>
+  <si>
+    <t>female flowers!</t>
+  </si>
+  <si>
+    <t>1 (15)</t>
+  </si>
+  <si>
+    <t>3 (15)</t>
+  </si>
+  <si>
+    <t>3/4 (15)</t>
+  </si>
+  <si>
+    <t>4/5 (15)</t>
+  </si>
+  <si>
+    <t>2 (15)</t>
   </si>
 </sst>
 </file>
@@ -978,7 +1005,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -988,6 +1015,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1400,20 +1430,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K149"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A104" sqref="A104:C104"/>
+      <selection pane="bottomLeft" activeCell="K150" sqref="K150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1444,94 +1478,115 @@
       <c r="J1" s="7" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>283</v>
+      </c>
+      <c r="L1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>87</v>
       </c>
       <c r="E2" s="1">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1">
         <v>9.6999999999999993</v>
       </c>
       <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
       </c>
       <c r="E3" s="1">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="G3" s="1">
-        <v>9.6999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="1">
-        <v>8.9</v>
+      <c r="D4">
+        <v>9.4</v>
+      </c>
+      <c r="E4">
+        <v>9.1999999999999993</v>
       </c>
       <c r="G4" s="1">
-        <v>9.9</v>
+        <v>8.1</v>
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
       </c>
       <c r="E5" s="1">
-        <v>7.7</v>
+        <v>8.9</v>
       </c>
       <c r="G5" s="1">
-        <v>8.6999999999999993</v>
+        <v>9.9</v>
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
         <v>87</v>
       </c>
       <c r="E6" s="1">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="G6" s="1">
-        <v>9.8000000000000007</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I6" s="7">
         <v>9</v>
@@ -1540,102 +1595,108 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="1">
-        <v>7.9</v>
+      <c r="D7">
+        <v>8.6</v>
+      </c>
+      <c r="E7">
+        <v>7.8</v>
       </c>
       <c r="G7" s="1">
-        <v>9.1999999999999993</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
         <v>87</v>
       </c>
       <c r="E8" s="1">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="G8" s="1">
-        <v>8.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
         <v>87</v>
       </c>
       <c r="E9" s="1">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="G9" s="1">
-        <v>8.8000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
         <v>87</v>
       </c>
       <c r="E10" s="1">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="G10" s="1">
-        <v>9.1999999999999993</v>
+        <v>8.9</v>
       </c>
       <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
         <v>87</v>
       </c>
       <c r="E11" s="1">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="G11" s="1">
-        <v>9.6999999999999993</v>
+        <v>8.6</v>
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
         <v>87</v>
@@ -1644,11 +1705,11 @@
         <v>8.4</v>
       </c>
       <c r="G12" s="1">
-        <v>10.1</v>
+        <v>9.1</v>
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -1666,7 +1727,7 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -1684,169 +1745,172 @@
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
         <v>87</v>
       </c>
       <c r="E15" s="1">
-        <v>8.6</v>
+        <v>7.9</v>
       </c>
       <c r="G15" s="1">
-        <v>10.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
         <v>87</v>
       </c>
       <c r="E16" s="1">
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
       <c r="G16" s="1">
-        <v>8.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
         <v>87</v>
       </c>
       <c r="E17" s="1">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="G17" s="1">
-        <v>8.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="1">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="G18" s="1">
-        <v>9.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
         <v>87</v>
       </c>
       <c r="E19" s="1">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="G19" s="1">
-        <v>9.5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
         <v>87</v>
       </c>
       <c r="E20" s="1">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="G20" s="1">
-        <v>9.6999999999999993</v>
+        <v>10.1</v>
       </c>
       <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s">
         <v>87</v>
       </c>
       <c r="E21" s="1">
-        <v>8.5</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G21" s="1">
-        <v>8.9</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
         <v>87</v>
       </c>
       <c r="E22" s="1">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="G22" s="1">
-        <v>9.9</v>
+        <v>8.9</v>
       </c>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s">
         <v>87</v>
       </c>
       <c r="E23" s="1">
-        <v>9.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="G23" s="1">
-        <v>9.1999999999999993</v>
+        <v>9.9</v>
       </c>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1864,24 +1928,21 @@
       </c>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
         <v>87</v>
       </c>
       <c r="E25" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="F25">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="G25" s="1">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
       <c r="H25">
         <v>9</v>
@@ -1893,48 +1954,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s">
         <v>87</v>
       </c>
       <c r="E26" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="F26">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="G26" s="1">
-        <v>8.6999999999999993</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s">
         <v>87</v>
       </c>
       <c r="E27" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="F27">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="G27" s="1">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="H27">
         <v>9</v>
@@ -1946,33 +2001,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s">
         <v>87</v>
       </c>
       <c r="E28" s="1">
-        <v>7.1</v>
+        <v>5.5</v>
       </c>
       <c r="G28" s="1">
-        <v>8.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
         <v>87</v>
@@ -1980,65 +2035,80 @@
       <c r="E29" s="1">
         <v>7.3</v>
       </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
       <c r="G29" s="1">
-        <v>8</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s">
         <v>87</v>
       </c>
       <c r="E30" s="1">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="G30" s="1">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C31" t="s">
         <v>87</v>
       </c>
       <c r="E31" s="1">
-        <v>5.5</v>
+        <v>7.8</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
       </c>
       <c r="G31" s="1">
-        <v>8.8000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
         <v>87</v>
       </c>
       <c r="E32" s="1">
-        <v>9.3000000000000007</v>
+        <v>7.6</v>
       </c>
       <c r="F32">
         <v>9</v>
       </c>
       <c r="G32" s="1">
-        <v>12.7</v>
+        <v>8.6</v>
       </c>
       <c r="H32">
         <v>9</v>
@@ -2050,99 +2120,114 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C33" t="s">
         <v>87</v>
       </c>
       <c r="E33" s="1">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="G33" s="1">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="C34" t="s">
         <v>87</v>
       </c>
       <c r="E34" s="1">
-        <v>8.1</v>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F34">
+        <v>9</v>
       </c>
       <c r="G34" s="1">
-        <v>8.5</v>
+        <v>12.7</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C35" t="s">
         <v>87</v>
       </c>
       <c r="E35" s="1">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="G35" s="1">
-        <v>9.9</v>
+        <v>9</v>
       </c>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="1">
-        <v>8.4</v>
+      <c r="D36">
+        <v>9.6</v>
+      </c>
+      <c r="E36">
+        <v>8.1999999999999993</v>
       </c>
       <c r="G36" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s">
         <v>87</v>
       </c>
       <c r="E37" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.4</v>
       </c>
       <c r="G37" s="1">
-        <v>8.6999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I37" s="7">
         <v>9</v>
@@ -2150,8 +2235,11 @@
       <c r="J37">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -2173,13 +2261,16 @@
       <c r="J38">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
         <v>87</v>
@@ -2188,7 +2279,7 @@
         <v>7.9</v>
       </c>
       <c r="G39" s="1">
-        <v>8.5</v>
+        <v>9.9</v>
       </c>
       <c r="H39">
         <v>10</v>
@@ -2197,25 +2288,25 @@
       <c r="J39">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C40" t="s">
         <v>87</v>
       </c>
       <c r="E40" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="F40">
-        <v>9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G40" s="1">
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I40" s="7">
         <v>12</v>
@@ -2223,43 +2314,52 @@
       <c r="J40">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="B41" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="C41" t="s">
         <v>87</v>
       </c>
       <c r="E41" s="1">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
       <c r="G41" s="1">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="H41">
         <v>10</v>
       </c>
       <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>180</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="1">
-        <v>8.6</v>
+      <c r="D42">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E42">
+        <v>9</v>
       </c>
       <c r="G42" s="1">
-        <v>10</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I42" s="7">
         <v>10</v>
@@ -2268,45 +2368,48 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="1">
+      <c r="D43">
         <v>8</v>
       </c>
+      <c r="E43">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="G43" s="1">
-        <v>8.4</v>
+        <v>7.5</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C44" t="s">
         <v>87</v>
       </c>
       <c r="E44" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="F44">
-        <v>9</v>
+        <v>7.3</v>
       </c>
       <c r="G44" s="1">
-        <v>9.8000000000000007</v>
+        <v>11</v>
       </c>
       <c r="H44">
         <v>9</v>
@@ -2317,22 +2420,28 @@
       <c r="J44">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="1">
-        <v>7.4</v>
+      <c r="D45">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E45">
+        <v>8.1999999999999993</v>
       </c>
       <c r="G45" s="1">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="I45" s="7">
         <v>9</v>
@@ -2340,25 +2449,31 @@
       <c r="J45">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
         <v>87</v>
       </c>
-      <c r="E46" s="1">
-        <v>8.6999999999999993</v>
+      <c r="D46">
+        <v>7.7</v>
+      </c>
+      <c r="E46">
+        <v>7.9</v>
       </c>
       <c r="F46">
         <v>9</v>
       </c>
       <c r="G46" s="1">
-        <v>8.9</v>
+        <v>7.3</v>
       </c>
       <c r="I46" s="7">
         <v>11</v>
@@ -2366,22 +2481,25 @@
       <c r="J46">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="B47" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C47" t="s">
         <v>87</v>
       </c>
       <c r="E47" s="1">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="G47" s="1">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="H47">
         <v>10</v>
@@ -2392,91 +2510,100 @@
       <c r="J47">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>177</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>183</v>
       </c>
       <c r="C48" t="s">
         <v>87</v>
       </c>
-      <c r="D48">
+      <c r="E48" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="G48" s="1">
         <v>9.4</v>
       </c>
-      <c r="E48">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G48" s="1">
-        <v>8.1</v>
-      </c>
       <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="C49" t="s">
         <v>87</v>
       </c>
-      <c r="D49">
-        <v>8.6</v>
-      </c>
-      <c r="E49">
-        <v>7.8</v>
+      <c r="E49" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
       </c>
       <c r="G49" s="1">
-        <v>8.6999999999999993</v>
+        <v>8.9</v>
       </c>
       <c r="H49">
         <v>9</v>
       </c>
       <c r="I49" s="7"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="C50" t="s">
         <v>87</v>
       </c>
-      <c r="D50">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="E50">
+      <c r="E50" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="F50">
         <v>9</v>
       </c>
       <c r="G50" s="1">
-        <v>8.8000000000000007</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I50" s="7"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K50" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
         <v>87</v>
       </c>
       <c r="D51">
-        <v>9.6</v>
+        <v>7.7</v>
       </c>
       <c r="E51">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="G51" s="1">
-        <v>8.8000000000000007</v>
+        <v>7.9</v>
       </c>
       <c r="I51" s="7">
         <v>9</v>
@@ -2484,25 +2611,28 @@
       <c r="J51">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
         <v>87</v>
       </c>
       <c r="D52">
-        <v>8.3000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="E52">
-        <v>8.1999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="G52" s="1">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="I52" s="7">
         <v>11</v>
@@ -2510,13 +2640,16 @@
       <c r="J52">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K52">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="C53" t="s">
         <v>87</v>
@@ -2524,14 +2657,11 @@
       <c r="D53">
         <v>7.7</v>
       </c>
-      <c r="E53">
-        <v>7.9</v>
-      </c>
-      <c r="F53">
-        <v>9</v>
+      <c r="E53" s="1">
+        <v>2.8</v>
       </c>
       <c r="G53" s="1">
-        <v>7.3</v>
+        <v>8.4</v>
       </c>
       <c r="I53" s="7">
         <v>9</v>
@@ -2539,49 +2669,52 @@
       <c r="J53">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="C54" t="s">
         <v>87</v>
       </c>
-      <c r="D54">
-        <v>8.1</v>
-      </c>
-      <c r="E54">
-        <v>7.7</v>
+      <c r="E54" s="1">
+        <v>8.6</v>
       </c>
       <c r="G54" s="1">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="I54" s="7"/>
       <c r="J54">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
         <v>87</v>
       </c>
       <c r="D55">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="E55">
-        <v>8.1999999999999993</v>
+        <v>7.7</v>
       </c>
       <c r="G55" s="1">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="I55" s="7">
         <v>12</v>
@@ -2589,25 +2722,25 @@
       <c r="J55">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="C56" t="s">
         <v>87</v>
       </c>
-      <c r="D56">
-        <v>7.7</v>
-      </c>
-      <c r="E56">
-        <v>8.1</v>
+      <c r="E56" s="1">
+        <v>7.9</v>
       </c>
       <c r="G56" s="1">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="I56" s="7">
         <v>9</v>
@@ -2615,25 +2748,28 @@
       <c r="J56">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="C57" t="s">
         <v>87</v>
       </c>
-      <c r="D57">
+      <c r="E57" s="1">
         <v>8.9</v>
       </c>
-      <c r="E57">
-        <v>7.4</v>
+      <c r="F57">
+        <v>9</v>
       </c>
       <c r="G57" s="1">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I57" s="7">
         <v>12</v>
@@ -2641,25 +2777,25 @@
       <c r="J57">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="C58" t="s">
         <v>87</v>
       </c>
-      <c r="D58">
-        <v>7.7</v>
-      </c>
       <c r="E58" s="1">
-        <v>2.8</v>
+        <v>7.8</v>
       </c>
       <c r="G58" s="1">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I58" s="7">
         <v>9</v>
@@ -2667,283 +2803,292 @@
       <c r="J58">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C59" s="4" t="s">
+      <c r="K58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" t="s">
         <v>91</v>
       </c>
       <c r="E59" s="1">
-        <v>7.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G59" s="1">
-        <v>10.3</v>
+        <v>9</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C60" s="4" t="s">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" t="s">
         <v>91</v>
       </c>
       <c r="E60" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F60">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="G60" s="1">
-        <v>8.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C61" t="s">
         <v>91</v>
       </c>
       <c r="E61" s="1">
+        <v>9</v>
+      </c>
+      <c r="G61" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="G62" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="I62" s="7"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
         <v>10</v>
       </c>
-      <c r="G61" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="I61" s="7"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G62" s="1">
-        <v>9</v>
-      </c>
-      <c r="I62" s="7"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" t="s">
-        <v>95</v>
-      </c>
       <c r="C63" t="s">
         <v>91</v>
       </c>
-      <c r="E63" s="1">
-        <v>9.6</v>
+      <c r="D63">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E63">
+        <v>7.6</v>
       </c>
       <c r="G63" s="1">
-        <v>8.6999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
         <v>91</v>
       </c>
-      <c r="E64" s="1">
-        <v>9</v>
+      <c r="D64">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E64">
+        <v>8.8000000000000007</v>
       </c>
       <c r="G64" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="1">
+        <v>10</v>
+      </c>
+      <c r="G65" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="G66" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="I66" s="7"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G67" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I67" s="7"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G68" s="1">
         <v>10.4</v>
       </c>
-      <c r="I64" s="7"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" t="s">
-        <v>97</v>
-      </c>
-      <c r="C65" t="s">
-        <v>91</v>
-      </c>
-      <c r="E65" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="G65" s="1">
+      <c r="I68" s="7"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="G69" s="1">
+        <v>10</v>
+      </c>
+      <c r="I69" s="7"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" t="s">
+        <v>209</v>
+      </c>
+      <c r="C70" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="G70" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="I70" s="7"/>
+      <c r="K70" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="G71" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="I71" s="7"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="1">
         <v>9.4</v>
       </c>
-      <c r="I65" s="7"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="G72" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I72" s="7"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>14</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B73" t="s">
         <v>110</v>
       </c>
-      <c r="C66" t="s">
-        <v>91</v>
-      </c>
-      <c r="E66" s="1">
+      <c r="C73" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="1">
         <v>7.4</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G73" s="1">
         <v>9.6</v>
-      </c>
-      <c r="I66" s="7"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>14</v>
-      </c>
-      <c r="B67" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" t="s">
-        <v>91</v>
-      </c>
-      <c r="E67" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G67" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I67" s="7"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>14</v>
-      </c>
-      <c r="B68" t="s">
-        <v>123</v>
-      </c>
-      <c r="C68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E68" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="G68" s="1">
-        <v>10</v>
-      </c>
-      <c r="I68" s="7"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>28</v>
-      </c>
-      <c r="B69" t="s">
-        <v>209</v>
-      </c>
-      <c r="C69" t="s">
-        <v>91</v>
-      </c>
-      <c r="E69" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="G69" s="1">
-        <v>11.9</v>
-      </c>
-      <c r="I69" s="7"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70" t="s">
-        <v>116</v>
-      </c>
-      <c r="C70" t="s">
-        <v>91</v>
-      </c>
-      <c r="E70" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G70" s="1">
-        <v>10.4</v>
-      </c>
-      <c r="I70" s="7"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>16</v>
-      </c>
-      <c r="B71" t="s">
-        <v>119</v>
-      </c>
-      <c r="C71" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="G71" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="I71" s="7"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>100</v>
-      </c>
-      <c r="B72" t="s">
-        <v>113</v>
-      </c>
-      <c r="C72" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="G72" s="1">
-        <v>9.1</v>
-      </c>
-      <c r="I72" s="7"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>23</v>
-      </c>
-      <c r="B73" t="s">
-        <v>115</v>
-      </c>
-      <c r="C73" t="s">
-        <v>91</v>
-      </c>
-      <c r="E73" s="1">
-        <v>9</v>
-      </c>
-      <c r="G73" s="1">
-        <v>10</v>
       </c>
       <c r="I73" s="7">
         <v>9</v>
@@ -2952,115 +3097,115 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G74" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I74" s="7"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G75" s="1">
+        <v>10</v>
+      </c>
+      <c r="I75" s="7"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>23</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B76" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="1">
+        <v>9</v>
+      </c>
+      <c r="G76" s="1">
+        <v>10</v>
+      </c>
+      <c r="I76" s="7"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" t="s">
         <v>117</v>
       </c>
-      <c r="C74" t="s">
-        <v>91</v>
-      </c>
-      <c r="E74" s="1">
+      <c r="C77" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="1">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G77" s="1">
         <v>9.4</v>
       </c>
-      <c r="I74" s="7"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>21</v>
-      </c>
-      <c r="B75" t="s">
-        <v>121</v>
-      </c>
-      <c r="C75" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="G75" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="I75" s="7"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>21</v>
-      </c>
-      <c r="B76" t="s">
-        <v>122</v>
-      </c>
-      <c r="C76" t="s">
-        <v>91</v>
-      </c>
-      <c r="E76" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G76" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="I76" s="7"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" t="s">
-        <v>124</v>
-      </c>
-      <c r="C77" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="G77" s="1">
-        <v>10</v>
-      </c>
       <c r="I77" s="7"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B78" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C78" t="s">
         <v>91</v>
       </c>
       <c r="E78" s="1">
-        <v>8.6</v>
+        <v>7.7</v>
       </c>
       <c r="G78" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="I78" s="7"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" t="s">
+        <v>91</v>
+      </c>
+      <c r="E79" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="G79" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I78" s="7"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>36</v>
-      </c>
-      <c r="B79" t="s">
-        <v>134</v>
-      </c>
-      <c r="C79" t="s">
-        <v>91</v>
-      </c>
-      <c r="E79" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="G79" s="1">
-        <v>11.3</v>
-      </c>
       <c r="I79" s="7"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>125</v>
       </c>
@@ -3081,7 +3226,7 @@
       </c>
       <c r="I80" s="7"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>125</v>
       </c>
@@ -3102,60 +3247,60 @@
       </c>
       <c r="I81" s="7"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C82" t="s">
         <v>91</v>
       </c>
       <c r="E82" s="1">
-        <v>7.7</v>
+        <v>8.6</v>
       </c>
       <c r="G82" s="1">
-        <v>8.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H82">
         <v>9</v>
       </c>
       <c r="I82" s="7"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B83" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C83" t="s">
         <v>91</v>
       </c>
       <c r="E83" s="1">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="G83" s="1">
-        <v>8.8000000000000007</v>
+        <v>11.3</v>
       </c>
       <c r="I83" s="7"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C84" s="4" t="s">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>149</v>
+      </c>
+      <c r="B84" t="s">
+        <v>150</v>
+      </c>
+      <c r="C84" t="s">
         <v>91</v>
       </c>
       <c r="E84" s="1">
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
       <c r="G84" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I84" s="7">
         <v>9</v>
@@ -3164,109 +3309,121 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C85" s="4" t="s">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>144</v>
+      </c>
+      <c r="B85" t="s">
+        <v>152</v>
+      </c>
+      <c r="C85" t="s">
         <v>91</v>
       </c>
       <c r="E85" s="1">
-        <v>9.5</v>
+        <v>8.9</v>
       </c>
       <c r="G85" s="1">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="B86" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C86" t="s">
         <v>91</v>
       </c>
       <c r="E86" s="1">
-        <v>12.6</v>
+        <v>7.6</v>
       </c>
       <c r="G86" s="1">
-        <v>13.3</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>149</v>
-      </c>
-      <c r="B87" t="s">
-        <v>150</v>
-      </c>
-      <c r="C87" t="s">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E87" s="1">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
       <c r="G87" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I87" s="7"/>
       <c r="J87">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>144</v>
-      </c>
-      <c r="B88" t="s">
-        <v>152</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="K87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E88" s="1">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
       <c r="G88" s="1">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="H88">
         <v>9</v>
       </c>
       <c r="I88" s="7"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="B89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C89" t="s">
         <v>91</v>
       </c>
       <c r="E89" s="1">
-        <v>7.6</v>
+        <v>12.6</v>
       </c>
       <c r="G89" s="1">
-        <v>9.1999999999999993</v>
+        <v>13.3</v>
       </c>
       <c r="I89" s="7"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>142</v>
       </c>
@@ -3294,8 +3451,11 @@
       <c r="J90" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K90" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>142</v>
       </c>
@@ -3320,8 +3480,11 @@
       <c r="J91" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K91" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>158</v>
       </c>
@@ -3339,28 +3502,31 @@
       </c>
       <c r="I92" s="7"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="B93" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C93" t="s">
         <v>91</v>
       </c>
       <c r="E93" s="1">
-        <v>8.1</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G93" s="1">
-        <v>9.3000000000000007</v>
+        <v>10.8</v>
       </c>
       <c r="I93" s="7"/>
       <c r="J93">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>61</v>
       </c>
@@ -3377,8 +3543,11 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="I94" s="7"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K94">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>61</v>
       </c>
@@ -3400,22 +3569,28 @@
       <c r="J95">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="B96" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="C96" t="s">
         <v>91</v>
       </c>
-      <c r="E96" s="1">
-        <v>10</v>
+      <c r="D96">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E96">
+        <v>8.1999999999999993</v>
       </c>
       <c r="G96" s="1">
-        <v>10.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="H96">
         <v>9</v>
@@ -3426,43 +3601,52 @@
       <c r="J96">
         <v>11</v>
       </c>
+      <c r="K96">
+        <v>9</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>171</v>
-      </c>
-      <c r="B97" t="s">
-        <v>172</v>
-      </c>
-      <c r="C97" t="s">
-        <v>91</v>
-      </c>
-      <c r="E97" s="1">
-        <v>8.6999999999999993</v>
+      <c r="A97" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D97">
+        <v>10.1</v>
+      </c>
+      <c r="E97">
+        <v>9.6</v>
       </c>
       <c r="G97" s="1">
-        <v>10.8</v>
+        <v>9.1</v>
       </c>
       <c r="I97" s="7"/>
       <c r="J97">
         <v>9</v>
       </c>
+      <c r="K97">
+        <v>3</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>70</v>
-      </c>
-      <c r="B98" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="A98" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E98" s="1">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="G98" s="1">
-        <v>8.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H98">
         <v>10</v>
@@ -3473,118 +3657,127 @@
       <c r="J98">
         <v>11</v>
       </c>
+      <c r="K98">
+        <v>4</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C99" s="4" t="s">
+      <c r="A99" t="s">
+        <v>57</v>
+      </c>
+      <c r="B99" t="s">
+        <v>166</v>
+      </c>
+      <c r="C99" t="s">
         <v>91</v>
       </c>
       <c r="E99" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F99">
-        <v>9</v>
+        <v>8.1</v>
       </c>
       <c r="G99" s="1">
-        <v>9.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I99" s="7"/>
       <c r="J99" s="4">
         <v>5</v>
       </c>
+      <c r="K99">
+        <v>9</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E100" s="1">
-        <v>8</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F100">
+        <v>11</v>
       </c>
       <c r="G100" s="1">
-        <v>7.3</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I100" s="7"/>
       <c r="J100" s="4">
         <v>4</v>
       </c>
+      <c r="K100">
+        <v>3</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E101" s="1">
-        <v>9.8000000000000007</v>
+        <v>9.6</v>
       </c>
       <c r="F101">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G101" s="1">
-        <v>9.1999999999999993</v>
+        <v>11.5</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="4">
         <v>2</v>
       </c>
+      <c r="K101" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E102" s="1">
-        <v>9.6</v>
-      </c>
-      <c r="F102">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="G102" s="1">
-        <v>11.5</v>
+        <v>10.3</v>
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="4">
         <v>3</v>
       </c>
+      <c r="K102" s="2" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="B103" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C103" t="s">
         <v>91</v>
       </c>
       <c r="E103" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="F103">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="G103" s="1">
-        <v>10</v>
+        <v>8.9</v>
       </c>
       <c r="I103" s="7">
         <v>9</v>
@@ -3592,159 +3785,181 @@
       <c r="J103" s="5">
         <v>11</v>
       </c>
+      <c r="K103">
+        <v>3</v>
+      </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E104" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F104">
+        <v>11</v>
+      </c>
+      <c r="G104" s="1">
         <v>8.9</v>
-      </c>
-      <c r="G104" s="1">
-        <v>10</v>
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="6">
         <v>9</v>
       </c>
-      <c r="K104" s="6"/>
+      <c r="K104" s="10" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E105" s="1">
-        <v>9</v>
+      <c r="D105">
+        <v>10.7</v>
+      </c>
+      <c r="E105">
+        <v>9.1</v>
       </c>
       <c r="F105">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G105" s="1">
-        <v>9.1999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="4">
         <v>5</v>
       </c>
-      <c r="K105" s="5"/>
+      <c r="K105" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>177</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E106" s="1">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="F106">
+        <v>9</v>
+      </c>
+      <c r="G106" s="1">
         <v>10</v>
-      </c>
-      <c r="G106" s="1">
-        <v>7.6</v>
       </c>
       <c r="I106" s="7"/>
       <c r="J106" s="4">
         <v>4</v>
       </c>
+      <c r="K106" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="A107" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F107">
+        <v>10</v>
+      </c>
+      <c r="G107" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="I107" s="7"/>
+      <c r="K107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E108" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="G108" s="1">
+        <v>10</v>
+      </c>
+      <c r="I108" s="7"/>
+      <c r="K108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E109" s="1">
+        <v>9</v>
+      </c>
+      <c r="F109">
+        <v>9</v>
+      </c>
+      <c r="G109" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I109" s="7"/>
+      <c r="K109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D110">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E110">
+        <v>7.7</v>
+      </c>
+      <c r="G110" s="1">
         <v>8</v>
-      </c>
-      <c r="B107" t="s">
-        <v>10</v>
-      </c>
-      <c r="C107" t="s">
-        <v>91</v>
-      </c>
-      <c r="D107">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E107">
-        <v>7.6</v>
-      </c>
-      <c r="G107" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I107" s="7"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108" t="s">
-        <v>11</v>
-      </c>
-      <c r="C108" t="s">
-        <v>91</v>
-      </c>
-      <c r="D108">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E108">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="G108" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="I108" s="7"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>61</v>
-      </c>
-      <c r="B109" t="s">
-        <v>62</v>
-      </c>
-      <c r="C109" t="s">
-        <v>91</v>
-      </c>
-      <c r="D109">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E109">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G109" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="I109" s="7"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>61</v>
-      </c>
-      <c r="B110" t="s">
-        <v>65</v>
-      </c>
-      <c r="C110" t="s">
-        <v>91</v>
-      </c>
-      <c r="D110">
-        <v>10.1</v>
-      </c>
-      <c r="E110">
-        <v>9.6</v>
-      </c>
-      <c r="G110" s="1">
-        <v>9.1</v>
       </c>
       <c r="I110" s="7">
         <v>9</v>
@@ -3752,28 +3967,31 @@
       <c r="J110">
         <v>10</v>
       </c>
+      <c r="K110">
+        <v>4</v>
+      </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>66</v>
-      </c>
-      <c r="B111" t="s">
-        <v>69</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="A111" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D111">
-        <v>8.9</v>
+        <v>7.9</v>
       </c>
       <c r="E111">
-        <v>10.9</v>
+        <v>7.3</v>
       </c>
       <c r="F111">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G111" s="1">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="I111" s="7">
         <v>9</v>
@@ -3781,412 +3999,424 @@
       <c r="J111">
         <v>11</v>
       </c>
+      <c r="K111">
+        <v>4</v>
+      </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C112" s="4" t="s">
+      <c r="A112" t="s">
+        <v>83</v>
+      </c>
+      <c r="B112" t="s">
+        <v>84</v>
+      </c>
+      <c r="C112" t="s">
         <v>91</v>
       </c>
       <c r="D112">
-        <v>9.6</v>
+        <v>7.7</v>
       </c>
       <c r="E112">
         <v>8.1</v>
       </c>
+      <c r="F112">
+        <v>9</v>
+      </c>
       <c r="G112" s="1">
-        <v>3.8</v>
+        <v>7.6</v>
       </c>
       <c r="I112" s="7"/>
       <c r="J112" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D113">
-        <v>10.7</v>
+        <v>8.9</v>
       </c>
       <c r="E113">
-        <v>9.1</v>
+        <v>10.9</v>
       </c>
       <c r="F113">
         <v>10</v>
       </c>
       <c r="G113" s="1">
-        <v>9.8000000000000007</v>
+        <v>8.1</v>
       </c>
       <c r="I113" s="7"/>
       <c r="J113" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D114">
-        <v>9.6999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="E114">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="G114" s="1">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="I114" s="7"/>
       <c r="J114" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K114" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>73</v>
+        <v>195</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D115">
-        <v>7.9</v>
-      </c>
-      <c r="E115">
-        <v>7.3</v>
+      <c r="E115" s="1">
+        <v>8.8000000000000007</v>
       </c>
       <c r="F115">
         <v>9</v>
       </c>
       <c r="G115" s="1">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="I115" s="7"/>
       <c r="J115" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>83</v>
-      </c>
-      <c r="B116" t="s">
-        <v>84</v>
-      </c>
-      <c r="C116" t="s">
-        <v>91</v>
-      </c>
-      <c r="D116">
-        <v>7.7</v>
-      </c>
-      <c r="E116">
-        <v>8.1</v>
-      </c>
-      <c r="F116">
-        <v>9</v>
+      <c r="K115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E116" s="1">
+        <v>8</v>
       </c>
       <c r="G116" s="1">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="I116" s="7"/>
       <c r="J116" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C117" s="4" t="s">
+      <c r="K116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" t="s">
         <v>5</v>
       </c>
-      <c r="E117" s="1">
-        <v>8.4</v>
-      </c>
-      <c r="F117">
-        <v>12</v>
-      </c>
-      <c r="G117" s="1">
-        <v>9.6999999999999993</v>
+      <c r="D117">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E117">
+        <v>7.9</v>
+      </c>
+      <c r="G117">
+        <v>7.5</v>
       </c>
       <c r="J117" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C118" s="4" t="s">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" t="s">
         <v>5</v>
       </c>
-      <c r="E118" s="1">
-        <v>9</v>
-      </c>
-      <c r="F118">
-        <v>11</v>
+      <c r="D118">
+        <v>8.4</v>
+      </c>
+      <c r="E118">
+        <v>8.1999999999999993</v>
       </c>
       <c r="G118">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="J118" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C119" s="4" t="s">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119" t="s">
         <v>5</v>
       </c>
-      <c r="E119" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F119">
-        <v>11</v>
+      <c r="D119">
+        <v>10.3</v>
+      </c>
+      <c r="E119">
+        <v>7.4</v>
       </c>
       <c r="G119">
-        <v>9.6999999999999993</v>
+        <v>9</v>
       </c>
       <c r="J119" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C120" s="4" t="s">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
         <v>5</v>
       </c>
-      <c r="E120" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="F120">
-        <v>11</v>
+      <c r="D120">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E120">
+        <v>9.5</v>
       </c>
       <c r="G120">
-        <v>10.9</v>
+        <v>8</v>
       </c>
       <c r="J120" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B121" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
       </c>
       <c r="D121">
-        <v>9.3000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="E121">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="G121">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C122" s="4" t="s">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>28</v>
+      </c>
+      <c r="B122" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" t="s">
         <v>5</v>
       </c>
       <c r="D122">
-        <v>9.6999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="E122">
+        <v>7.8</v>
+      </c>
+      <c r="G122">
         <v>8.1999999999999993</v>
-      </c>
-      <c r="G122">
-        <v>7.2</v>
       </c>
       <c r="J122" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
       </c>
       <c r="D123">
-        <v>8.9</v>
+        <v>7.7</v>
       </c>
       <c r="E123">
+        <v>7.7</v>
+      </c>
+      <c r="G123">
+        <v>7.5</v>
+      </c>
+      <c r="H123">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E124">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F123">
-        <v>9</v>
-      </c>
-      <c r="G123">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="H123">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="G124">
+        <v>7.2</v>
+      </c>
+      <c r="H124">
+        <v>9</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>14</v>
       </c>
-      <c r="B124" t="s">
-        <v>30</v>
-      </c>
-      <c r="C124" t="s">
-        <v>5</v>
-      </c>
-      <c r="D124">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E124">
-        <v>8.1</v>
-      </c>
-      <c r="G124">
-        <v>8.1</v>
-      </c>
-      <c r="H124">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>12</v>
-      </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
       </c>
       <c r="D125">
-        <v>8.6999999999999993</v>
+        <v>8.9</v>
       </c>
       <c r="E125">
-        <v>9.5</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F125">
+        <v>9</v>
       </c>
       <c r="G125">
-        <v>8</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H125">
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
       </c>
       <c r="D126">
-        <v>7.7</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E126">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="G126">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="H126">
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B127" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
       </c>
-      <c r="D127">
-        <v>9.6</v>
+      <c r="D127" s="1">
+        <v>4.8</v>
       </c>
       <c r="E127">
-        <v>7.8</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G127">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>23</v>
       </c>
       <c r="B128" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
       </c>
-      <c r="D128" s="1">
-        <v>4.8</v>
+      <c r="D128">
+        <v>8.6999999999999993</v>
       </c>
       <c r="E128">
-        <v>9.3000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="G128">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>23</v>
       </c>
       <c r="B129" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -4195,96 +4425,96 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="E129">
-        <v>9.5</v>
+        <v>7.8</v>
       </c>
       <c r="G129">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B130" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
       </c>
       <c r="D130">
-        <v>8.6999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="E130">
-        <v>7.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G130">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="H130">
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B131" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
       </c>
       <c r="D131">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="E131">
-        <v>7.6</v>
+        <v>10.4</v>
       </c>
       <c r="G131">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B132" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
       </c>
       <c r="D132">
-        <v>8.4</v>
+        <v>9.1</v>
       </c>
       <c r="E132">
-        <v>8.1999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="G132">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B133" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
       </c>
       <c r="D133">
-        <v>10.3</v>
+        <v>9.9</v>
       </c>
       <c r="E133">
-        <v>7.4</v>
+        <v>10.6</v>
       </c>
       <c r="G133">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>37</v>
       </c>
@@ -4304,7 +4534,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -4324,101 +4554,104 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B136" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
       </c>
       <c r="D136">
-        <v>8.5</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E136">
-        <v>8.8000000000000007</v>
+        <v>7.5</v>
       </c>
       <c r="G136">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B137" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
       </c>
       <c r="D137">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="E137">
-        <v>10.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G137">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K137">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B138" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
       </c>
       <c r="D138">
-        <v>9.9</v>
+        <v>8.4</v>
       </c>
       <c r="E138">
-        <v>10.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G138">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B139" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
       </c>
       <c r="D139">
-        <v>9.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E139">
-        <v>8.5</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G139">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B140" t="s">
-        <v>44</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B140" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C140" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D140">
-        <v>9.1999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="E140">
-        <v>9.1999999999999993</v>
+        <v>7.5</v>
       </c>
       <c r="G140">
         <v>9</v>
@@ -4429,25 +4662,31 @@
       <c r="J140">
         <v>11</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D141">
-        <v>9.6</v>
+        <v>9.1</v>
       </c>
       <c r="E141">
-        <v>7.5</v>
+        <v>9.1</v>
+      </c>
+      <c r="F141">
+        <v>9</v>
       </c>
       <c r="G141">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I141">
         <v>9</v>
@@ -4455,149 +4694,161 @@
       <c r="J141">
         <v>10</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
+      <c r="K141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>43</v>
       </c>
-      <c r="B142" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C142" s="4" t="s">
+      <c r="B142" t="s">
+        <v>54</v>
+      </c>
+      <c r="C142" t="s">
         <v>5</v>
       </c>
       <c r="D142">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="E142">
-        <v>9.1</v>
+        <v>7.7</v>
       </c>
       <c r="F142">
         <v>9</v>
       </c>
       <c r="G142">
-        <v>8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J142">
         <v>10</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>43</v>
-      </c>
-      <c r="B143" t="s">
-        <v>54</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="K142">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C143" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D143">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="E143">
-        <v>7.7</v>
+        <v>9.6</v>
       </c>
       <c r="F143">
         <v>9</v>
       </c>
       <c r="G143">
-        <v>8.1999999999999993</v>
+        <v>7.2</v>
       </c>
       <c r="J143">
         <v>9</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B144" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
       </c>
       <c r="D144">
-        <v>9.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E144">
-        <v>9.3000000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="G144">
-        <v>8.8000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="J144">
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B145" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
       </c>
       <c r="D145">
+        <v>9.4</v>
+      </c>
+      <c r="E145">
+        <v>9.4</v>
+      </c>
+      <c r="G145">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J145">
+        <v>9</v>
+      </c>
+      <c r="K145">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E146" s="1">
         <v>8.4</v>
       </c>
-      <c r="E145">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G145">
-        <v>8.1</v>
-      </c>
-      <c r="J145">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>52</v>
-      </c>
-      <c r="B146" t="s">
-        <v>53</v>
-      </c>
-      <c r="C146" t="s">
-        <v>5</v>
-      </c>
-      <c r="D146">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="E146">
-        <v>7.5</v>
-      </c>
-      <c r="G146">
-        <v>7.7</v>
+      <c r="F146">
+        <v>12</v>
+      </c>
+      <c r="G146" s="1">
+        <v>9.6999999999999993</v>
       </c>
       <c r="J146" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D147">
-        <v>7.8</v>
-      </c>
-      <c r="E147">
-        <v>9.6</v>
+      <c r="E147" s="1">
+        <v>9</v>
       </c>
       <c r="F147">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G147">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="I147">
         <v>9</v>
@@ -4605,45 +4856,54 @@
       <c r="J147" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>55</v>
-      </c>
-      <c r="B148" t="s">
-        <v>56</v>
-      </c>
-      <c r="C148" t="s">
+      <c r="K147" s="11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D148">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E148">
-        <v>8.6</v>
+      <c r="E148" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F148">
+        <v>11</v>
       </c>
       <c r="G148">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>63</v>
-      </c>
-      <c r="B149" t="s">
-        <v>64</v>
-      </c>
-      <c r="C149" t="s">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D149">
-        <v>9.4</v>
-      </c>
-      <c r="E149">
-        <v>9.4</v>
+      <c r="E149" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="F149">
+        <v>11</v>
       </c>
       <c r="G149">
-        <v>8.8000000000000007</v>
+        <v>10.9</v>
+      </c>
+      <c r="K149">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4655,7 +4915,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="99" fitToHeight="4" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4664,7 +4924,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+      <selection activeCell="I30" sqref="I30:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/treatmentC.xlsx
+++ b/data/treatmentC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="2740" windowWidth="36680" windowHeight="22120" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="7380" yWindow="2740" windowWidth="36680" windowHeight="22120" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="6" r:id="rId1"/>
@@ -17,8 +17,9 @@
     <sheet name="FRZ" sheetId="3" r:id="rId3"/>
     <sheet name="tx.counts" sheetId="5" r:id="rId4"/>
     <sheet name="soil.moisture" sheetId="7" r:id="rId5"/>
-    <sheet name="monitor" sheetId="8" r:id="rId6"/>
-    <sheet name="GH" sheetId="2" r:id="rId7"/>
+    <sheet name="NEW.EXP" sheetId="9" r:id="rId6"/>
+    <sheet name="monitor" sheetId="8" r:id="rId7"/>
+    <sheet name="GH" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FRZ!$A$1:$G$1</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="346">
   <si>
     <t>OLD</t>
   </si>
@@ -792,9 +793,6 @@
     <t>total.hrs</t>
   </si>
   <si>
-    <t>PRUPEN_SH12</t>
-  </si>
-  <si>
     <t>diff</t>
   </si>
   <si>
@@ -913,13 +911,178 @@
   </si>
   <si>
     <t>2 (15)</t>
+  </si>
+  <si>
+    <t>3.MAR</t>
+  </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>SAMRAC09_GR</t>
+  </si>
+  <si>
+    <t>SAMRAC08_GR</t>
+  </si>
+  <si>
+    <t>SAMRAC04_GR</t>
+  </si>
+  <si>
+    <t>SAMRAC_G01</t>
+  </si>
+  <si>
+    <t>SAMRAC_G02</t>
+  </si>
+  <si>
+    <t>SAMRAC_G03</t>
+  </si>
+  <si>
+    <t>SAMRAC_G04</t>
+  </si>
+  <si>
+    <t>SAMRAC_G05</t>
+  </si>
+  <si>
+    <t>SAMRAC_G06</t>
+  </si>
+  <si>
+    <t>SAMRAC_G07</t>
+  </si>
+  <si>
+    <t>SAMRAC_G08</t>
+  </si>
+  <si>
+    <t>SAMRAC_G09</t>
+  </si>
+  <si>
+    <t>SAMRAC_G010</t>
+  </si>
+  <si>
+    <t>SAMRAC_G11</t>
+  </si>
+  <si>
+    <t>SAMRAC_G12</t>
+  </si>
+  <si>
+    <t>SAMRAC_G13</t>
+  </si>
+  <si>
+    <t>SAMRAC_G14</t>
+  </si>
+  <si>
+    <t>SAMRAC_G15</t>
+  </si>
+  <si>
+    <t>SAMRAC_G16</t>
+  </si>
+  <si>
+    <t>SAMRAC_G17</t>
+  </si>
+  <si>
+    <t>SAMRAC_G18</t>
+  </si>
+  <si>
+    <t>BETPAP08_GR</t>
+  </si>
+  <si>
+    <t>BETPAP09_GR</t>
+  </si>
+  <si>
+    <t>BETPAP_G01</t>
+  </si>
+  <si>
+    <t>BETPAP_G02</t>
+  </si>
+  <si>
+    <t>BETPAP_G03</t>
+  </si>
+  <si>
+    <t>BETPAP_G04</t>
+  </si>
+  <si>
+    <t>BETPAP_G05</t>
+  </si>
+  <si>
+    <t>BETPAP_G06</t>
+  </si>
+  <si>
+    <t>BETPAP_G07</t>
+  </si>
+  <si>
+    <t>BETPAP_G08</t>
+  </si>
+  <si>
+    <t>BETPAP_G09</t>
+  </si>
+  <si>
+    <t>BETPAP_G10</t>
+  </si>
+  <si>
+    <t>BETPAP_G11</t>
+  </si>
+  <si>
+    <t>BETPAP_G12</t>
+  </si>
+  <si>
+    <t>BETPAP_G13</t>
+  </si>
+  <si>
+    <t>BETPAP_G14</t>
+  </si>
+  <si>
+    <t>BETPOP03_WM</t>
+  </si>
+  <si>
+    <t>BETPOP09_WM</t>
+  </si>
+  <si>
+    <t>BETPOP04_WM</t>
+  </si>
+  <si>
+    <t>BETPOP_W01</t>
+  </si>
+  <si>
+    <t>BETPOP_W02</t>
+  </si>
+  <si>
+    <t>BETPOP_W03</t>
+  </si>
+  <si>
+    <t>BETPOP_W05</t>
+  </si>
+  <si>
+    <t>BETPOP_W06</t>
+  </si>
+  <si>
+    <t>BETPOP_W07</t>
+  </si>
+  <si>
+    <t>BETPOP_W08</t>
+  </si>
+  <si>
+    <t>BETPOP_W09</t>
+  </si>
+  <si>
+    <t>BETPOP_W10</t>
+  </si>
+  <si>
+    <t>BETPOP_W13</t>
+  </si>
+  <si>
+    <t>BETPOP_W15</t>
+  </si>
+  <si>
+    <t>BETPOP_W16</t>
+  </si>
+  <si>
+    <t>BETPOP_W17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -976,6 +1139,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -994,7 +1164,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1004,8 +1174,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1018,16 +1190,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1372,7 +1547,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1380,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1388,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1396,7 +1571,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1404,7 +1579,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1412,7 +1587,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1420,7 +1595,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -1435,9 +1610,9 @@
   </sheetPr>
   <dimension ref="A1:N149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K150" sqref="K150"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1473,13 +1648,13 @@
         <v>220</v>
       </c>
       <c r="I1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="K1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L1" t="s">
         <v>211</v>
@@ -1853,7 +2028,7 @@
       </c>
       <c r="I20" s="7"/>
       <c r="K20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -2583,7 +2758,7 @@
       </c>
       <c r="I50" s="7"/>
       <c r="K50" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -3035,7 +3210,7 @@
       </c>
       <c r="I70" s="7"/>
       <c r="K70" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -3351,7 +3526,7 @@
       </c>
       <c r="I86" s="7"/>
       <c r="J86" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
@@ -3452,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="K90" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -3481,7 +3656,7 @@
         <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -3736,7 +3911,7 @@
         <v>2</v>
       </c>
       <c r="K101" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -3760,7 +3935,7 @@
         <v>3</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
@@ -3813,7 +3988,7 @@
         <v>9</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
@@ -4084,7 +4259,7 @@
         <v>3</v>
       </c>
       <c r="K114" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -4132,7 +4307,7 @@
       </c>
       <c r="I116" s="7"/>
       <c r="J116" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K116">
         <v>4</v>
@@ -4825,7 +5000,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="J146" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K146">
         <v>5</v>
@@ -4956,7 +5131,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -5286,13 +5461,13 @@
         <v>192</v>
       </c>
       <c r="B16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C16" s="3">
         <v>0.4375</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E16" s="3">
         <v>0.48472222222222222</v>
@@ -5309,13 +5484,13 @@
         <v>196</v>
       </c>
       <c r="B17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" s="3">
         <v>0.4375</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E17" s="3">
         <v>0.48472222222222222</v>
@@ -5332,13 +5507,13 @@
         <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C18" s="3">
         <v>0.48333333333333334</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E18" s="3">
         <v>0.4548611111111111</v>
@@ -5355,13 +5530,13 @@
         <v>155</v>
       </c>
       <c r="B19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C19" s="3">
         <v>0.48333333333333334</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E19" s="3">
         <v>0.4548611111111111</v>
@@ -5378,13 +5553,13 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C20" s="3">
         <v>0.48333333333333334</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E20" s="3">
         <v>0.4548611111111111</v>
@@ -5401,13 +5576,13 @@
         <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C21" s="3">
         <v>0.48333333333333334</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E21" s="3">
         <v>0.4548611111111111</v>
@@ -5424,13 +5599,13 @@
         <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C22" s="3">
         <v>0.46388888888888885</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E22" s="3">
         <v>0.40138888888888885</v>
@@ -5450,13 +5625,13 @@
         <v>194</v>
       </c>
       <c r="B23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C23" s="3">
         <v>0.46388888888888885</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E23" s="3">
         <v>0.40138888888888885</v>
@@ -5476,13 +5651,13 @@
         <v>169</v>
       </c>
       <c r="B24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C24" s="3">
         <v>0.46388888888888885</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E24" s="3">
         <v>0.40138888888888885</v>
@@ -5502,13 +5677,13 @@
         <v>185</v>
       </c>
       <c r="B25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C25" s="3">
         <v>0.46388888888888885</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E25" s="3">
         <v>0.40138888888888885</v>
@@ -5528,13 +5703,13 @@
         <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C26" s="3">
         <v>0.46388888888888885</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E26" s="3">
         <v>0.40138888888888885</v>
@@ -5554,13 +5729,13 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C27" s="3">
         <v>0.46388888888888885</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E27" s="3">
         <v>0.40138888888888885</v>
@@ -5580,13 +5755,13 @@
         <v>168</v>
       </c>
       <c r="B28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C28" s="3">
         <v>0.40486111111111112</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E28" s="3">
         <v>0.40763888888888888</v>
@@ -5606,13 +5781,13 @@
         <v>154</v>
       </c>
       <c r="B29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C29" s="3">
         <v>0.40486111111111112</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E29" s="3">
         <v>0.40763888888888888</v>
@@ -5632,13 +5807,13 @@
         <v>151</v>
       </c>
       <c r="B30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C30" s="3">
         <v>0.40486111111111112</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E30" s="3">
         <v>0.40763888888888888</v>
@@ -5658,13 +5833,13 @@
         <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C31" s="3">
         <v>0.40486111111111112</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E31" s="3">
         <v>0.40763888888888888</v>
@@ -5684,13 +5859,13 @@
         <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C32" s="3">
         <v>0.40486111111111112</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E32" s="3">
         <v>0.40763888888888888</v>
@@ -5710,13 +5885,13 @@
         <v>186</v>
       </c>
       <c r="B33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C33" s="3">
         <v>0.40486111111111112</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E33" s="3">
         <v>0.40763888888888888</v>
@@ -5919,15 +6094,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -5938,10 +6116,10 @@
         <v>246</v>
       </c>
       <c r="D1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" t="s">
         <v>252</v>
-      </c>
-      <c r="E1" t="s">
-        <v>253</v>
       </c>
       <c r="F1" t="s">
         <v>247</v>
@@ -5950,22 +6128,25 @@
         <v>248</v>
       </c>
       <c r="H1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I1" t="s">
         <v>249</v>
       </c>
       <c r="J1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K1" t="s">
         <v>250</v>
       </c>
       <c r="L1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -5986,13 +6167,13 @@
         <v>4.0374999999999996</v>
       </c>
       <c r="G2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H2" s="3">
         <v>0.47916666666666669</v>
       </c>
       <c r="I2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J2" s="3">
         <v>0.45833333333333331</v>
@@ -6004,8 +6185,11 @@
         <f>((C2-F2)/C2)*100</f>
         <v>62.887213898336249</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>131</v>
       </c>
@@ -6026,13 +6210,13 @@
         <v>4.4884000000000004</v>
       </c>
       <c r="G3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H3" s="3">
         <v>0.47916666666666669</v>
       </c>
       <c r="I3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J3" s="3">
         <v>0.45833333333333331</v>
@@ -6044,8 +6228,11 @@
         <f t="shared" ref="L3:L11" si="1">((C3-F3)/C3)*100</f>
         <v>66.002120890774123</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -6066,13 +6253,13 @@
         <v>4.6595000000000004</v>
       </c>
       <c r="G4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H4" s="3">
         <v>0.47916666666666669</v>
       </c>
       <c r="I4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J4" s="3">
         <v>0.45833333333333331</v>
@@ -6084,8 +6271,11 @@
         <f t="shared" si="1"/>
         <v>64.620349278663639</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -6106,13 +6296,13 @@
         <v>4.4255000000000004</v>
       </c>
       <c r="G5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H5" s="3">
         <v>0.47916666666666669</v>
       </c>
       <c r="I5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J5" s="3">
         <v>0.45833333333333331</v>
@@ -6124,8 +6314,11 @@
         <f t="shared" si="1"/>
         <v>63.680755026672131</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -6146,13 +6339,13 @@
         <v>4.9896000000000003</v>
       </c>
       <c r="G6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H6" s="3">
         <v>0.47916666666666669</v>
       </c>
       <c r="I6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J6" s="3">
         <v>0.45833333333333331</v>
@@ -6164,8 +6357,11 @@
         <f t="shared" si="1"/>
         <v>67.287746672785687</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>199</v>
       </c>
@@ -6186,13 +6382,13 @@
         <v>5.0781999999999998</v>
       </c>
       <c r="G7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H7" s="3">
         <v>0.47916666666666669</v>
       </c>
       <c r="I7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J7" s="3">
         <v>0.45833333333333331</v>
@@ -6204,8 +6400,11 @@
         <f t="shared" si="1"/>
         <v>65.90668009399127</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -6226,13 +6425,13 @@
         <v>4.6997999999999998</v>
       </c>
       <c r="G8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H8" s="3">
         <v>0.47916666666666669</v>
       </c>
       <c r="I8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J8" s="3">
         <v>0.45833333333333331</v>
@@ -6244,8 +6443,11 @@
         <f t="shared" si="1"/>
         <v>61.734245236932097</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -6266,13 +6468,13 @@
         <v>4.5034999999999998</v>
       </c>
       <c r="G9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H9" s="3">
         <v>0.47916666666666669</v>
       </c>
       <c r="I9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J9" s="3">
         <v>0.45833333333333331</v>
@@ -6284,8 +6486,11 @@
         <f t="shared" si="1"/>
         <v>58.095282404391924</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -6306,13 +6511,13 @@
         <v>4.4480000000000004</v>
       </c>
       <c r="G10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H10" s="3">
         <v>0.47916666666666669</v>
       </c>
       <c r="I10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J10" s="3">
         <v>0.45833333333333331</v>
@@ -6324,10 +6529,13 @@
         <f t="shared" si="1"/>
         <v>62.228260869565212</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>62</v>
       </c>
       <c r="B11">
         <v>1.282</v>
@@ -6346,13 +6554,13 @@
         <v>4.7872000000000003</v>
       </c>
       <c r="G11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H11" s="3">
         <v>0.47916666666666669</v>
       </c>
       <c r="I11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J11" s="3">
         <v>0.45833333333333331</v>
@@ -6363,6 +6571,229 @@
       <c r="L11">
         <f t="shared" si="1"/>
         <v>62.921539772287197</v>
+      </c>
+      <c r="M11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12">
+        <v>1.2753000000000001</v>
+      </c>
+      <c r="C12">
+        <v>10.449</v>
+      </c>
+      <c r="G12" t="s">
+        <v>291</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="M12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13">
+        <v>1.2811999999999999</v>
+      </c>
+      <c r="C13">
+        <v>10.1416</v>
+      </c>
+      <c r="G13" t="s">
+        <v>291</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="M13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14">
+        <v>1.28</v>
+      </c>
+      <c r="C14">
+        <v>11.106</v>
+      </c>
+      <c r="G14" t="s">
+        <v>291</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="M14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15">
+        <v>1.2929999999999999</v>
+      </c>
+      <c r="C15">
+        <v>10.231999999999999</v>
+      </c>
+      <c r="G15" t="s">
+        <v>291</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="M15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16">
+        <v>1.282</v>
+      </c>
+      <c r="C16">
+        <v>10.262</v>
+      </c>
+      <c r="G16" t="s">
+        <v>291</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="M16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17">
+        <v>1.29</v>
+      </c>
+      <c r="C17">
+        <v>9.7029999999999994</v>
+      </c>
+      <c r="G17" t="s">
+        <v>291</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="M17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>1.3048</v>
+      </c>
+      <c r="C18">
+        <v>11.917999999999999</v>
+      </c>
+      <c r="G18" t="s">
+        <v>291</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="M18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>1.284</v>
+      </c>
+      <c r="C19">
+        <v>11.47</v>
+      </c>
+      <c r="G19" t="s">
+        <v>291</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="M19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>1.2829999999999999</v>
+      </c>
+      <c r="C20">
+        <v>12.371</v>
+      </c>
+      <c r="G20" t="s">
+        <v>291</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="M20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21">
+        <v>1.2785</v>
+      </c>
+      <c r="C21">
+        <v>8.2880000000000003</v>
+      </c>
+      <c r="G21" t="s">
+        <v>291</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="M21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>1.2869999999999999</v>
+      </c>
+      <c r="C22">
+        <v>8.6940000000000008</v>
+      </c>
+      <c r="G22" t="s">
+        <v>291</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="M22" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -6371,6 +6802,560 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:C49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>295</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>295</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>314</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>314</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>314</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>314</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>315</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>315</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>315</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>315</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>315</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>315</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>315</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>315</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>330</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>330</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>330</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>330</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>330</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>330</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>330</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>330</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>331</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>331</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>331</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>331</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>331</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>331</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>331</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="C48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>332</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -6391,7 +7376,7 @@
         <v>211</v>
       </c>
       <c r="D1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6399,13 +7384,13 @@
         <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6413,13 +7398,13 @@
         <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6427,13 +7412,13 @@
         <v>184</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6441,13 +7426,13 @@
         <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C5">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6455,13 +7440,13 @@
         <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C6">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6469,13 +7454,13 @@
         <v>180</v>
       </c>
       <c r="B7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C7">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -6483,13 +7468,13 @@
         <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C8">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6497,13 +7482,13 @@
         <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -6511,7 +7496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>

--- a/data/treatmentC.xlsx
+++ b/data/treatmentC.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="346">
   <si>
     <t>OLD</t>
   </si>
@@ -955,9 +955,6 @@
     <t>SAMRAC_G09</t>
   </si>
   <si>
-    <t>SAMRAC_G010</t>
-  </si>
-  <si>
     <t>SAMRAC_G11</t>
   </si>
   <si>
@@ -1076,6 +1073,9 @@
   </si>
   <si>
     <t>BETPOP_W17</t>
+  </si>
+  <si>
+    <t>SAMRAC_G10</t>
   </si>
 </sst>
 </file>
@@ -6803,15 +6803,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:C49"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>292</v>
       </c>
@@ -6821,8 +6828,23 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>293</v>
       </c>
@@ -6833,7 +6855,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>293</v>
       </c>
@@ -6844,7 +6866,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>293</v>
       </c>
@@ -6855,7 +6877,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>293</v>
       </c>
@@ -6866,7 +6888,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>293</v>
       </c>
@@ -6877,7 +6899,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>294</v>
       </c>
@@ -6888,7 +6910,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>294</v>
       </c>
@@ -6899,7 +6921,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>294</v>
       </c>
@@ -6910,7 +6932,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>294</v>
       </c>
@@ -6921,67 +6943,67 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>294</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="C11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>294</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>294</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>294</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>294</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>295</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C16" t="s">
         <v>91</v>
@@ -6992,7 +7014,7 @@
         <v>295</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C17" t="s">
         <v>91</v>
@@ -7003,7 +7025,7 @@
         <v>295</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C18" t="s">
         <v>91</v>
@@ -7014,7 +7036,7 @@
         <v>295</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C19" t="s">
         <v>91</v>
@@ -7022,10 +7044,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C20" t="s">
         <v>87</v>
@@ -7033,10 +7055,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C21" t="s">
         <v>87</v>
@@ -7044,10 +7066,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C22" t="s">
         <v>87</v>
@@ -7055,10 +7077,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C23" t="s">
         <v>87</v>
@@ -7066,10 +7088,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C24" t="s">
         <v>87</v>
@@ -7077,10 +7099,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C25" t="s">
         <v>87</v>
@@ -7088,10 +7110,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C26" t="s">
         <v>87</v>
@@ -7099,10 +7121,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C27" t="s">
         <v>91</v>
@@ -7110,10 +7132,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C28" t="s">
         <v>91</v>
@@ -7121,10 +7143,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C29" t="s">
         <v>91</v>
@@ -7132,10 +7154,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C30" t="s">
         <v>91</v>
@@ -7143,10 +7165,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C31" t="s">
         <v>91</v>
@@ -7154,10 +7176,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C32" t="s">
         <v>91</v>
@@ -7165,10 +7187,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C33" t="s">
         <v>91</v>
@@ -7176,10 +7198,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C34" t="s">
         <v>87</v>
@@ -7187,10 +7209,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C35" t="s">
         <v>87</v>
@@ -7198,10 +7220,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C36" t="s">
         <v>87</v>
@@ -7209,7 +7231,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>143</v>
@@ -7220,10 +7242,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C38" t="s">
         <v>87</v>
@@ -7231,10 +7253,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C39" t="s">
         <v>87</v>
@@ -7242,10 +7264,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C40" t="s">
         <v>87</v>
@@ -7253,10 +7275,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C41" t="s">
         <v>87</v>
@@ -7264,10 +7286,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C42" t="s">
         <v>91</v>
@@ -7275,10 +7297,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C43" t="s">
         <v>91</v>
@@ -7286,10 +7308,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C44" t="s">
         <v>91</v>
@@ -7297,7 +7319,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>155</v>
@@ -7308,10 +7330,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C46" t="s">
         <v>91</v>
@@ -7319,10 +7341,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C47" t="s">
         <v>91</v>
@@ -7330,10 +7352,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C48" t="s">
         <v>91</v>
@@ -7341,7 +7363,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>46</v>
@@ -7351,7 +7373,10 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/data/treatmentC.xlsx
+++ b/data/treatmentC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="2740" windowWidth="36680" windowHeight="22120" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="7380" yWindow="2740" windowWidth="36680" windowHeight="22120" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="366">
   <si>
     <t>OLD</t>
   </si>
@@ -892,9 +892,6 @@
     <t>female catkins!</t>
   </si>
   <si>
-    <t>not good</t>
-  </si>
-  <si>
     <t>female flowers!</t>
   </si>
   <si>
@@ -1072,10 +1069,73 @@
     <t>BETPOP_W16</t>
   </si>
   <si>
-    <t>BETPOP_W17</t>
-  </si>
-  <si>
     <t>SAMRAC_G10</t>
+  </si>
+  <si>
+    <t>BBCH 6.Mar.17</t>
+  </si>
+  <si>
+    <t>BBCH 3.Mar.17</t>
+  </si>
+  <si>
+    <t>BETPOP_W11</t>
+  </si>
+  <si>
+    <t>6.MAR</t>
+  </si>
+  <si>
+    <t>7.MAR</t>
+  </si>
+  <si>
+    <t>Í</t>
+  </si>
+  <si>
+    <t>9.MAR</t>
+  </si>
+  <si>
+    <t>BBCH 2.MAR</t>
+  </si>
+  <si>
+    <t>FLO</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>4 (15)</t>
+  </si>
+  <si>
+    <t>12 FLO</t>
+  </si>
+  <si>
+    <t>BBCH 7.MAR</t>
+  </si>
+  <si>
+    <t>DONE FLO</t>
+  </si>
+  <si>
+    <t>9 FLO</t>
+  </si>
+  <si>
+    <t>11 FLO</t>
+  </si>
+  <si>
+    <t>14 FLO</t>
+  </si>
+  <si>
+    <t>DONE (FLO?)</t>
+  </si>
+  <si>
+    <t>10 FLO</t>
+  </si>
+  <si>
+    <t>2(15)</t>
+  </si>
+  <si>
+    <t>5(15)</t>
+  </si>
+  <si>
+    <t>2.MAR</t>
   </si>
 </sst>
 </file>
@@ -1164,8 +1224,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1192,17 +1254,19 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1611,15 +1675,16 @@
   <dimension ref="A1:N149"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="10" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -1656,11 +1721,11 @@
       <c r="K1" t="s">
         <v>282</v>
       </c>
-      <c r="L1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M1" t="s">
-        <v>211</v>
+      <c r="L1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="N1" t="s">
         <v>211</v>
@@ -1686,6 +1751,12 @@
       <c r="K2">
         <v>9</v>
       </c>
+      <c r="L2" s="1">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1707,6 +1778,12 @@
       <c r="K3">
         <v>9</v>
       </c>
+      <c r="L3" s="1">
+        <v>9</v>
+      </c>
+      <c r="M3" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1728,6 +1805,12 @@
         <v>8.1</v>
       </c>
       <c r="I4" s="7"/>
+      <c r="L4" s="1">
+        <v>9</v>
+      </c>
+      <c r="M4" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1746,6 +1829,7 @@
         <v>9.9</v>
       </c>
       <c r="I5" s="7"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1769,6 +1853,7 @@
       <c r="J6">
         <v>9</v>
       </c>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1790,6 +1875,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="I7" s="7"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1808,6 +1894,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="I8" s="7"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1826,6 +1913,12 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I9" s="7"/>
+      <c r="L9" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1847,6 +1940,12 @@
       <c r="K10">
         <v>9</v>
       </c>
+      <c r="L10" s="1">
+        <v>9</v>
+      </c>
+      <c r="M10" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1865,6 +1964,12 @@
         <v>8.6</v>
       </c>
       <c r="I11" s="7"/>
+      <c r="L11" s="1">
+        <v>9</v>
+      </c>
+      <c r="M11" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1883,6 +1988,10 @@
         <v>9.1</v>
       </c>
       <c r="I12" s="7"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1901,6 +2010,10 @@
         <v>9.1</v>
       </c>
       <c r="I13" s="7"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1919,6 +2032,12 @@
         <v>10</v>
       </c>
       <c r="I14" s="7"/>
+      <c r="L14" s="1">
+        <v>9</v>
+      </c>
+      <c r="M14" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1937,6 +2056,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I15" s="7"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1955,8 +2075,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="1"/>
+      <c r="M16" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1973,8 +2097,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="1"/>
+      <c r="M17" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1991,8 +2119,9 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -2009,8 +2138,9 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -2030,8 +2160,14 @@
       <c r="K20" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2048,8 +2184,9 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -2066,8 +2203,9 @@
         <v>8.9</v>
       </c>
       <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>125</v>
       </c>
@@ -2084,8 +2222,9 @@
         <v>9.9</v>
       </c>
       <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -2102,8 +2241,12 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -2128,8 +2271,9 @@
       <c r="J25">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2149,8 +2293,9 @@
       <c r="J26">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -2175,8 +2320,14 @@
       <c r="J27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="1">
+        <v>9</v>
+      </c>
+      <c r="M27" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2196,8 +2347,9 @@
       <c r="J28">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -2220,8 +2372,14 @@
       <c r="K29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="1">
+        <v>11</v>
+      </c>
+      <c r="M29" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>144</v>
       </c>
@@ -2241,8 +2399,14 @@
       <c r="K30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="1">
+        <v>11</v>
+      </c>
+      <c r="M30" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -2265,8 +2429,14 @@
       <c r="K31">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="1">
+        <v>11</v>
+      </c>
+      <c r="M31" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2294,8 +2464,14 @@
       <c r="J32">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="1">
+        <v>9</v>
+      </c>
+      <c r="M32" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2315,8 +2491,14 @@
       <c r="K33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="1">
+        <v>9</v>
+      </c>
+      <c r="M33" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>142</v>
       </c>
@@ -2342,8 +2524,14 @@
       <c r="K34">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>158</v>
       </c>
@@ -2360,8 +2548,9 @@
         <v>9</v>
       </c>
       <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -2387,8 +2576,14 @@
       <c r="K36">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36" s="1">
+        <v>11</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>162</v>
       </c>
@@ -2413,8 +2608,14 @@
       <c r="K37">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37" s="1">
+        <v>10</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -2439,8 +2640,11 @@
       <c r="K38">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -2466,8 +2670,14 @@
       <c r="K39">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="1">
+        <v>9</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2702,14 @@
       <c r="K40">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="1">
+        <v>12</v>
+      </c>
+      <c r="M40" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>170</v>
       </c>
@@ -2516,8 +2732,14 @@
       <c r="K41">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="1">
+        <v>14</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -2542,8 +2764,12 @@
       <c r="J42">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="1"/>
+      <c r="M42" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -2569,8 +2795,14 @@
       <c r="K43">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="1">
+        <v>14</v>
+      </c>
+      <c r="M43" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -2598,8 +2830,14 @@
       <c r="K44">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="1">
+        <v>11</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -2627,8 +2865,14 @@
       <c r="K45">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -2659,8 +2903,14 @@
       <c r="K46">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>177</v>
       </c>
@@ -2688,8 +2938,14 @@
       <c r="K47">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="1">
+        <v>13</v>
+      </c>
+      <c r="M47" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>177</v>
       </c>
@@ -2709,8 +2965,14 @@
       <c r="K48">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>177</v>
       </c>
@@ -2736,8 +2998,14 @@
       <c r="K49">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="1">
+        <v>14</v>
+      </c>
+      <c r="M49" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -2757,11 +3025,17 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="I50" s="7"/>
-      <c r="K50" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K50">
+        <v>9</v>
+      </c>
+      <c r="L50" s="1">
+        <v>10</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>73</v>
       </c>
@@ -2789,8 +3063,14 @@
       <c r="K51">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="1">
+        <v>14</v>
+      </c>
+      <c r="M51" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -2818,8 +3098,14 @@
       <c r="K52">
         <v>14</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="1">
+        <v>15</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -2847,8 +3133,14 @@
       <c r="K53">
         <v>14</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="1">
+        <v>15</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -2871,8 +3163,14 @@
       <c r="K54">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="1">
+        <v>14</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -2900,8 +3198,14 @@
       <c r="K55">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="1">
+        <v>13</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -2926,8 +3230,14 @@
       <c r="K56">
         <v>14</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="1">
+        <v>15</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -2955,8 +3265,14 @@
       <c r="K57">
         <v>15</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="1">
+        <v>15</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -2981,8 +3297,14 @@
       <c r="K58">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="1">
+        <v>14</v>
+      </c>
+      <c r="M58" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -3002,8 +3324,9 @@
       <c r="J59" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -3023,8 +3346,9 @@
       <c r="J60" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -3041,8 +3365,9 @@
         <v>10.4</v>
       </c>
       <c r="I61" s="7"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -3059,8 +3384,9 @@
         <v>9.4</v>
       </c>
       <c r="I62" s="7"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -3080,8 +3406,9 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="I63" s="7"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -3101,15 +3428,16 @@
         <v>7.6</v>
       </c>
       <c r="I64" s="7"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E65" s="1">
@@ -3119,8 +3447,14 @@
         <v>10.5</v>
       </c>
       <c r="I65" s="7"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="1">
+        <v>9</v>
+      </c>
+      <c r="M65" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -3137,8 +3471,9 @@
         <v>8.5</v>
       </c>
       <c r="I66" s="7"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -3155,8 +3490,11 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="I67" s="7"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -3173,8 +3511,9 @@
         <v>10.4</v>
       </c>
       <c r="I68" s="7"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -3191,8 +3530,9 @@
         <v>10</v>
       </c>
       <c r="I69" s="7"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -3210,10 +3550,16 @@
       </c>
       <c r="I70" s="7"/>
       <c r="K70" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>100</v>
       </c>
@@ -3230,8 +3576,9 @@
         <v>9.1</v>
       </c>
       <c r="I71" s="7"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -3248,15 +3595,16 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="I72" s="7"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E73" s="1">
@@ -3271,15 +3619,19 @@
       <c r="J73">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="L73" s="1"/>
+      <c r="M73" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E74" s="1">
@@ -3289,15 +3641,21 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I74" s="7"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="L74" s="1">
+        <v>9</v>
+      </c>
+      <c r="M74" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E75" s="1">
@@ -3307,8 +3665,14 @@
         <v>10</v>
       </c>
       <c r="I75" s="7"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="1">
+        <v>9</v>
+      </c>
+      <c r="M75" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -3325,15 +3689,19 @@
         <v>10</v>
       </c>
       <c r="I76" s="7"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="L76" s="1"/>
+      <c r="M76" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E77" s="1">
@@ -3343,8 +3711,14 @@
         <v>9.4</v>
       </c>
       <c r="I77" s="7"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="1">
+        <v>9</v>
+      </c>
+      <c r="M77" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>41</v>
       </c>
@@ -3361,8 +3735,12 @@
         <v>8.1</v>
       </c>
       <c r="I78" s="7"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L78" s="1"/>
+      <c r="M78" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>41</v>
       </c>
@@ -3379,8 +3757,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="I79" s="7"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L79" s="1"/>
+      <c r="M79" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>125</v>
       </c>
@@ -3400,8 +3782,9 @@
         <v>9</v>
       </c>
       <c r="I80" s="7"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>125</v>
       </c>
@@ -3421,8 +3804,9 @@
         <v>9</v>
       </c>
       <c r="I81" s="7"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="1"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>37</v>
       </c>
@@ -3442,8 +3826,9 @@
         <v>9</v>
       </c>
       <c r="I82" s="7"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>36</v>
       </c>
@@ -3460,8 +3845,9 @@
         <v>11.3</v>
       </c>
       <c r="I83" s="7"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="1"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>149</v>
       </c>
@@ -3483,15 +3869,16 @@
       <c r="J84">
         <v>10</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E85" s="1">
@@ -3507,15 +3894,21 @@
       <c r="K85">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="L85" s="1">
+        <v>9</v>
+      </c>
+      <c r="M85" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E86" s="1">
@@ -3528,8 +3921,14 @@
       <c r="J86" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="1">
+        <v>9</v>
+      </c>
+      <c r="M86" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>43</v>
       </c>
@@ -3552,8 +3951,14 @@
       <c r="K87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="1">
+        <v>4</v>
+      </c>
+      <c r="M87" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>43</v>
       </c>
@@ -3576,15 +3981,21 @@
       <c r="K88">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="L88" s="1">
+        <v>4</v>
+      </c>
+      <c r="M88" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E89" s="1">
@@ -3597,8 +4008,14 @@
       <c r="K89">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="1">
+        <v>10</v>
+      </c>
+      <c r="M89" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>142</v>
       </c>
@@ -3627,10 +4044,16 @@
         <v>1</v>
       </c>
       <c r="K90" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+      <c r="L90" s="1">
+        <v>1</v>
+      </c>
+      <c r="M90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>142</v>
       </c>
@@ -3656,10 +4079,16 @@
         <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+      <c r="L91" s="1">
+        <v>1</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>158</v>
       </c>
@@ -3676,15 +4105,16 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="I92" s="7"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="L92" s="1"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E93" s="1">
@@ -3700,15 +4130,21 @@
       <c r="K93">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="L93" s="1">
+        <v>9</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E94" s="1">
@@ -3721,8 +4157,14 @@
       <c r="K94">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="1">
+        <v>9</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>61</v>
       </c>
@@ -3747,15 +4189,21 @@
       <c r="K95">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="L95" s="1">
+        <v>3</v>
+      </c>
+      <c r="M95" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D96">
@@ -3779,8 +4227,14 @@
       <c r="K96">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="1">
+        <v>9</v>
+      </c>
+      <c r="M96" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>61</v>
       </c>
@@ -3806,8 +4260,14 @@
       <c r="K97">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="1">
+        <v>3</v>
+      </c>
+      <c r="M97" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>170</v>
       </c>
@@ -3835,15 +4295,21 @@
       <c r="K98">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="L98" s="1">
+        <v>3</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E99" s="1">
@@ -3859,8 +4325,14 @@
       <c r="K99">
         <v>9</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="1">
+        <v>10</v>
+      </c>
+      <c r="M99" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>78</v>
       </c>
@@ -3886,8 +4358,14 @@
       <c r="K100">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="M100" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>78</v>
       </c>
@@ -3911,10 +4389,16 @@
         <v>2</v>
       </c>
       <c r="K101" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="L101" s="1">
+        <v>4</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>70</v>
       </c>
@@ -3935,17 +4419,23 @@
         <v>3</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+        <v>288</v>
+      </c>
+      <c r="L102" s="1">
+        <v>5</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E103" s="1">
@@ -3963,8 +4453,14 @@
       <c r="K103">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L103" s="1">
+        <v>4</v>
+      </c>
+      <c r="M103" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>67</v>
       </c>
@@ -3988,10 +4484,16 @@
         <v>9</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+      <c r="L104" s="1">
+        <v>4</v>
+      </c>
+      <c r="M104" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>67</v>
       </c>
@@ -4020,8 +4522,14 @@
       <c r="K105" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L105" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="M105" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>177</v>
       </c>
@@ -4047,8 +4555,14 @@
       <c r="K106" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L106" s="1">
+        <v>5</v>
+      </c>
+      <c r="M106" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>177</v>
       </c>
@@ -4071,8 +4585,14 @@
       <c r="K107">
         <v>3</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L107" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="M107" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>73</v>
       </c>
@@ -4092,8 +4612,14 @@
       <c r="K108">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L108" s="1">
+        <v>5</v>
+      </c>
+      <c r="M108" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>73</v>
       </c>
@@ -4116,8 +4642,14 @@
       <c r="K109">
         <v>5</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L109" s="1">
+        <v>5</v>
+      </c>
+      <c r="M109" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>73</v>
       </c>
@@ -4145,8 +4677,14 @@
       <c r="K110">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L110" s="1">
+        <v>4</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>73</v>
       </c>
@@ -4177,15 +4715,21 @@
       <c r="K111">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="L111" s="1">
+        <v>4</v>
+      </c>
+      <c r="M111" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D112">
@@ -4204,8 +4748,14 @@
       <c r="J112" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L112" s="1">
+        <v>12</v>
+      </c>
+      <c r="M112" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>66</v>
       </c>
@@ -4234,8 +4784,14 @@
       <c r="K113">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L113" s="1">
+        <v>5</v>
+      </c>
+      <c r="M113" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>66</v>
       </c>
@@ -4259,10 +4815,16 @@
         <v>3</v>
       </c>
       <c r="K114" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>195</v>
       </c>
@@ -4288,8 +4850,14 @@
       <c r="K115">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L115" s="1">
+        <v>5</v>
+      </c>
+      <c r="M115" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>195</v>
       </c>
@@ -4312,8 +4880,14 @@
       <c r="K116">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L116" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -4335,15 +4909,16 @@
       <c r="J117" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="M117" s="6"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D118">
@@ -4358,8 +4933,14 @@
       <c r="J118" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L118">
+        <v>9</v>
+      </c>
+      <c r="M118" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>21</v>
       </c>
@@ -4381,8 +4962,9 @@
       <c r="J119" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M119" s="6"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>12</v>
       </c>
@@ -4404,15 +4986,16 @@
       <c r="J120" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="M120" s="6"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D121">
@@ -4424,8 +5007,14 @@
       <c r="G121">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L121">
+        <v>9</v>
+      </c>
+      <c r="M121" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>28</v>
       </c>
@@ -4447,8 +5036,9 @@
       <c r="J122" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M122" s="6"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>16</v>
       </c>
@@ -4470,8 +5060,9 @@
       <c r="H123">
         <v>9</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M123" s="6"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>14</v>
       </c>
@@ -4496,8 +5087,14 @@
       <c r="K124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -4522,15 +5119,18 @@
       <c r="H125">
         <v>9</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="M125" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D126">
@@ -4545,15 +5145,21 @@
       <c r="H126">
         <v>9</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+      <c r="L126">
+        <v>9</v>
+      </c>
+      <c r="M126" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D127" s="1">
@@ -4565,15 +5171,21 @@
       <c r="G127">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+      <c r="L127" t="s">
+        <v>355</v>
+      </c>
+      <c r="M127" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D128">
@@ -4585,15 +5197,21 @@
       <c r="G128">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="L128">
+        <v>9</v>
+      </c>
+      <c r="M128" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D129">
@@ -4605,8 +5223,11 @@
       <c r="G129">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M129" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>31</v>
       </c>
@@ -4628,8 +5249,11 @@
       <c r="H130">
         <v>9</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M130" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>39</v>
       </c>
@@ -4648,8 +5272,9 @@
       <c r="G131">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M131" s="6"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>41</v>
       </c>
@@ -4668,8 +5293,9 @@
       <c r="G132">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M132" s="6"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>33</v>
       </c>
@@ -4688,8 +5314,9 @@
       <c r="G133">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M133" s="6"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>37</v>
       </c>
@@ -4708,8 +5335,11 @@
       <c r="G134">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M134" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -4728,8 +5358,9 @@
       <c r="G135">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M135" s="6"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>52</v>
       </c>
@@ -4748,15 +5379,18 @@
       <c r="G136">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="M136" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D137">
@@ -4771,8 +5405,12 @@
       <c r="K137">
         <v>9</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L137">
+        <v>11</v>
+      </c>
+      <c r="M137" s="6"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>49</v>
       </c>
@@ -4791,8 +5429,11 @@
       <c r="G138">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M138" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>43</v>
       </c>
@@ -4811,8 +5452,14 @@
       <c r="G139">
         <v>9</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="M139" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>43</v>
       </c>
@@ -4840,8 +5487,14 @@
       <c r="K140">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L140">
+        <v>3</v>
+      </c>
+      <c r="M140" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>43</v>
       </c>
@@ -4872,15 +5525,21 @@
       <c r="K141">
         <v>2</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+      <c r="L141">
+        <v>3</v>
+      </c>
+      <c r="M141" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D142">
@@ -4901,8 +5560,14 @@
       <c r="K142">
         <v>9</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L142">
+        <v>11</v>
+      </c>
+      <c r="M142" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>45</v>
       </c>
@@ -4930,8 +5595,12 @@
       <c r="K143">
         <v>3</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143" s="6"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>55</v>
       </c>
@@ -4953,15 +5622,16 @@
       <c r="J144">
         <v>9</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="M144" s="6"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D145">
@@ -4979,8 +5649,14 @@
       <c r="K145">
         <v>9</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L145">
+        <v>10</v>
+      </c>
+      <c r="M145" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>78</v>
       </c>
@@ -5005,8 +5681,14 @@
       <c r="K146">
         <v>5</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L146">
+        <v>5</v>
+      </c>
+      <c r="M146" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>78</v>
       </c>
@@ -5034,8 +5716,14 @@
       <c r="K147" s="11">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L147">
+        <v>5</v>
+      </c>
+      <c r="M147" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>78</v>
       </c>
@@ -5057,8 +5745,14 @@
       <c r="K148">
         <v>4</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L148">
+        <v>4</v>
+      </c>
+      <c r="M148" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>78</v>
       </c>
@@ -5079,6 +5773,12 @@
       </c>
       <c r="K149">
         <v>4</v>
+      </c>
+      <c r="L149">
+        <v>4</v>
+      </c>
+      <c r="M149" s="6" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5096,10 +5796,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30:I31"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5880,7 +6580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>186</v>
       </c>
@@ -5904,6 +6604,476 @@
       </c>
       <c r="H33" s="8">
         <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>290</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="F34">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>290</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="F35">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>290</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="F36">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" t="s">
+        <v>347</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="F37">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" t="s">
+        <v>347</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="F38">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>347</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="F39">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" t="s">
+        <v>347</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="F40">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>347</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="F41">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>347</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="F42">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>347</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="F43">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" t="s">
+        <v>347</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="F44">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>347</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="F45">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" t="s">
+        <v>347</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="F46">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" t="s">
+        <v>347</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="F47">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>350</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" t="s">
+        <v>350</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="F49">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
+        <v>350</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="F50">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" t="s">
+        <v>350</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="F51">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>350</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="F52">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" t="s">
+        <v>350</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="F53">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" t="s">
+        <v>350</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>172</v>
+      </c>
+      <c r="B55" t="s">
+        <v>350</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="F55">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -6587,7 +7757,7 @@
         <v>10.449</v>
       </c>
       <c r="G12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H12" s="3">
         <v>0.52777777777777779</v>
@@ -6607,7 +7777,7 @@
         <v>10.1416</v>
       </c>
       <c r="G13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H13" s="3">
         <v>0.52777777777777779</v>
@@ -6627,7 +7797,7 @@
         <v>11.106</v>
       </c>
       <c r="G14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H14" s="3">
         <v>0.52777777777777779</v>
@@ -6647,7 +7817,7 @@
         <v>10.231999999999999</v>
       </c>
       <c r="G15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H15" s="3">
         <v>0.52777777777777779</v>
@@ -6667,7 +7837,7 @@
         <v>10.262</v>
       </c>
       <c r="G16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H16" s="3">
         <v>0.52777777777777779</v>
@@ -6687,7 +7857,7 @@
         <v>9.7029999999999994</v>
       </c>
       <c r="G17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H17" s="3">
         <v>0.52777777777777779</v>
@@ -6707,7 +7877,7 @@
         <v>11.917999999999999</v>
       </c>
       <c r="G18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H18" s="3">
         <v>0.52777777777777779</v>
@@ -6727,7 +7897,7 @@
         <v>11.47</v>
       </c>
       <c r="G19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H19" s="3">
         <v>0.52777777777777779</v>
@@ -6747,7 +7917,7 @@
         <v>12.371</v>
       </c>
       <c r="G20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H20" s="3">
         <v>0.52777777777777779</v>
@@ -6767,7 +7937,7 @@
         <v>8.2880000000000003</v>
       </c>
       <c r="G21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H21" s="3">
         <v>0.52777777777777779</v>
@@ -6787,7 +7957,7 @@
         <v>8.6940000000000008</v>
       </c>
       <c r="G22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H22" s="3">
         <v>0.52777777777777779</v>
@@ -6808,8 +7978,8 @@
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6820,7 +7990,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6829,10 +7999,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>211</v>
+        <v>345</v>
       </c>
       <c r="E1" t="s">
-        <v>211</v>
+        <v>344</v>
       </c>
       <c r="F1" t="s">
         <v>211</v>
@@ -6846,32 +8016,44 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C2" t="s">
         <v>87</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C4" t="s">
         <v>87</v>
@@ -6879,21 +8061,27 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C6" t="s">
         <v>87</v>
@@ -6901,32 +8089,44 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C7" t="s">
         <v>87</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C8" t="s">
         <v>87</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C9" t="s">
         <v>87</v>
@@ -6934,32 +8134,44 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C10" t="s">
         <v>87</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C11" t="s">
         <v>91</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C12" t="s">
         <v>91</v>
@@ -6967,32 +8179,44 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C13" t="s">
         <v>91</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C14" t="s">
         <v>91</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C15" t="s">
         <v>91</v>
@@ -7000,238 +8224,274 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="C16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>295</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="C17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>295</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="C18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>295</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>312</v>
       </c>
-      <c r="C19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>312</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>312</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>312</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>313</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="C20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B25" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>313</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="C21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B26" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>313</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="C22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B27" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>313</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="C23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B28" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>313</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="C24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>314</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="C25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>314</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="C26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>314</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="C27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>314</v>
-      </c>
-      <c r="B28" s="12" t="s">
+      <c r="B29" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="C28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>314</v>
-      </c>
-      <c r="B29" s="12" t="s">
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>313</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="C29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>314</v>
-      </c>
-      <c r="B30" s="12" t="s">
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>313</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="C30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>314</v>
-      </c>
-      <c r="B31" s="12" t="s">
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>313</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="C31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>314</v>
-      </c>
-      <c r="B32" s="12" t="s">
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="C32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>314</v>
-      </c>
-      <c r="B33" s="12" t="s">
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>328</v>
       </c>
-      <c r="C33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>329</v>
-      </c>
       <c r="B34" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>328</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="C34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>329</v>
-      </c>
-      <c r="B35" s="12" t="s">
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>328</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="C35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>329</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>334</v>
-      </c>
       <c r="C36" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>143</v>
@@ -7240,136 +8500,166 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>328</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>328</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+      <c r="E39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>328</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>328</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>329</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="C38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B42" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>329</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="C39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B43" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>329</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="C40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="B44" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>329</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="C41" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="B45" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45">
+        <v>9</v>
+      </c>
+      <c r="E45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>329</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>329</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>329</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>330</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="C42" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>330</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="C43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>330</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="C44" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>330</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>330</v>
-      </c>
-      <c r="B46" s="12" t="s">
+      <c r="B49" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="C46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>330</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="C47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>330</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="C48" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>331</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="C49" t="s">
         <v>91</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -7523,10 +8813,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7623,6 +8913,29 @@
         <v>54</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>42793</v>
+      </c>
+      <c r="B5">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>73</v>
+      </c>
+      <c r="D5">
+        <v>99</v>
+      </c>
+      <c r="E5">
+        <v>59</v>
+      </c>
+      <c r="F5">
+        <v>64</v>
+      </c>
+      <c r="G5">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/treatmentC.xlsx
+++ b/data/treatmentC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="2740" windowWidth="36680" windowHeight="22120" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="7380" yWindow="2740" windowWidth="36680" windowHeight="22120" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FRZ!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TX.csv!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TX.csv!$A$1:$N$149</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="389">
   <si>
     <t>OLD</t>
   </si>
@@ -1136,6 +1136,75 @@
   </si>
   <si>
     <t>2.MAR</t>
+  </si>
+  <si>
+    <t>13.MAR</t>
+  </si>
+  <si>
+    <t>10.MAR</t>
+  </si>
+  <si>
+    <t>BBCH 10.MAR</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>1+</t>
+  </si>
+  <si>
+    <t>2 (15) APHIDS</t>
+  </si>
+  <si>
+    <t>3 APHIDS</t>
+  </si>
+  <si>
+    <t>4+ APHIDS</t>
+  </si>
+  <si>
+    <t>1 APHIDS</t>
+  </si>
+  <si>
+    <t>5+ APHIDS</t>
+  </si>
+  <si>
+    <t>2+</t>
+  </si>
+  <si>
+    <t>3+</t>
+  </si>
+  <si>
+    <t>1 (SIDE)</t>
+  </si>
+  <si>
+    <t>4 APHIDS</t>
+  </si>
+  <si>
+    <t>3+ APHIDS</t>
+  </si>
+  <si>
+    <t>BBCH 13.MAR</t>
+  </si>
+  <si>
+    <t>15 +</t>
+  </si>
+  <si>
+    <t>15+</t>
+  </si>
+  <si>
+    <t>15+ OPEN FLO</t>
+  </si>
+  <si>
+    <t>3 (15) A</t>
+  </si>
+  <si>
+    <t>4 (15) A</t>
+  </si>
+  <si>
+    <t>OPEN FLO</t>
+  </si>
+  <si>
+    <t>BBCH 13.MAR (SPRAY APHIDS TOMORROW)</t>
   </si>
 </sst>
 </file>
@@ -1672,22 +1741,23 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N149"/>
+  <dimension ref="A1:Q149"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D143" sqref="D143"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="10.83203125" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="1"/>
+    <col min="4" max="10" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="0" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1728,10 +1798,19 @@
         <v>356</v>
       </c>
       <c r="N1" t="s">
+        <v>368</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="P1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1757,8 +1836,14 @@
       <c r="M2" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>11</v>
+      </c>
+      <c r="O2" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1784,8 +1869,14 @@
       <c r="M3" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1811,8 +1902,14 @@
       <c r="M4" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1831,7 +1928,7 @@
       <c r="I5" s="7"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1854,8 +1951,11 @@
         <v>9</v>
       </c>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1877,7 +1977,7 @@
       <c r="I7" s="7"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1896,7 +1996,7 @@
       <c r="I8" s="7"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -1919,8 +2019,11 @@
       <c r="M9" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1946,8 +2049,14 @@
       <c r="M10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1970,8 +2079,14 @@
       <c r="M11" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>12</v>
+      </c>
+      <c r="O11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1992,8 +2107,14 @@
       <c r="M12" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>9</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -2014,8 +2135,14 @@
       <c r="M13" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -2038,8 +2165,14 @@
       <c r="M14" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>11</v>
+      </c>
+      <c r="O14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2057,8 +2190,14 @@
       </c>
       <c r="I15" s="7"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>9</v>
+      </c>
+      <c r="O15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2079,8 +2218,14 @@
       <c r="M16" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>9</v>
+      </c>
+      <c r="O16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2101,8 +2246,14 @@
       <c r="M17" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>9</v>
+      </c>
+      <c r="O17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2271,14 @@
       </c>
       <c r="I18" s="7"/>
       <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>9</v>
+      </c>
+      <c r="O18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -2140,7 +2297,7 @@
       <c r="I19" s="7"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -2166,8 +2323,11 @@
       <c r="M20" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2186,7 +2346,7 @@
       <c r="I21" s="7"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -2205,7 +2365,7 @@
       <c r="I22" s="7"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>125</v>
       </c>
@@ -2224,7 +2384,7 @@
       <c r="I23" s="7"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -2245,8 +2405,14 @@
       <c r="M24" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>10</v>
+      </c>
+      <c r="O24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -2273,7 +2439,7 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2295,7 +2461,7 @@
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -2326,8 +2492,14 @@
       <c r="M27" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>12</v>
+      </c>
+      <c r="O27" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2349,1260 +2521,1286 @@
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
         <v>87</v>
       </c>
       <c r="E29" s="1">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="F29">
         <v>9</v>
       </c>
       <c r="G29" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I29" s="7"/>
-      <c r="K29">
-        <v>10</v>
+        <v>8.6</v>
+      </c>
+      <c r="H29">
+        <v>9</v>
+      </c>
+      <c r="I29" s="7">
+        <v>11</v>
+      </c>
+      <c r="J29">
+        <v>15</v>
       </c>
       <c r="L29" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M29" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="N29">
+        <v>9</v>
+      </c>
+      <c r="O29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
         <v>87</v>
       </c>
       <c r="E30" s="1">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="G30" s="1">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="I30" s="7"/>
       <c r="K30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L30" s="1">
+        <v>9</v>
+      </c>
+      <c r="M30" s="1">
         <v>11</v>
       </c>
-      <c r="M30" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>12</v>
+      </c>
+      <c r="O30" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="C31" t="s">
         <v>87</v>
       </c>
       <c r="E31" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="F31">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="G31" s="1">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="I31" s="7"/>
-      <c r="K31">
-        <v>10</v>
-      </c>
-      <c r="L31" s="1">
-        <v>11</v>
-      </c>
-      <c r="M31" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
         <v>87</v>
       </c>
       <c r="E32" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="F32">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="G32" s="1">
-        <v>8.6</v>
+        <v>9.9</v>
       </c>
       <c r="H32">
-        <v>9</v>
-      </c>
-      <c r="I32" s="7">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I32" s="7"/>
       <c r="J32">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="K32">
+        <v>9</v>
       </c>
       <c r="L32" s="1">
         <v>9</v>
       </c>
-      <c r="M32" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="N32">
+        <v>14</v>
+      </c>
+      <c r="O32" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="1">
-        <v>7.1</v>
+      <c r="D33">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E33">
+        <v>9</v>
       </c>
       <c r="G33" s="1">
-        <v>8.6</v>
-      </c>
-      <c r="I33" s="7"/>
-      <c r="K33">
-        <v>9</v>
-      </c>
-      <c r="L33" s="1">
-        <v>9</v>
-      </c>
-      <c r="M33" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I33" s="7">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>12</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="N33">
+        <v>10</v>
+      </c>
+      <c r="O33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="C34" t="s">
         <v>87</v>
       </c>
       <c r="E34" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="F34">
+        <v>9</v>
+      </c>
+      <c r="G34" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="K34">
+        <v>9</v>
+      </c>
+      <c r="L34" s="1">
+        <v>10</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="N34">
+        <v>14</v>
+      </c>
+      <c r="O34" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G35" s="1">
+        <v>9</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="4">
+        <v>4</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="N35">
+        <v>9</v>
+      </c>
+      <c r="O35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="G36" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="4">
+        <v>3</v>
+      </c>
+      <c r="L36" s="1"/>
+      <c r="N36">
+        <v>9</v>
+      </c>
+      <c r="O36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="1">
+        <v>9</v>
+      </c>
+      <c r="G37" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="G38" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E39">
+        <v>7.6</v>
+      </c>
+      <c r="G39" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="L39" s="1"/>
+      <c r="O39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E40">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G40" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="1">
+        <v>10</v>
+      </c>
+      <c r="G41" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="L41" s="1">
+        <v>9</v>
+      </c>
+      <c r="M41" s="1">
+        <v>10</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="G42" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="1">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F34">
-        <v>9</v>
-      </c>
-      <c r="G34" s="1">
-        <v>12.7</v>
-      </c>
-      <c r="I34" s="7"/>
-      <c r="J34">
-        <v>10</v>
-      </c>
-      <c r="K34">
-        <v>15</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="G43" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="L43" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G44" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="L44" s="1"/>
+      <c r="O44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="G45" s="1">
+        <v>10</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="G46" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="K46" t="s">
+        <v>284</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="N46" t="s">
+        <v>358</v>
+      </c>
+      <c r="O46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="G48" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="G49" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="I49" s="7">
+        <v>9</v>
+      </c>
+      <c r="J49">
+        <v>10</v>
+      </c>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1">
+        <v>9</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G50" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="L50" s="1">
+        <v>9</v>
+      </c>
+      <c r="M50" s="1">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G51" s="1">
+        <v>10</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="L51" s="1">
+        <v>9</v>
+      </c>
+      <c r="M51" s="1">
+        <v>11</v>
+      </c>
+      <c r="N51">
+        <v>4</v>
+      </c>
+      <c r="O51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="1">
+        <v>9</v>
+      </c>
+      <c r="G52" s="1">
+        <v>10</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1">
+        <v>9</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G53" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="I53" s="7"/>
+      <c r="L53" s="1">
+        <v>9</v>
+      </c>
+      <c r="M53" s="1">
+        <v>4</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="G54" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="I54" s="7"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I55" s="7"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1">
+        <v>9</v>
+      </c>
+      <c r="N55">
+        <v>9</v>
+      </c>
+      <c r="O55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G56" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="H56">
+        <v>9</v>
+      </c>
+      <c r="I56" s="7"/>
+      <c r="L56" s="1"/>
+      <c r="O56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G57" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H57">
+        <v>9</v>
+      </c>
+      <c r="I57" s="7"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="G58" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H58">
+        <v>9</v>
+      </c>
+      <c r="I58" s="7"/>
+      <c r="L58" s="1"/>
+      <c r="N58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="G59" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="I59" s="7"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="G60" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I60" s="7">
+        <v>9</v>
+      </c>
+      <c r="J60">
+        <v>10</v>
+      </c>
+      <c r="L60" s="1"/>
+      <c r="N60">
+        <v>9</v>
+      </c>
+      <c r="O60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="G61" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="I61" s="7"/>
+      <c r="J61">
+        <v>9</v>
+      </c>
+      <c r="K61">
+        <v>9</v>
+      </c>
+      <c r="L61" s="1">
+        <v>9</v>
+      </c>
+      <c r="M61" s="1">
+        <v>4</v>
+      </c>
+      <c r="N61">
+        <v>5</v>
+      </c>
+      <c r="O61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="G62" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I62" s="7"/>
+      <c r="J62" t="s">
+        <v>265</v>
+      </c>
+      <c r="L62" s="1">
+        <v>9</v>
+      </c>
+      <c r="M62" s="1">
+        <v>4</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="O62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I63" s="7"/>
+      <c r="J63">
+        <v>9</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63" s="1">
+        <v>4</v>
+      </c>
+      <c r="M63" s="1">
+        <v>3</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="G64" s="1">
+        <v>9</v>
+      </c>
+      <c r="H64">
+        <v>9</v>
+      </c>
+      <c r="I64" s="7"/>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64" s="1">
+        <v>4</v>
+      </c>
+      <c r="M64" s="1">
+        <v>3</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="G65" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="I65" s="7"/>
+      <c r="K65">
+        <v>9</v>
+      </c>
+      <c r="L65" s="1">
+        <v>10</v>
+      </c>
+      <c r="M65" s="1">
+        <v>2</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F66">
+        <v>9</v>
+      </c>
+      <c r="G66" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="H66">
+        <v>9</v>
+      </c>
+      <c r="I66" s="7">
+        <v>10</v>
+      </c>
+      <c r="J66" s="4">
+        <v>1</v>
+      </c>
+      <c r="K66" t="s">
+        <v>285</v>
+      </c>
+      <c r="L66" s="1">
+        <v>1</v>
+      </c>
+      <c r="M66" s="1">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>158</v>
       </c>
-      <c r="B35" t="s">
-        <v>159</v>
-      </c>
-      <c r="C35" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="1">
-        <v>7.7</v>
-      </c>
-      <c r="G35" s="1">
-        <v>9</v>
-      </c>
-      <c r="I35" s="7"/>
-      <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36">
-        <v>9.6</v>
-      </c>
-      <c r="E36">
+      <c r="B67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="G67" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I67" s="7"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G68" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="I68" s="7"/>
+      <c r="J68">
+        <v>9</v>
+      </c>
+      <c r="K68">
+        <v>9</v>
+      </c>
+      <c r="L68" s="1">
+        <v>9</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G69" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I69" s="7"/>
+      <c r="K69">
+        <v>9</v>
+      </c>
+      <c r="L69" s="1">
+        <v>9</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E70">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G36" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I36" s="7"/>
-      <c r="J36">
-        <v>9</v>
-      </c>
-      <c r="K36">
+      <c r="G70" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="H70">
+        <v>9</v>
+      </c>
+      <c r="I70" s="7">
+        <v>9</v>
+      </c>
+      <c r="J70">
         <v>11</v>
       </c>
-      <c r="L36" s="1">
-        <v>11</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>162</v>
-      </c>
-      <c r="B37" t="s">
-        <v>163</v>
-      </c>
-      <c r="C37" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="1">
-        <v>8.4</v>
-      </c>
-      <c r="G37" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I37" s="7">
-        <v>9</v>
-      </c>
-      <c r="J37">
-        <v>9</v>
-      </c>
-      <c r="K37">
-        <v>10</v>
-      </c>
-      <c r="L37" s="1">
-        <v>10</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>162</v>
-      </c>
-      <c r="B38" t="s">
-        <v>165</v>
-      </c>
-      <c r="C38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="G38" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="I38" s="7">
-        <v>9</v>
-      </c>
-      <c r="J38">
-        <v>9</v>
-      </c>
-      <c r="K38">
-        <v>11</v>
-      </c>
-      <c r="L38" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" t="s">
-        <v>161</v>
-      </c>
-      <c r="C39" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="G39" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="H39">
-        <v>10</v>
-      </c>
-      <c r="I39" s="7"/>
-      <c r="J39">
-        <v>12</v>
-      </c>
-      <c r="K39">
-        <v>9</v>
-      </c>
-      <c r="L39" s="1">
-        <v>9</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" t="s">
-        <v>164</v>
-      </c>
-      <c r="C40" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G40" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I40" s="7">
-        <v>12</v>
-      </c>
-      <c r="J40">
-        <v>12</v>
-      </c>
-      <c r="K40">
-        <v>11</v>
-      </c>
-      <c r="L40" s="1">
-        <v>12</v>
-      </c>
-      <c r="M40" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>170</v>
-      </c>
-      <c r="B41" t="s">
-        <v>199</v>
-      </c>
-      <c r="C41" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="G41" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="H41">
-        <v>10</v>
-      </c>
-      <c r="I41" s="7"/>
-      <c r="K41">
-        <v>13</v>
-      </c>
-      <c r="L41" s="1">
-        <v>14</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="K70">
+        <v>9</v>
+      </c>
+      <c r="L70" s="1">
+        <v>9</v>
+      </c>
+      <c r="M70" s="1">
+        <v>3</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="E42">
-        <v>9</v>
-      </c>
-      <c r="G42" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I42" s="7">
-        <v>10</v>
-      </c>
-      <c r="J42">
-        <v>12</v>
-      </c>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43">
-        <v>8</v>
-      </c>
-      <c r="E43">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G43" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="I43" s="7"/>
-      <c r="J43">
-        <v>10</v>
-      </c>
-      <c r="K43">
-        <v>12</v>
-      </c>
-      <c r="L43" s="1">
-        <v>14</v>
-      </c>
-      <c r="M43" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" t="s">
-        <v>179</v>
-      </c>
-      <c r="C44" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="G44" s="1">
-        <v>11</v>
-      </c>
-      <c r="H44">
-        <v>9</v>
-      </c>
-      <c r="I44" s="7">
-        <v>10</v>
-      </c>
-      <c r="J44">
-        <v>10</v>
-      </c>
-      <c r="K44">
-        <v>9</v>
-      </c>
-      <c r="L44" s="1">
-        <v>11</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E45">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G45" s="1">
-        <v>8</v>
-      </c>
-      <c r="I45" s="7">
-        <v>9</v>
-      </c>
-      <c r="J45">
-        <v>12</v>
-      </c>
-      <c r="K45">
-        <v>15</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46">
-        <v>7.7</v>
-      </c>
-      <c r="E46">
-        <v>7.9</v>
-      </c>
-      <c r="F46">
-        <v>9</v>
-      </c>
-      <c r="G46" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="I46" s="7">
-        <v>11</v>
-      </c>
-      <c r="J46">
-        <v>12</v>
-      </c>
-      <c r="K46">
-        <v>16</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>177</v>
-      </c>
-      <c r="B47" t="s">
-        <v>178</v>
-      </c>
-      <c r="C47" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="1">
-        <v>8</v>
-      </c>
-      <c r="G47" s="1">
-        <v>8.4</v>
-      </c>
-      <c r="H47">
-        <v>10</v>
-      </c>
-      <c r="I47" s="7">
-        <v>9</v>
-      </c>
-      <c r="J47">
-        <v>11</v>
-      </c>
-      <c r="K47">
-        <v>13</v>
-      </c>
-      <c r="L47" s="1">
-        <v>13</v>
-      </c>
-      <c r="M47" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>177</v>
-      </c>
-      <c r="B48" t="s">
-        <v>183</v>
-      </c>
-      <c r="C48" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="G48" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="I48" s="7"/>
-      <c r="K48">
-        <v>16</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>177</v>
-      </c>
-      <c r="B49" t="s">
-        <v>184</v>
-      </c>
-      <c r="C49" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F49">
-        <v>9</v>
-      </c>
-      <c r="G49" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="H49">
-        <v>9</v>
-      </c>
-      <c r="I49" s="7"/>
-      <c r="K49">
-        <v>13</v>
-      </c>
-      <c r="L49" s="1">
-        <v>14</v>
-      </c>
-      <c r="M49" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" t="s">
-        <v>181</v>
-      </c>
-      <c r="C50" t="s">
-        <v>87</v>
-      </c>
-      <c r="E50" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="F50">
-        <v>9</v>
-      </c>
-      <c r="G50" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="I50" s="7"/>
-      <c r="K50">
-        <v>9</v>
-      </c>
-      <c r="L50" s="1">
-        <v>10</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>73</v>
-      </c>
-      <c r="B51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51">
-        <v>7.7</v>
-      </c>
-      <c r="E51">
-        <v>8.1</v>
-      </c>
-      <c r="G51" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="I51" s="7">
-        <v>9</v>
-      </c>
-      <c r="J51">
-        <v>9</v>
-      </c>
-      <c r="K51">
-        <v>14</v>
-      </c>
-      <c r="L51" s="1">
-        <v>14</v>
-      </c>
-      <c r="M51" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52">
-        <v>8.9</v>
-      </c>
-      <c r="E52">
-        <v>7.4</v>
-      </c>
-      <c r="G52" s="1">
-        <v>8.4</v>
-      </c>
-      <c r="I52" s="7">
-        <v>11</v>
-      </c>
-      <c r="J52">
-        <v>13</v>
-      </c>
-      <c r="K52">
-        <v>14</v>
-      </c>
-      <c r="L52" s="1">
-        <v>15</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>73</v>
-      </c>
-      <c r="B53" t="s">
-        <v>222</v>
-      </c>
-      <c r="C53" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53">
-        <v>7.7</v>
-      </c>
-      <c r="E53" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="G53" s="1">
-        <v>8.4</v>
-      </c>
-      <c r="I53" s="7">
-        <v>9</v>
-      </c>
-      <c r="J53">
-        <v>13</v>
-      </c>
-      <c r="K53">
-        <v>14</v>
-      </c>
-      <c r="L53" s="1">
-        <v>15</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>76</v>
-      </c>
-      <c r="B54" t="s">
-        <v>180</v>
-      </c>
-      <c r="C54" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54" s="1">
-        <v>8.6</v>
-      </c>
-      <c r="G54" s="1">
-        <v>10</v>
-      </c>
-      <c r="I54" s="7"/>
-      <c r="J54">
-        <v>10</v>
-      </c>
-      <c r="K54">
-        <v>12</v>
-      </c>
-      <c r="L54" s="1">
-        <v>14</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" t="s">
-        <v>87</v>
-      </c>
-      <c r="D55">
-        <v>8.1</v>
-      </c>
-      <c r="E55">
-        <v>7.7</v>
-      </c>
-      <c r="G55" s="1">
-        <v>8.4</v>
-      </c>
-      <c r="I55" s="7">
-        <v>12</v>
-      </c>
-      <c r="J55">
-        <v>12</v>
-      </c>
-      <c r="K55">
-        <v>12</v>
-      </c>
-      <c r="L55" s="1">
-        <v>13</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" t="s">
-        <v>173</v>
-      </c>
-      <c r="C56" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="G56" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="I56" s="7">
-        <v>9</v>
-      </c>
-      <c r="J56">
-        <v>10</v>
-      </c>
-      <c r="K56">
-        <v>14</v>
-      </c>
-      <c r="L56" s="1">
-        <v>15</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" t="s">
-        <v>176</v>
-      </c>
-      <c r="C57" t="s">
-        <v>87</v>
-      </c>
-      <c r="E57" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="F57">
-        <v>9</v>
-      </c>
-      <c r="G57" s="1">
-        <v>8.6</v>
-      </c>
-      <c r="I57" s="7">
-        <v>12</v>
-      </c>
-      <c r="J57">
-        <v>14</v>
-      </c>
-      <c r="K57">
-        <v>15</v>
-      </c>
-      <c r="L57" s="1">
-        <v>15</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58" t="s">
-        <v>191</v>
-      </c>
-      <c r="C58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="G58" s="1">
-        <v>8.6</v>
-      </c>
-      <c r="I58" s="7">
-        <v>9</v>
-      </c>
-      <c r="J58">
-        <v>12</v>
-      </c>
-      <c r="K58">
-        <v>11</v>
-      </c>
-      <c r="L58" s="1">
-        <v>14</v>
-      </c>
-      <c r="M58" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59" t="s">
-        <v>91</v>
-      </c>
-      <c r="E59" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G59" s="1">
-        <v>9</v>
-      </c>
-      <c r="I59" s="7"/>
-      <c r="J59" s="4">
-        <v>4</v>
-      </c>
-      <c r="L59" s="1"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="1">
-        <v>9.6</v>
-      </c>
-      <c r="G60" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I60" s="7"/>
-      <c r="J60" s="4">
-        <v>3</v>
-      </c>
-      <c r="L60" s="1"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" t="s">
-        <v>96</v>
-      </c>
-      <c r="C61" t="s">
-        <v>91</v>
-      </c>
-      <c r="E61" s="1">
-        <v>9</v>
-      </c>
-      <c r="G61" s="1">
-        <v>10.4</v>
-      </c>
-      <c r="I61" s="7"/>
-      <c r="L61" s="1"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="G62" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="I62" s="7"/>
-      <c r="L62" s="1"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" t="s">
-        <v>91</v>
-      </c>
-      <c r="D63">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E63">
-        <v>7.6</v>
-      </c>
-      <c r="G63" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I63" s="7"/>
-      <c r="L63" s="1"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" t="s">
-        <v>91</v>
-      </c>
-      <c r="D64">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E64">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="G64" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="I64" s="7"/>
-      <c r="L64" s="1"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E65" s="1">
-        <v>10</v>
-      </c>
-      <c r="G65" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="I65" s="7"/>
-      <c r="L65" s="1">
-        <v>9</v>
-      </c>
-      <c r="M65" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>21</v>
-      </c>
-      <c r="B66" t="s">
-        <v>121</v>
-      </c>
-      <c r="C66" t="s">
-        <v>91</v>
-      </c>
-      <c r="E66" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="G66" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="I66" s="7"/>
-      <c r="L66" s="1"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>21</v>
-      </c>
-      <c r="B67" t="s">
-        <v>122</v>
-      </c>
-      <c r="C67" t="s">
-        <v>91</v>
-      </c>
-      <c r="E67" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G67" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="I67" s="7"/>
-      <c r="L67" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" t="s">
-        <v>116</v>
-      </c>
-      <c r="C68" t="s">
-        <v>91</v>
-      </c>
-      <c r="E68" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G68" s="1">
-        <v>10.4</v>
-      </c>
-      <c r="I68" s="7"/>
-      <c r="L68" s="1"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>19</v>
-      </c>
-      <c r="B69" t="s">
-        <v>124</v>
-      </c>
-      <c r="C69" t="s">
-        <v>91</v>
-      </c>
-      <c r="E69" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="G69" s="1">
-        <v>10</v>
-      </c>
-      <c r="I69" s="7"/>
-      <c r="L69" s="1"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70" t="s">
-        <v>209</v>
-      </c>
-      <c r="C70" t="s">
-        <v>91</v>
-      </c>
-      <c r="E70" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="G70" s="1">
-        <v>11.9</v>
-      </c>
-      <c r="I70" s="7"/>
-      <c r="K70" t="s">
-        <v>284</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>100</v>
-      </c>
-      <c r="B71" t="s">
-        <v>113</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B71" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E71" s="1">
         <v>8.1</v>
       </c>
       <c r="G71" s="1">
-        <v>9.1</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I71" s="7"/>
-      <c r="L71" s="1"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>16</v>
-      </c>
-      <c r="B72" t="s">
-        <v>119</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="J71" s="4">
+        <v>5</v>
+      </c>
+      <c r="K71">
+        <v>9</v>
+      </c>
+      <c r="L71" s="1">
+        <v>10</v>
+      </c>
+      <c r="M71" s="1">
+        <v>5</v>
+      </c>
+      <c r="N71">
+        <v>5</v>
+      </c>
+      <c r="O71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E72" s="1">
-        <v>9.4</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F72">
+        <v>11</v>
       </c>
       <c r="G72" s="1">
-        <v>9.3000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I72" s="7"/>
-      <c r="L72" s="1"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J72" s="4">
+        <v>4</v>
+      </c>
+      <c r="K72">
+        <v>3</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="M72" s="1">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>372</v>
+      </c>
+      <c r="O72" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>91</v>
@@ -3611,2052 +3809,2446 @@
         <v>7.4</v>
       </c>
       <c r="G73" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="I73" s="7">
+        <v>9</v>
+      </c>
+      <c r="J73" s="5">
+        <v>11</v>
+      </c>
+      <c r="K73">
+        <v>3</v>
+      </c>
+      <c r="L73" s="1">
+        <v>4</v>
+      </c>
+      <c r="M73" s="1">
+        <v>4</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+      <c r="O73" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E74" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F74">
+        <v>11</v>
+      </c>
+      <c r="G74" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="I74" s="7"/>
+      <c r="J74" s="6">
+        <v>9</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="L74" s="1">
+        <v>4</v>
+      </c>
+      <c r="M74" s="1">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>374</v>
+      </c>
+      <c r="O74" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="G75" s="1">
+        <v>10</v>
+      </c>
+      <c r="I75" s="7"/>
+      <c r="K75">
+        <v>4</v>
+      </c>
+      <c r="L75" s="1">
+        <v>5</v>
+      </c>
+      <c r="M75" s="1">
+        <v>5</v>
+      </c>
+      <c r="N75">
+        <v>5</v>
+      </c>
+      <c r="O75" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76">
+        <v>7.7</v>
+      </c>
+      <c r="E76">
+        <v>8.1</v>
+      </c>
+      <c r="F76">
+        <v>9</v>
+      </c>
+      <c r="G76" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="I76" s="7"/>
+      <c r="J76" s="4">
+        <v>3</v>
+      </c>
+      <c r="L76" s="1">
+        <v>12</v>
+      </c>
+      <c r="M76" s="1">
+        <v>5</v>
+      </c>
+      <c r="N76">
+        <v>5</v>
+      </c>
+      <c r="O76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77">
+        <v>8.9</v>
+      </c>
+      <c r="E77">
+        <v>10.9</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="I77" s="7"/>
+      <c r="J77" s="4">
+        <v>3</v>
+      </c>
+      <c r="K77">
+        <v>5</v>
+      </c>
+      <c r="L77" s="1">
+        <v>5</v>
+      </c>
+      <c r="M77" s="1">
+        <v>5</v>
+      </c>
+      <c r="N77">
+        <v>4</v>
+      </c>
+      <c r="O77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E78">
+        <v>7.9</v>
+      </c>
+      <c r="G78">
+        <v>7.5</v>
+      </c>
+      <c r="J78" s="4">
+        <v>5</v>
+      </c>
+      <c r="M78" s="6"/>
+      <c r="O78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>8.4</v>
+      </c>
+      <c r="E79">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G79">
+        <v>8.4</v>
+      </c>
+      <c r="J79" s="4">
+        <v>5</v>
+      </c>
+      <c r="L79">
+        <v>9</v>
+      </c>
+      <c r="M79" s="6">
+        <v>3</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>10.3</v>
+      </c>
+      <c r="E80">
+        <v>7.4</v>
+      </c>
+      <c r="G80">
+        <v>9</v>
+      </c>
+      <c r="J80" s="4">
+        <v>4</v>
+      </c>
+      <c r="M80" s="6"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E81">
+        <v>9.5</v>
+      </c>
+      <c r="G81">
+        <v>8</v>
+      </c>
+      <c r="J81" s="4">
+        <v>5</v>
+      </c>
+      <c r="M81" s="6"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>9.5</v>
+      </c>
+      <c r="E82">
+        <v>7.6</v>
+      </c>
+      <c r="G82">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L82">
+        <v>9</v>
+      </c>
+      <c r="M82" s="6">
+        <v>11</v>
+      </c>
+      <c r="N82">
+        <v>4</v>
+      </c>
+      <c r="O82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83">
         <v>9.6</v>
       </c>
-      <c r="I73" s="7">
-        <v>9</v>
-      </c>
-      <c r="J73">
-        <v>10</v>
-      </c>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+      <c r="E83">
+        <v>7.8</v>
+      </c>
+      <c r="G83">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J83" s="4">
+        <v>2</v>
+      </c>
+      <c r="M83" s="6"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>7.7</v>
+      </c>
+      <c r="E84">
+        <v>7.7</v>
+      </c>
+      <c r="G84">
+        <v>7.5</v>
+      </c>
+      <c r="H84">
+        <v>9</v>
+      </c>
+      <c r="M84" s="6"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E74" s="1">
+      <c r="B85" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E85">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G85">
+        <v>7.2</v>
+      </c>
+      <c r="H85">
+        <v>9</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85" s="6">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>378</v>
+      </c>
+      <c r="O85" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>8.9</v>
+      </c>
+      <c r="E86">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F86">
+        <v>9</v>
+      </c>
+      <c r="G86">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H86">
+        <v>9</v>
+      </c>
+      <c r="M86" s="6">
+        <v>9</v>
+      </c>
+      <c r="N86">
+        <v>9</v>
+      </c>
+      <c r="O86">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E87">
+        <v>8.1</v>
+      </c>
+      <c r="G87">
+        <v>8.1</v>
+      </c>
+      <c r="H87">
+        <v>9</v>
+      </c>
+      <c r="L87">
+        <v>9</v>
+      </c>
+      <c r="M87" s="6">
+        <v>3</v>
+      </c>
+      <c r="N87">
+        <v>4</v>
+      </c>
+      <c r="O87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="E88">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G88">
+        <v>8.4</v>
+      </c>
+      <c r="L88" t="s">
+        <v>355</v>
+      </c>
+      <c r="M88" s="6">
+        <v>10</v>
+      </c>
+      <c r="N88">
+        <v>3</v>
+      </c>
+      <c r="O88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E89">
+        <v>9.5</v>
+      </c>
+      <c r="G89">
+        <v>7.9</v>
+      </c>
+      <c r="L89">
+        <v>9</v>
+      </c>
+      <c r="M89" s="6">
+        <v>4</v>
+      </c>
+      <c r="N89">
+        <v>5</v>
+      </c>
+      <c r="O89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E90">
+        <v>7.8</v>
+      </c>
+      <c r="G90">
+        <v>7.8</v>
+      </c>
+      <c r="M90" s="6">
+        <v>11</v>
+      </c>
+      <c r="N90">
+        <v>4</v>
+      </c>
+      <c r="O90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>31</v>
+      </c>
+      <c r="B91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>8.5</v>
+      </c>
+      <c r="E91">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G91">
+        <v>9</v>
+      </c>
+      <c r="H91">
+        <v>9</v>
+      </c>
+      <c r="M91" s="6">
+        <v>9</v>
+      </c>
+      <c r="N91">
+        <v>9</v>
+      </c>
+      <c r="O91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>39</v>
+      </c>
+      <c r="B92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>9</v>
+      </c>
+      <c r="E92">
+        <v>10.4</v>
+      </c>
+      <c r="G92">
+        <v>8.1</v>
+      </c>
+      <c r="M92" s="6">
+        <v>10</v>
+      </c>
+      <c r="N92">
+        <v>10</v>
+      </c>
+      <c r="O92">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>9.1</v>
+      </c>
+      <c r="E93">
+        <v>8.5</v>
+      </c>
+      <c r="G93">
+        <v>8</v>
+      </c>
+      <c r="M93" s="6"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94">
+        <v>9.9</v>
+      </c>
+      <c r="E94">
+        <v>10.6</v>
+      </c>
+      <c r="G94">
+        <v>8.4</v>
+      </c>
+      <c r="M94" s="6"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>37</v>
+      </c>
+      <c r="B95" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <v>8.5</v>
+      </c>
+      <c r="E95">
+        <v>10.4</v>
+      </c>
+      <c r="G95">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M95" s="6"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>36</v>
+      </c>
+      <c r="B96" t="s">
+        <v>38</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>13.4</v>
+      </c>
+      <c r="E96">
+        <v>9.1</v>
+      </c>
+      <c r="G96">
+        <v>9.6</v>
+      </c>
+      <c r="M96" s="6"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>52</v>
+      </c>
+      <c r="B97" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E97">
+        <v>7.5</v>
+      </c>
+      <c r="G97">
+        <v>7.7</v>
+      </c>
+      <c r="M97" s="6"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>9.6</v>
+      </c>
+      <c r="E98">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G98">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K98">
+        <v>9</v>
+      </c>
+      <c r="L98">
+        <v>11</v>
+      </c>
+      <c r="M98" s="6">
+        <v>4</v>
+      </c>
+      <c r="N98">
+        <v>3</v>
+      </c>
+      <c r="O98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99" t="s">
+        <v>51</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <v>8.4</v>
+      </c>
+      <c r="E99">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G99">
+        <v>8.1</v>
+      </c>
+      <c r="M99" s="6"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>9.4</v>
+      </c>
+      <c r="E100">
+        <v>7.7</v>
+      </c>
+      <c r="F100">
+        <v>9</v>
+      </c>
+      <c r="G100">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J100">
+        <v>10</v>
+      </c>
+      <c r="K100">
+        <v>9</v>
+      </c>
+      <c r="L100">
+        <v>11</v>
+      </c>
+      <c r="M100" s="6">
+        <v>3</v>
+      </c>
+      <c r="N100">
+        <v>2</v>
+      </c>
+      <c r="O100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101">
+        <v>7.8</v>
+      </c>
+      <c r="E101">
+        <v>9.6</v>
+      </c>
+      <c r="F101">
+        <v>9</v>
+      </c>
+      <c r="G101">
+        <v>7.2</v>
+      </c>
+      <c r="J101">
+        <v>9</v>
+      </c>
+      <c r="K101">
+        <v>3</v>
+      </c>
+      <c r="L101">
+        <v>3</v>
+      </c>
+      <c r="M101" s="6">
+        <v>3</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+      <c r="O101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>55</v>
+      </c>
+      <c r="B102" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E102">
+        <v>8.6</v>
+      </c>
+      <c r="G102">
+        <v>8.5</v>
+      </c>
+      <c r="J102">
+        <v>9</v>
+      </c>
+      <c r="M102" s="6"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103">
+        <v>9.4</v>
+      </c>
+      <c r="E103">
+        <v>9.4</v>
+      </c>
+      <c r="G103">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J103">
+        <v>9</v>
+      </c>
+      <c r="K103">
+        <v>9</v>
+      </c>
+      <c r="L103">
+        <v>10</v>
+      </c>
+      <c r="M103" s="6">
+        <v>3</v>
+      </c>
+      <c r="N103">
+        <v>4</v>
+      </c>
+      <c r="O103" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>139</v>
+      </c>
+      <c r="B104" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104" t="s">
+        <v>87</v>
+      </c>
+      <c r="E104" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F104">
+        <v>9</v>
+      </c>
+      <c r="G104" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I104" s="7"/>
+      <c r="K104">
+        <v>10</v>
+      </c>
+      <c r="L104" s="1">
+        <v>11</v>
+      </c>
+      <c r="M104" s="1">
+        <v>14</v>
+      </c>
+      <c r="N104" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>144</v>
+      </c>
+      <c r="B105" t="s">
+        <v>145</v>
+      </c>
+      <c r="C105" t="s">
+        <v>87</v>
+      </c>
+      <c r="E105" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="G105" s="1">
+        <v>8</v>
+      </c>
+      <c r="I105" s="7"/>
+      <c r="K105">
+        <v>10</v>
+      </c>
+      <c r="L105" s="1">
+        <v>11</v>
+      </c>
+      <c r="M105" s="1">
+        <v>14</v>
+      </c>
+      <c r="N105" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>43</v>
+      </c>
+      <c r="B106" t="s">
+        <v>138</v>
+      </c>
+      <c r="C106" t="s">
+        <v>87</v>
+      </c>
+      <c r="E106" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="F106">
+        <v>9</v>
+      </c>
+      <c r="G106" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="I106" s="7"/>
+      <c r="K106">
+        <v>10</v>
+      </c>
+      <c r="L106" s="1">
+        <v>11</v>
+      </c>
+      <c r="M106" s="1">
+        <v>14</v>
+      </c>
+      <c r="N106" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B107" t="s">
+        <v>143</v>
+      </c>
+      <c r="C107" t="s">
+        <v>87</v>
+      </c>
+      <c r="E107" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F107">
+        <v>9</v>
+      </c>
+      <c r="G107" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="I107" s="7"/>
+      <c r="J107">
+        <v>10</v>
+      </c>
+      <c r="K107">
+        <v>15</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="N107" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>59</v>
+      </c>
+      <c r="B108" t="s">
+        <v>60</v>
+      </c>
+      <c r="C108" t="s">
+        <v>87</v>
+      </c>
+      <c r="D108">
+        <v>9.6</v>
+      </c>
+      <c r="E108">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G108" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I108" s="7"/>
+      <c r="J108">
+        <v>9</v>
+      </c>
+      <c r="K108">
+        <v>11</v>
+      </c>
+      <c r="L108" s="1">
+        <v>11</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="N108" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>162</v>
+      </c>
+      <c r="B109" t="s">
+        <v>163</v>
+      </c>
+      <c r="C109" t="s">
+        <v>87</v>
+      </c>
+      <c r="E109" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="G109" s="1">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G74" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I74" s="7"/>
-      <c r="L74" s="1">
-        <v>9</v>
-      </c>
-      <c r="M74" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
+      <c r="I109" s="7">
+        <v>9</v>
+      </c>
+      <c r="J109">
+        <v>9</v>
+      </c>
+      <c r="K109">
+        <v>10</v>
+      </c>
+      <c r="L109" s="1">
+        <v>10</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="N109" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>162</v>
+      </c>
+      <c r="B110" t="s">
+        <v>165</v>
+      </c>
+      <c r="C110" t="s">
+        <v>87</v>
+      </c>
+      <c r="E110" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="G110" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="I110" s="7">
+        <v>9</v>
+      </c>
+      <c r="J110">
+        <v>9</v>
+      </c>
+      <c r="K110">
+        <v>11</v>
+      </c>
+      <c r="L110" s="1">
+        <v>11</v>
+      </c>
+      <c r="N110" t="s">
+        <v>369</v>
+      </c>
+      <c r="O110" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>61</v>
+      </c>
+      <c r="B111" t="s">
+        <v>164</v>
+      </c>
+      <c r="C111" t="s">
+        <v>87</v>
+      </c>
+      <c r="E111" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G111" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I111" s="7">
+        <v>12</v>
+      </c>
+      <c r="J111">
+        <v>12</v>
+      </c>
+      <c r="K111">
+        <v>11</v>
+      </c>
+      <c r="L111" s="1">
+        <v>12</v>
+      </c>
+      <c r="M111" s="1">
+        <v>15</v>
+      </c>
+      <c r="N111" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>170</v>
+      </c>
+      <c r="B112" t="s">
+        <v>199</v>
+      </c>
+      <c r="C112" t="s">
+        <v>87</v>
+      </c>
+      <c r="E112" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="G112" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H112">
+        <v>10</v>
+      </c>
+      <c r="I112" s="7"/>
+      <c r="K112">
+        <v>13</v>
+      </c>
+      <c r="L112" s="1">
         <v>14</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="G75" s="1">
-        <v>10</v>
-      </c>
-      <c r="I75" s="7"/>
-      <c r="L75" s="1">
-        <v>9</v>
-      </c>
-      <c r="M75" s="1">
+      <c r="M112" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="N112" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>78</v>
+      </c>
+      <c r="B113" t="s">
+        <v>79</v>
+      </c>
+      <c r="C113" t="s">
+        <v>87</v>
+      </c>
+      <c r="D113">
+        <v>8</v>
+      </c>
+      <c r="E113">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G113" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="I113" s="7"/>
+      <c r="J113">
+        <v>10</v>
+      </c>
+      <c r="K113">
+        <v>12</v>
+      </c>
+      <c r="L113" s="1">
+        <v>14</v>
+      </c>
+      <c r="M113" s="1">
+        <v>15</v>
+      </c>
+      <c r="N113" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>70</v>
+      </c>
+      <c r="B114" t="s">
+        <v>179</v>
+      </c>
+      <c r="C114" t="s">
+        <v>87</v>
+      </c>
+      <c r="E114" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="G114" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>23</v>
-      </c>
-      <c r="B76" t="s">
-        <v>115</v>
-      </c>
-      <c r="C76" t="s">
-        <v>91</v>
-      </c>
-      <c r="E76" s="1">
-        <v>9</v>
-      </c>
-      <c r="G76" s="1">
-        <v>10</v>
-      </c>
-      <c r="I76" s="7"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G77" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="I77" s="7"/>
-      <c r="L77" s="1">
-        <v>9</v>
-      </c>
-      <c r="M77" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>41</v>
-      </c>
-      <c r="B78" t="s">
-        <v>135</v>
-      </c>
-      <c r="C78" t="s">
-        <v>91</v>
-      </c>
-      <c r="E78" s="1">
+      <c r="H114">
+        <v>9</v>
+      </c>
+      <c r="I114" s="7">
+        <v>10</v>
+      </c>
+      <c r="J114">
+        <v>10</v>
+      </c>
+      <c r="K114">
+        <v>9</v>
+      </c>
+      <c r="L114" s="1">
+        <v>11</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="N114" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>177</v>
+      </c>
+      <c r="B115" t="s">
+        <v>178</v>
+      </c>
+      <c r="C115" t="s">
+        <v>87</v>
+      </c>
+      <c r="E115" s="1">
+        <v>8</v>
+      </c>
+      <c r="G115" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="H115">
+        <v>10</v>
+      </c>
+      <c r="I115" s="7">
+        <v>9</v>
+      </c>
+      <c r="J115">
+        <v>11</v>
+      </c>
+      <c r="K115">
+        <v>13</v>
+      </c>
+      <c r="L115" s="1">
+        <v>13</v>
+      </c>
+      <c r="M115" s="1">
+        <v>15</v>
+      </c>
+      <c r="N115" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>70</v>
+      </c>
+      <c r="B116" t="s">
+        <v>71</v>
+      </c>
+      <c r="C116" t="s">
+        <v>87</v>
+      </c>
+      <c r="D116">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E116">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G116" s="1">
+        <v>8</v>
+      </c>
+      <c r="I116" s="7">
+        <v>9</v>
+      </c>
+      <c r="J116">
+        <v>12</v>
+      </c>
+      <c r="K116">
+        <v>15</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="N116" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>70</v>
+      </c>
+      <c r="B117" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" t="s">
+        <v>87</v>
+      </c>
+      <c r="D117">
         <v>7.7</v>
-      </c>
-      <c r="G78" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="I78" s="7"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>41</v>
-      </c>
-      <c r="B79" t="s">
-        <v>137</v>
-      </c>
-      <c r="C79" t="s">
-        <v>91</v>
-      </c>
-      <c r="E79" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="G79" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I79" s="7"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>125</v>
-      </c>
-      <c r="B80" t="s">
-        <v>132</v>
-      </c>
-      <c r="C80" t="s">
-        <v>91</v>
-      </c>
-      <c r="E80" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G80" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="H80">
-        <v>9</v>
-      </c>
-      <c r="I80" s="7"/>
-      <c r="L80" s="1"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>125</v>
-      </c>
-      <c r="B81" t="s">
-        <v>136</v>
-      </c>
-      <c r="C81" t="s">
-        <v>91</v>
-      </c>
-      <c r="E81" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G81" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="H81">
-        <v>9</v>
-      </c>
-      <c r="I81" s="7"/>
-      <c r="L81" s="1"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>37</v>
-      </c>
-      <c r="B82" t="s">
-        <v>133</v>
-      </c>
-      <c r="C82" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" s="1">
-        <v>8.6</v>
-      </c>
-      <c r="G82" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="H82">
-        <v>9</v>
-      </c>
-      <c r="I82" s="7"/>
-      <c r="L82" s="1"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>36</v>
-      </c>
-      <c r="B83" t="s">
-        <v>134</v>
-      </c>
-      <c r="C83" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="G83" s="1">
-        <v>11.3</v>
-      </c>
-      <c r="I83" s="7"/>
-      <c r="L83" s="1"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>149</v>
-      </c>
-      <c r="B84" t="s">
-        <v>150</v>
-      </c>
-      <c r="C84" t="s">
-        <v>91</v>
-      </c>
-      <c r="E84" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="G84" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I84" s="7">
-        <v>9</v>
-      </c>
-      <c r="J84">
-        <v>10</v>
-      </c>
-      <c r="L84" s="1"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E85" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="G85" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="I85" s="7"/>
-      <c r="J85">
-        <v>9</v>
-      </c>
-      <c r="K85">
-        <v>9</v>
-      </c>
-      <c r="L85" s="1">
-        <v>9</v>
-      </c>
-      <c r="M85" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E86" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="G86" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I86" s="7"/>
-      <c r="J86" t="s">
-        <v>265</v>
-      </c>
-      <c r="L86" s="1">
-        <v>9</v>
-      </c>
-      <c r="M86" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E87" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="G87" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I87" s="7"/>
-      <c r="J87">
-        <v>9</v>
-      </c>
-      <c r="K87">
-        <v>2</v>
-      </c>
-      <c r="L87" s="1">
-        <v>4</v>
-      </c>
-      <c r="M87" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E88" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="G88" s="1">
-        <v>9</v>
-      </c>
-      <c r="H88">
-        <v>9</v>
-      </c>
-      <c r="I88" s="7"/>
-      <c r="K88">
-        <v>2</v>
-      </c>
-      <c r="L88" s="1">
-        <v>4</v>
-      </c>
-      <c r="M88" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E89" s="1">
-        <v>12.6</v>
-      </c>
-      <c r="G89" s="1">
-        <v>13.3</v>
-      </c>
-      <c r="I89" s="7"/>
-      <c r="K89">
-        <v>9</v>
-      </c>
-      <c r="L89" s="1">
-        <v>10</v>
-      </c>
-      <c r="M89" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E90" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F90">
-        <v>9</v>
-      </c>
-      <c r="G90" s="1">
-        <v>11.2</v>
-      </c>
-      <c r="H90">
-        <v>9</v>
-      </c>
-      <c r="I90" s="7">
-        <v>10</v>
-      </c>
-      <c r="J90" s="4">
-        <v>1</v>
-      </c>
-      <c r="K90" t="s">
-        <v>285</v>
-      </c>
-      <c r="L90" s="1">
-        <v>1</v>
-      </c>
-      <c r="M90" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E91" s="1">
-        <v>11.1</v>
-      </c>
-      <c r="F91">
-        <v>9</v>
-      </c>
-      <c r="G91" s="1">
-        <v>11.4</v>
-      </c>
-      <c r="I91" s="7">
-        <v>10</v>
-      </c>
-      <c r="J91" s="4">
-        <v>1</v>
-      </c>
-      <c r="K91" t="s">
-        <v>285</v>
-      </c>
-      <c r="L91" s="1">
-        <v>1</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>158</v>
-      </c>
-      <c r="B92" t="s">
-        <v>160</v>
-      </c>
-      <c r="C92" t="s">
-        <v>91</v>
-      </c>
-      <c r="E92" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="G92" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I92" s="7"/>
-      <c r="L92" s="1"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E93" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G93" s="1">
-        <v>10.8</v>
-      </c>
-      <c r="I93" s="7"/>
-      <c r="J93">
-        <v>9</v>
-      </c>
-      <c r="K93">
-        <v>9</v>
-      </c>
-      <c r="L93" s="1">
-        <v>9</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E94" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G94" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="I94" s="7"/>
-      <c r="K94">
-        <v>9</v>
-      </c>
-      <c r="L94" s="1">
-        <v>9</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E95" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="G95" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I95" s="7">
-        <v>9</v>
-      </c>
-      <c r="J95">
-        <v>10</v>
-      </c>
-      <c r="K95">
-        <v>3</v>
-      </c>
-      <c r="L95" s="1">
-        <v>3</v>
-      </c>
-      <c r="M95" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D96">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E96">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G96" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="H96">
-        <v>9</v>
-      </c>
-      <c r="I96" s="7">
-        <v>9</v>
-      </c>
-      <c r="J96">
-        <v>11</v>
-      </c>
-      <c r="K96">
-        <v>9</v>
-      </c>
-      <c r="L96" s="1">
-        <v>9</v>
-      </c>
-      <c r="M96" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A97" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D97">
-        <v>10.1</v>
-      </c>
-      <c r="E97">
-        <v>9.6</v>
-      </c>
-      <c r="G97" s="1">
-        <v>9.1</v>
-      </c>
-      <c r="I97" s="7"/>
-      <c r="J97">
-        <v>9</v>
-      </c>
-      <c r="K97">
-        <v>3</v>
-      </c>
-      <c r="L97" s="1">
-        <v>3</v>
-      </c>
-      <c r="M97" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E98" s="1">
-        <v>10</v>
-      </c>
-      <c r="G98" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="H98">
-        <v>10</v>
-      </c>
-      <c r="I98" s="7">
-        <v>10</v>
-      </c>
-      <c r="J98">
-        <v>11</v>
-      </c>
-      <c r="K98">
-        <v>4</v>
-      </c>
-      <c r="L98" s="1">
-        <v>3</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E99" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="G99" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="I99" s="7"/>
-      <c r="J99" s="4">
-        <v>5</v>
-      </c>
-      <c r="K99">
-        <v>9</v>
-      </c>
-      <c r="L99" s="1">
-        <v>10</v>
-      </c>
-      <c r="M99" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E100" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F100">
-        <v>11</v>
-      </c>
-      <c r="G100" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I100" s="7"/>
-      <c r="J100" s="4">
-        <v>4</v>
-      </c>
-      <c r="K100">
-        <v>3</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="M100" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E101" s="1">
-        <v>9.6</v>
-      </c>
-      <c r="F101">
-        <v>10</v>
-      </c>
-      <c r="G101" s="1">
-        <v>11.5</v>
-      </c>
-      <c r="I101" s="7"/>
-      <c r="J101" s="4">
-        <v>2</v>
-      </c>
-      <c r="K101" t="s">
-        <v>286</v>
-      </c>
-      <c r="L101" s="1">
-        <v>4</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E102" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="G102" s="1">
-        <v>10.3</v>
-      </c>
-      <c r="I102" s="7"/>
-      <c r="J102" s="4">
-        <v>3</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="L102" s="1">
-        <v>5</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E103" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="G103" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="I103" s="7">
-        <v>9</v>
-      </c>
-      <c r="J103" s="5">
-        <v>11</v>
-      </c>
-      <c r="K103">
-        <v>3</v>
-      </c>
-      <c r="L103" s="1">
-        <v>4</v>
-      </c>
-      <c r="M103" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E104" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F104">
-        <v>11</v>
-      </c>
-      <c r="G104" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="I104" s="7"/>
-      <c r="J104" s="6">
-        <v>9</v>
-      </c>
-      <c r="K104" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="L104" s="1">
-        <v>4</v>
-      </c>
-      <c r="M104" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D105">
-        <v>10.7</v>
-      </c>
-      <c r="E105">
-        <v>9.1</v>
-      </c>
-      <c r="F105">
-        <v>10</v>
-      </c>
-      <c r="G105" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="I105" s="7"/>
-      <c r="J105" s="4">
-        <v>5</v>
-      </c>
-      <c r="K105" s="5">
-        <v>3</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="M105" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E106" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="F106">
-        <v>9</v>
-      </c>
-      <c r="G106" s="1">
-        <v>10</v>
-      </c>
-      <c r="I106" s="7"/>
-      <c r="J106" s="4">
-        <v>4</v>
-      </c>
-      <c r="K106" s="5">
-        <v>4</v>
-      </c>
-      <c r="L106" s="1">
-        <v>5</v>
-      </c>
-      <c r="M106" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E107" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="F107">
-        <v>10</v>
-      </c>
-      <c r="G107" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="I107" s="7"/>
-      <c r="K107">
-        <v>3</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="M107" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E108" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="G108" s="1">
-        <v>10</v>
-      </c>
-      <c r="I108" s="7"/>
-      <c r="K108">
-        <v>4</v>
-      </c>
-      <c r="L108" s="1">
-        <v>5</v>
-      </c>
-      <c r="M108" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E109" s="1">
-        <v>9</v>
-      </c>
-      <c r="F109">
-        <v>9</v>
-      </c>
-      <c r="G109" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I109" s="7"/>
-      <c r="K109">
-        <v>5</v>
-      </c>
-      <c r="L109" s="1">
-        <v>5</v>
-      </c>
-      <c r="M109" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D110">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E110">
-        <v>7.7</v>
-      </c>
-      <c r="G110" s="1">
-        <v>8</v>
-      </c>
-      <c r="I110" s="7">
-        <v>9</v>
-      </c>
-      <c r="J110">
-        <v>10</v>
-      </c>
-      <c r="K110">
-        <v>4</v>
-      </c>
-      <c r="L110" s="1">
-        <v>4</v>
-      </c>
-      <c r="M110" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D111">
-        <v>7.9</v>
-      </c>
-      <c r="E111">
-        <v>7.3</v>
-      </c>
-      <c r="F111">
-        <v>9</v>
-      </c>
-      <c r="G111" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="I111" s="7">
-        <v>9</v>
-      </c>
-      <c r="J111">
-        <v>11</v>
-      </c>
-      <c r="K111">
-        <v>4</v>
-      </c>
-      <c r="L111" s="1">
-        <v>4</v>
-      </c>
-      <c r="M111" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D112">
-        <v>7.7</v>
-      </c>
-      <c r="E112">
-        <v>8.1</v>
-      </c>
-      <c r="F112">
-        <v>9</v>
-      </c>
-      <c r="G112" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="I112" s="7"/>
-      <c r="J112" s="4">
-        <v>3</v>
-      </c>
-      <c r="L112" s="1">
-        <v>12</v>
-      </c>
-      <c r="M112" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D113">
-        <v>8.9</v>
-      </c>
-      <c r="E113">
-        <v>10.9</v>
-      </c>
-      <c r="F113">
-        <v>10</v>
-      </c>
-      <c r="G113" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="I113" s="7"/>
-      <c r="J113" s="4">
-        <v>3</v>
-      </c>
-      <c r="K113">
-        <v>5</v>
-      </c>
-      <c r="L113" s="1">
-        <v>5</v>
-      </c>
-      <c r="M113" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D114">
-        <v>9.6</v>
-      </c>
-      <c r="E114">
-        <v>8.1</v>
-      </c>
-      <c r="G114" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="I114" s="7"/>
-      <c r="J114" s="4">
-        <v>3</v>
-      </c>
-      <c r="K114" t="s">
-        <v>289</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="M114" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E115" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F115">
-        <v>9</v>
-      </c>
-      <c r="G115" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="I115" s="7"/>
-      <c r="J115" s="4">
-        <v>4</v>
-      </c>
-      <c r="K115">
-        <v>4</v>
-      </c>
-      <c r="L115" s="1">
-        <v>5</v>
-      </c>
-      <c r="M115" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E116" s="1">
-        <v>8</v>
-      </c>
-      <c r="G116" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="I116" s="7"/>
-      <c r="J116" t="s">
-        <v>266</v>
-      </c>
-      <c r="K116">
-        <v>4</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="M116" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>3</v>
-      </c>
-      <c r="B117" t="s">
-        <v>4</v>
-      </c>
-      <c r="C117" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117">
-        <v>9.3000000000000007</v>
       </c>
       <c r="E117">
         <v>7.9</v>
       </c>
-      <c r="G117">
+      <c r="F117">
+        <v>9</v>
+      </c>
+      <c r="G117" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="I117" s="7">
+        <v>11</v>
+      </c>
+      <c r="J117">
+        <v>12</v>
+      </c>
+      <c r="K117">
+        <v>16</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="N117" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>177</v>
+      </c>
+      <c r="B118" t="s">
+        <v>183</v>
+      </c>
+      <c r="C118" t="s">
+        <v>87</v>
+      </c>
+      <c r="E118" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="G118" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="I118" s="7"/>
+      <c r="K118">
+        <v>16</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="N118" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>177</v>
+      </c>
+      <c r="B119" t="s">
+        <v>184</v>
+      </c>
+      <c r="C119" t="s">
+        <v>87</v>
+      </c>
+      <c r="E119" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F119">
+        <v>9</v>
+      </c>
+      <c r="G119" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="H119">
+        <v>9</v>
+      </c>
+      <c r="I119" s="7"/>
+      <c r="K119">
+        <v>13</v>
+      </c>
+      <c r="L119" s="1">
+        <v>14</v>
+      </c>
+      <c r="M119" s="1">
+        <v>15</v>
+      </c>
+      <c r="N119" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>73</v>
+      </c>
+      <c r="B120" t="s">
+        <v>75</v>
+      </c>
+      <c r="C120" t="s">
+        <v>87</v>
+      </c>
+      <c r="D120">
+        <v>7.7</v>
+      </c>
+      <c r="E120">
+        <v>8.1</v>
+      </c>
+      <c r="G120" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="I120" s="7">
+        <v>9</v>
+      </c>
+      <c r="J120">
+        <v>9</v>
+      </c>
+      <c r="K120">
+        <v>14</v>
+      </c>
+      <c r="L120" s="1">
+        <v>14</v>
+      </c>
+      <c r="M120" s="1">
+        <v>15</v>
+      </c>
+      <c r="N120" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>73</v>
+      </c>
+      <c r="B121" t="s">
+        <v>80</v>
+      </c>
+      <c r="C121" t="s">
+        <v>87</v>
+      </c>
+      <c r="D121">
+        <v>8.9</v>
+      </c>
+      <c r="E121">
+        <v>7.4</v>
+      </c>
+      <c r="G121" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="I121" s="7">
+        <v>11</v>
+      </c>
+      <c r="J121">
+        <v>13</v>
+      </c>
+      <c r="K121">
+        <v>14</v>
+      </c>
+      <c r="L121" s="1">
+        <v>15</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="N121" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>73</v>
+      </c>
+      <c r="B122" t="s">
+        <v>222</v>
+      </c>
+      <c r="C122" t="s">
+        <v>87</v>
+      </c>
+      <c r="D122">
+        <v>7.7</v>
+      </c>
+      <c r="E122" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="G122" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="I122" s="7">
+        <v>9</v>
+      </c>
+      <c r="J122">
+        <v>13</v>
+      </c>
+      <c r="K122">
+        <v>14</v>
+      </c>
+      <c r="L122" s="1">
+        <v>15</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="N122" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>76</v>
+      </c>
+      <c r="B123" t="s">
+        <v>180</v>
+      </c>
+      <c r="C123" t="s">
+        <v>87</v>
+      </c>
+      <c r="E123" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="G123" s="1">
+        <v>10</v>
+      </c>
+      <c r="I123" s="7"/>
+      <c r="J123">
+        <v>10</v>
+      </c>
+      <c r="K123">
+        <v>12</v>
+      </c>
+      <c r="L123" s="1">
+        <v>14</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="N123" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>76</v>
+      </c>
+      <c r="B124" t="s">
+        <v>77</v>
+      </c>
+      <c r="C124" t="s">
+        <v>87</v>
+      </c>
+      <c r="D124">
+        <v>8.1</v>
+      </c>
+      <c r="E124">
+        <v>7.7</v>
+      </c>
+      <c r="G124" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="I124" s="7">
+        <v>12</v>
+      </c>
+      <c r="J124">
+        <v>12</v>
+      </c>
+      <c r="K124">
+        <v>12</v>
+      </c>
+      <c r="L124" s="1">
+        <v>13</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="N124" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>66</v>
+      </c>
+      <c r="B125" t="s">
+        <v>173</v>
+      </c>
+      <c r="C125" t="s">
+        <v>87</v>
+      </c>
+      <c r="E125" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="G125" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="I125" s="7">
+        <v>9</v>
+      </c>
+      <c r="J125">
+        <v>10</v>
+      </c>
+      <c r="K125">
+        <v>14</v>
+      </c>
+      <c r="L125" s="1">
+        <v>15</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="N125" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>66</v>
+      </c>
+      <c r="B126" t="s">
+        <v>176</v>
+      </c>
+      <c r="C126" t="s">
+        <v>87</v>
+      </c>
+      <c r="E126" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="F126">
+        <v>9</v>
+      </c>
+      <c r="G126" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="I126" s="7">
+        <v>12</v>
+      </c>
+      <c r="J126">
+        <v>14</v>
+      </c>
+      <c r="K126">
+        <v>15</v>
+      </c>
+      <c r="L126" s="1">
+        <v>15</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="N126" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>66</v>
+      </c>
+      <c r="B127" t="s">
+        <v>191</v>
+      </c>
+      <c r="C127" t="s">
+        <v>87</v>
+      </c>
+      <c r="E127" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="G127" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="I127" s="7">
+        <v>9</v>
+      </c>
+      <c r="J127">
+        <v>12</v>
+      </c>
+      <c r="K127">
+        <v>11</v>
+      </c>
+      <c r="L127" s="1">
+        <v>14</v>
+      </c>
+      <c r="M127" s="1">
+        <v>15</v>
+      </c>
+      <c r="N127" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E128" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="F128">
+        <v>9</v>
+      </c>
+      <c r="G128" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="I128" s="7">
+        <v>10</v>
+      </c>
+      <c r="J128" s="4">
+        <v>1</v>
+      </c>
+      <c r="K128" t="s">
+        <v>285</v>
+      </c>
+      <c r="L128" s="1">
+        <v>1</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="N128" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E129" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G129" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I129" s="7">
+        <v>9</v>
+      </c>
+      <c r="J129">
+        <v>10</v>
+      </c>
+      <c r="K129">
+        <v>3</v>
+      </c>
+      <c r="L129" s="1">
+        <v>3</v>
+      </c>
+      <c r="M129" s="1">
+        <v>2</v>
+      </c>
+      <c r="N129" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A130" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D130">
+        <v>10.1</v>
+      </c>
+      <c r="E130">
+        <v>9.6</v>
+      </c>
+      <c r="G130" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="I130" s="7"/>
+      <c r="J130">
+        <v>9</v>
+      </c>
+      <c r="K130">
+        <v>3</v>
+      </c>
+      <c r="L130" s="1">
+        <v>3</v>
+      </c>
+      <c r="M130" s="1">
+        <v>3</v>
+      </c>
+      <c r="N130" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E131" s="1">
+        <v>10</v>
+      </c>
+      <c r="G131" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H131">
+        <v>10</v>
+      </c>
+      <c r="I131" s="7">
+        <v>10</v>
+      </c>
+      <c r="J131">
+        <v>11</v>
+      </c>
+      <c r="K131">
+        <v>4</v>
+      </c>
+      <c r="L131" s="1">
+        <v>3</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="N131" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E132" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="F132">
+        <v>10</v>
+      </c>
+      <c r="G132" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="I132" s="7"/>
+      <c r="J132" s="4">
+        <v>2</v>
+      </c>
+      <c r="K132" t="s">
+        <v>286</v>
+      </c>
+      <c r="L132" s="1">
+        <v>4</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="N132" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E133" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="G133" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="I133" s="7"/>
+      <c r="J133" s="4">
+        <v>3</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L133" s="1">
+        <v>5</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="N133" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D134">
+        <v>10.7</v>
+      </c>
+      <c r="E134">
+        <v>9.1</v>
+      </c>
+      <c r="F134">
+        <v>10</v>
+      </c>
+      <c r="G134" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I134" s="7"/>
+      <c r="J134" s="4">
+        <v>5</v>
+      </c>
+      <c r="K134" s="5">
+        <v>3</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="M134" s="1">
+        <v>4</v>
+      </c>
+      <c r="N134" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E135" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="F135">
+        <v>9</v>
+      </c>
+      <c r="G135" s="1">
+        <v>10</v>
+      </c>
+      <c r="I135" s="7"/>
+      <c r="J135" s="4">
+        <v>4</v>
+      </c>
+      <c r="K135" s="5">
+        <v>4</v>
+      </c>
+      <c r="L135" s="1">
+        <v>5</v>
+      </c>
+      <c r="M135" s="1">
+        <v>5</v>
+      </c>
+      <c r="N135" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E136" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F136">
+        <v>10</v>
+      </c>
+      <c r="G136" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="I136" s="7"/>
+      <c r="K136">
+        <v>3</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="M136" s="1">
+        <v>2</v>
+      </c>
+      <c r="N136" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137" s="1">
+        <v>9</v>
+      </c>
+      <c r="F137">
+        <v>9</v>
+      </c>
+      <c r="G137" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I137" s="7"/>
+      <c r="K137">
+        <v>5</v>
+      </c>
+      <c r="L137" s="1">
+        <v>5</v>
+      </c>
+      <c r="M137" s="1">
+        <v>5</v>
+      </c>
+      <c r="N137" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D138">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E138">
+        <v>7.7</v>
+      </c>
+      <c r="G138" s="1">
+        <v>8</v>
+      </c>
+      <c r="I138" s="7">
+        <v>9</v>
+      </c>
+      <c r="J138">
+        <v>10</v>
+      </c>
+      <c r="K138">
+        <v>4</v>
+      </c>
+      <c r="L138" s="1">
+        <v>4</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="N138" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D139">
+        <v>7.9</v>
+      </c>
+      <c r="E139">
+        <v>7.3</v>
+      </c>
+      <c r="F139">
+        <v>9</v>
+      </c>
+      <c r="G139" s="1">
         <v>7.5</v>
       </c>
-      <c r="J117" s="4">
+      <c r="I139" s="7">
+        <v>9</v>
+      </c>
+      <c r="J139">
+        <v>11</v>
+      </c>
+      <c r="K139">
+        <v>4</v>
+      </c>
+      <c r="L139" s="1">
+        <v>4</v>
+      </c>
+      <c r="M139" s="1">
+        <v>4</v>
+      </c>
+      <c r="N139" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E140" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F140">
+        <v>9</v>
+      </c>
+      <c r="G140" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="I140" s="7"/>
+      <c r="J140" s="4">
+        <v>4</v>
+      </c>
+      <c r="K140">
+        <v>4</v>
+      </c>
+      <c r="L140" s="1">
         <v>5</v>
       </c>
-      <c r="M117" s="6"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C118" s="4" t="s">
+      <c r="M140" s="1">
+        <v>4</v>
+      </c>
+      <c r="N140" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D141">
+        <v>9.6</v>
+      </c>
+      <c r="E141">
+        <v>8.1</v>
+      </c>
+      <c r="G141" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="I141" s="7"/>
+      <c r="J141" s="4">
+        <v>3</v>
+      </c>
+      <c r="K141" t="s">
+        <v>289</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="N141" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E142" s="1">
+        <v>8</v>
+      </c>
+      <c r="G142" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="I142" s="7"/>
+      <c r="J142" t="s">
+        <v>266</v>
+      </c>
+      <c r="K142">
+        <v>4</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="N142" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>43</v>
+      </c>
+      <c r="B143" t="s">
+        <v>44</v>
+      </c>
+      <c r="C143" t="s">
         <v>5</v>
       </c>
-      <c r="D118">
-        <v>8.4</v>
-      </c>
-      <c r="E118">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G118">
-        <v>8.4</v>
-      </c>
-      <c r="J118" s="4">
+      <c r="D143">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E143">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G143">
+        <v>9</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="N143" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L118">
-        <v>9</v>
-      </c>
-      <c r="M118" s="6">
+      <c r="D144">
+        <v>9.6</v>
+      </c>
+      <c r="E144">
+        <v>7.5</v>
+      </c>
+      <c r="G144">
+        <v>9</v>
+      </c>
+      <c r="I144">
+        <v>9</v>
+      </c>
+      <c r="J144">
+        <v>11</v>
+      </c>
+      <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144">
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>21</v>
-      </c>
-      <c r="B119" t="s">
-        <v>25</v>
-      </c>
-      <c r="C119" t="s">
-        <v>5</v>
-      </c>
-      <c r="D119">
-        <v>10.3</v>
-      </c>
-      <c r="E119">
-        <v>7.4</v>
-      </c>
-      <c r="G119">
-        <v>9</v>
-      </c>
-      <c r="J119" s="4">
-        <v>4</v>
-      </c>
-      <c r="M119" s="6"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>12</v>
-      </c>
-      <c r="B120" t="s">
-        <v>13</v>
-      </c>
-      <c r="C120" t="s">
-        <v>5</v>
-      </c>
-      <c r="D120">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E120">
-        <v>9.5</v>
-      </c>
-      <c r="G120">
-        <v>8</v>
-      </c>
-      <c r="J120" s="4">
-        <v>5</v>
-      </c>
-      <c r="M120" s="6"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D121">
-        <v>9.5</v>
-      </c>
-      <c r="E121">
-        <v>7.6</v>
-      </c>
-      <c r="G121">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="L121">
-        <v>9</v>
-      </c>
-      <c r="M121" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>28</v>
-      </c>
-      <c r="B122" t="s">
-        <v>29</v>
-      </c>
-      <c r="C122" t="s">
-        <v>5</v>
-      </c>
-      <c r="D122">
-        <v>9.6</v>
-      </c>
-      <c r="E122">
-        <v>7.8</v>
-      </c>
-      <c r="G122">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="J122" s="4">
-        <v>2</v>
-      </c>
-      <c r="M122" s="6"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>16</v>
-      </c>
-      <c r="B123" t="s">
-        <v>17</v>
-      </c>
-      <c r="C123" t="s">
-        <v>5</v>
-      </c>
-      <c r="D123">
-        <v>7.7</v>
-      </c>
-      <c r="E123">
-        <v>7.7</v>
-      </c>
-      <c r="G123">
-        <v>7.5</v>
-      </c>
-      <c r="H123">
-        <v>9</v>
-      </c>
-      <c r="M123" s="6"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D124">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E124">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G124">
-        <v>7.2</v>
-      </c>
-      <c r="H124">
-        <v>9</v>
-      </c>
-      <c r="K124">
-        <v>1</v>
-      </c>
-      <c r="L124">
-        <v>1</v>
-      </c>
-      <c r="M124" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>14</v>
-      </c>
-      <c r="B125" t="s">
-        <v>18</v>
-      </c>
-      <c r="C125" t="s">
-        <v>5</v>
-      </c>
-      <c r="D125">
-        <v>8.9</v>
-      </c>
-      <c r="E125">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F125">
-        <v>9</v>
-      </c>
-      <c r="G125">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="H125">
-        <v>9</v>
-      </c>
-      <c r="M125" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D126">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E126">
-        <v>8.1</v>
-      </c>
-      <c r="G126">
-        <v>8.1</v>
-      </c>
-      <c r="H126">
-        <v>9</v>
-      </c>
-      <c r="L126">
-        <v>9</v>
-      </c>
-      <c r="M126" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D127" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="E127">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G127">
-        <v>8.4</v>
-      </c>
-      <c r="L127" t="s">
-        <v>355</v>
-      </c>
-      <c r="M127" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D128">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E128">
-        <v>9.5</v>
-      </c>
-      <c r="G128">
-        <v>7.9</v>
-      </c>
-      <c r="L128">
-        <v>9</v>
-      </c>
-      <c r="M128" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D129">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E129">
-        <v>7.8</v>
-      </c>
-      <c r="G129">
-        <v>7.8</v>
-      </c>
-      <c r="M129" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>31</v>
-      </c>
-      <c r="B130" t="s">
-        <v>32</v>
-      </c>
-      <c r="C130" t="s">
-        <v>5</v>
-      </c>
-      <c r="D130">
-        <v>8.5</v>
-      </c>
-      <c r="E130">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="G130">
-        <v>9</v>
-      </c>
-      <c r="H130">
-        <v>9</v>
-      </c>
-      <c r="M130" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>39</v>
-      </c>
-      <c r="B131" t="s">
-        <v>40</v>
-      </c>
-      <c r="C131" t="s">
-        <v>5</v>
-      </c>
-      <c r="D131">
-        <v>9</v>
-      </c>
-      <c r="E131">
-        <v>10.4</v>
-      </c>
-      <c r="G131">
-        <v>8.1</v>
-      </c>
-      <c r="M131" s="6"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>41</v>
-      </c>
-      <c r="B132" t="s">
-        <v>42</v>
-      </c>
-      <c r="C132" t="s">
-        <v>5</v>
-      </c>
-      <c r="D132">
-        <v>9.1</v>
-      </c>
-      <c r="E132">
-        <v>8.5</v>
-      </c>
-      <c r="G132">
-        <v>8</v>
-      </c>
-      <c r="M132" s="6"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>33</v>
-      </c>
-      <c r="B133" t="s">
-        <v>34</v>
-      </c>
-      <c r="C133" t="s">
-        <v>5</v>
-      </c>
-      <c r="D133">
-        <v>9.9</v>
-      </c>
-      <c r="E133">
-        <v>10.6</v>
-      </c>
-      <c r="G133">
-        <v>8.4</v>
-      </c>
-      <c r="M133" s="6"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>37</v>
-      </c>
-      <c r="B134" t="s">
-        <v>35</v>
-      </c>
-      <c r="C134" t="s">
-        <v>5</v>
-      </c>
-      <c r="D134">
-        <v>8.5</v>
-      </c>
-      <c r="E134">
-        <v>10.4</v>
-      </c>
-      <c r="G134">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="M134" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>36</v>
-      </c>
-      <c r="B135" t="s">
-        <v>38</v>
-      </c>
-      <c r="C135" t="s">
-        <v>5</v>
-      </c>
-      <c r="D135">
-        <v>13.4</v>
-      </c>
-      <c r="E135">
-        <v>9.1</v>
-      </c>
-      <c r="G135">
-        <v>9.6</v>
-      </c>
-      <c r="M135" s="6"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>52</v>
-      </c>
-      <c r="B136" t="s">
-        <v>53</v>
-      </c>
-      <c r="C136" t="s">
-        <v>5</v>
-      </c>
-      <c r="D136">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="E136">
-        <v>7.5</v>
-      </c>
-      <c r="G136">
-        <v>7.7</v>
-      </c>
-      <c r="M136" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D137">
-        <v>9.6</v>
-      </c>
-      <c r="E137">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G137">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="K137">
-        <v>9</v>
-      </c>
-      <c r="L137">
-        <v>11</v>
-      </c>
-      <c r="M137" s="6"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>49</v>
-      </c>
-      <c r="B138" t="s">
-        <v>51</v>
-      </c>
-      <c r="C138" t="s">
-        <v>5</v>
-      </c>
-      <c r="D138">
-        <v>8.4</v>
-      </c>
-      <c r="E138">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G138">
-        <v>8.1</v>
-      </c>
-      <c r="M138" s="6" t="s">
+      <c r="M144" s="6" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+      <c r="N144" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B139" t="s">
-        <v>44</v>
-      </c>
-      <c r="C139" t="s">
-        <v>5</v>
-      </c>
-      <c r="D139">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E139">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G139">
-        <v>9</v>
-      </c>
-      <c r="L139">
-        <v>2</v>
-      </c>
-      <c r="M139" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D140">
-        <v>9.6</v>
-      </c>
-      <c r="E140">
-        <v>7.5</v>
-      </c>
-      <c r="G140">
-        <v>9</v>
-      </c>
-      <c r="I140">
-        <v>9</v>
-      </c>
-      <c r="J140">
-        <v>11</v>
-      </c>
-      <c r="K140">
-        <v>2</v>
-      </c>
-      <c r="L140">
-        <v>3</v>
-      </c>
-      <c r="M140" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B141" s="4" t="s">
+      <c r="B145" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D141">
-        <v>9.1</v>
-      </c>
-      <c r="E141">
-        <v>9.1</v>
-      </c>
-      <c r="F141">
-        <v>9</v>
-      </c>
-      <c r="G141">
-        <v>8</v>
-      </c>
-      <c r="I141">
-        <v>9</v>
-      </c>
-      <c r="J141">
-        <v>10</v>
-      </c>
-      <c r="K141">
-        <v>2</v>
-      </c>
-      <c r="L141">
-        <v>3</v>
-      </c>
-      <c r="M141" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D142">
-        <v>9.4</v>
-      </c>
-      <c r="E142">
-        <v>7.7</v>
-      </c>
-      <c r="F142">
-        <v>9</v>
-      </c>
-      <c r="G142">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="J142">
-        <v>10</v>
-      </c>
-      <c r="K142">
-        <v>9</v>
-      </c>
-      <c r="L142">
-        <v>11</v>
-      </c>
-      <c r="M142" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D143">
-        <v>7.8</v>
-      </c>
-      <c r="E143">
-        <v>9.6</v>
-      </c>
-      <c r="F143">
-        <v>9</v>
-      </c>
-      <c r="G143">
-        <v>7.2</v>
-      </c>
-      <c r="J143">
-        <v>9</v>
-      </c>
-      <c r="K143">
-        <v>3</v>
-      </c>
-      <c r="L143">
-        <v>3</v>
-      </c>
-      <c r="M143" s="6"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>55</v>
-      </c>
-      <c r="B144" t="s">
-        <v>56</v>
-      </c>
-      <c r="C144" t="s">
-        <v>5</v>
-      </c>
-      <c r="D144">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E144">
-        <v>8.6</v>
-      </c>
-      <c r="G144">
-        <v>8.5</v>
-      </c>
-      <c r="J144">
-        <v>9</v>
-      </c>
-      <c r="M144" s="6"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D145">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="E145">
-        <v>9.4</v>
+        <v>9.1</v>
+      </c>
+      <c r="F145">
+        <v>9</v>
       </c>
       <c r="G145">
-        <v>8.8000000000000007</v>
+        <v>8</v>
+      </c>
+      <c r="I145">
+        <v>9</v>
       </c>
       <c r="J145">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K145">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L145">
-        <v>10</v>
-      </c>
-      <c r="M145" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M145" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="N145" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>78</v>
       </c>
@@ -5687,8 +6279,11 @@
       <c r="M146" s="6" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N146" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>78</v>
       </c>
@@ -5722,8 +6317,11 @@
       <c r="M147" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N147" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>78</v>
       </c>
@@ -5751,8 +6349,11 @@
       <c r="M148" s="6" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N148" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>78</v>
       </c>
@@ -5780,13 +6381,12 @@
       <c r="M149" s="6" t="s">
         <v>354</v>
       </c>
+      <c r="N149" t="s">
+        <v>380</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1">
-    <sortState ref="A2:G149">
-      <sortCondition ref="C1:C149"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:N103"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5798,8 +6398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6706,6 +7306,9 @@
       <c r="G37" t="s">
         <v>91</v>
       </c>
+      <c r="H37" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -6729,6 +7332,9 @@
       <c r="G38" t="s">
         <v>91</v>
       </c>
+      <c r="H38" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -6752,6 +7358,9 @@
       <c r="G39" t="s">
         <v>91</v>
       </c>
+      <c r="H39" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -6775,6 +7384,9 @@
       <c r="G40" t="s">
         <v>91</v>
       </c>
+      <c r="H40" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -6798,6 +7410,9 @@
       <c r="G41" t="s">
         <v>5</v>
       </c>
+      <c r="H41" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -6821,6 +7436,9 @@
       <c r="G42" t="s">
         <v>5</v>
       </c>
+      <c r="H42" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -6844,6 +7462,9 @@
       <c r="G43" t="s">
         <v>5</v>
       </c>
+      <c r="H43" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -6867,6 +7488,9 @@
       <c r="G44" t="s">
         <v>91</v>
       </c>
+      <c r="H44" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -6890,6 +7514,9 @@
       <c r="G45" t="s">
         <v>5</v>
       </c>
+      <c r="H45" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -6913,6 +7540,9 @@
       <c r="G46" t="s">
         <v>91</v>
       </c>
+      <c r="H46" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -6936,6 +7566,9 @@
       <c r="G47" t="s">
         <v>91</v>
       </c>
+      <c r="H47" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -6947,17 +7580,26 @@
       <c r="C48" s="3">
         <v>0.41875000000000001</v>
       </c>
+      <c r="D48" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.38541666666666669</v>
+      </c>
       <c r="F48">
         <v>10</v>
       </c>
       <c r="G48" t="s">
         <v>5</v>
       </c>
+      <c r="H48" s="8">
+        <v>3</v>
+      </c>
       <c r="K48" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -6967,14 +7609,23 @@
       <c r="C49" s="3">
         <v>0.41875000000000001</v>
       </c>
+      <c r="D49" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.38541666666666669</v>
+      </c>
       <c r="F49">
         <v>12</v>
       </c>
       <c r="G49" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>89</v>
       </c>
@@ -6984,14 +7635,23 @@
       <c r="C50" s="3">
         <v>0.41875000000000001</v>
       </c>
+      <c r="D50" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.38541666666666669</v>
+      </c>
       <c r="F50">
         <v>12</v>
       </c>
       <c r="G50" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>123</v>
       </c>
@@ -7001,14 +7661,23 @@
       <c r="C51" s="3">
         <v>0.41875000000000001</v>
       </c>
+      <c r="D51" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.38541666666666669</v>
+      </c>
       <c r="F51">
         <v>13</v>
       </c>
       <c r="G51" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -7018,14 +7687,23 @@
       <c r="C52" s="3">
         <v>0.41875000000000001</v>
       </c>
+      <c r="D52" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.38541666666666669</v>
+      </c>
       <c r="F52">
         <v>12</v>
       </c>
       <c r="G52" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>167</v>
       </c>
@@ -7035,14 +7713,23 @@
       <c r="C53" s="3">
         <v>0.41875000000000001</v>
       </c>
+      <c r="D53" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.38541666666666669</v>
+      </c>
       <c r="F53">
         <v>11</v>
       </c>
       <c r="G53" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>110</v>
       </c>
@@ -7052,14 +7739,23 @@
       <c r="C54" s="3">
         <v>0.41875000000000001</v>
       </c>
+      <c r="D54" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.38541666666666669</v>
+      </c>
       <c r="F54">
         <v>10</v>
       </c>
       <c r="G54" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>172</v>
       </c>
@@ -7069,11 +7765,20 @@
       <c r="C55" s="3">
         <v>0.41875000000000001</v>
       </c>
+      <c r="D55" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.38541666666666669</v>
+      </c>
       <c r="F55">
         <v>11</v>
       </c>
       <c r="G55" t="s">
         <v>91</v>
+      </c>
+      <c r="H55" s="8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7264,10 +7969,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7370,7 +8075,7 @@
         <v>13.202</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D11" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D22" si="0">C3-B3</f>
         <v>11.920999999999999</v>
       </c>
       <c r="E3">
@@ -7395,7 +8100,7 @@
         <v>95.5</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L11" si="1">((C3-F3)/C3)*100</f>
+        <f t="shared" ref="L3:L22" si="1">((C3-F3)/C3)*100</f>
         <v>66.002120890774123</v>
       </c>
       <c r="M3" t="s">
@@ -7756,11 +8461,31 @@
       <c r="C12">
         <v>10.449</v>
       </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>9.1737000000000002</v>
+      </c>
+      <c r="F12">
+        <v>3.8923000000000001</v>
+      </c>
       <c r="G12" t="s">
         <v>290</v>
       </c>
       <c r="H12" s="3">
         <v>0.52777777777777779</v>
+      </c>
+      <c r="I12" t="s">
+        <v>347</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K12">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>62.749545411044117</v>
       </c>
       <c r="M12" t="s">
         <v>87</v>
@@ -7776,11 +8501,31 @@
       <c r="C13">
         <v>10.1416</v>
       </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>8.8604000000000003</v>
+      </c>
+      <c r="F13">
+        <v>3.5474000000000001</v>
+      </c>
       <c r="G13" t="s">
         <v>290</v>
       </c>
       <c r="H13" s="3">
         <v>0.52777777777777779</v>
+      </c>
+      <c r="I13" t="s">
+        <v>347</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K13">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>65.02129841445138</v>
       </c>
       <c r="M13" t="s">
         <v>87</v>
@@ -7796,11 +8541,31 @@
       <c r="C14">
         <v>11.106</v>
       </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>9.8260000000000005</v>
+      </c>
+      <c r="F14">
+        <v>3.9205999999999999</v>
+      </c>
       <c r="G14" t="s">
         <v>290</v>
       </c>
       <c r="H14" s="3">
         <v>0.52777777777777779</v>
+      </c>
+      <c r="I14" t="s">
+        <v>347</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K14">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>64.698361246173235</v>
       </c>
       <c r="M14" t="s">
         <v>87</v>
@@ -7816,11 +8581,31 @@
       <c r="C15">
         <v>10.231999999999999</v>
       </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>8.9390000000000001</v>
+      </c>
+      <c r="F15">
+        <v>3.7479</v>
+      </c>
       <c r="G15" t="s">
         <v>290</v>
       </c>
       <c r="H15" s="3">
         <v>0.52777777777777779</v>
+      </c>
+      <c r="I15" t="s">
+        <v>347</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K15">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>63.370797498045349</v>
       </c>
       <c r="M15" t="s">
         <v>91</v>
@@ -7836,11 +8621,31 @@
       <c r="C16">
         <v>10.262</v>
       </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>8.98</v>
+      </c>
+      <c r="F16">
+        <v>3.6717</v>
+      </c>
       <c r="G16" t="s">
         <v>290</v>
       </c>
       <c r="H16" s="3">
         <v>0.52777777777777779</v>
+      </c>
+      <c r="I16" t="s">
+        <v>347</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K16">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>64.220424868446699</v>
       </c>
       <c r="M16" t="s">
         <v>91</v>
@@ -7856,11 +8661,31 @@
       <c r="C17">
         <v>9.7029999999999994</v>
       </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>8.4130000000000003</v>
+      </c>
+      <c r="F17">
+        <v>3.5920000000000001</v>
+      </c>
       <c r="G17" t="s">
         <v>290</v>
       </c>
       <c r="H17" s="3">
         <v>0.52777777777777779</v>
+      </c>
+      <c r="I17" t="s">
+        <v>347</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K17">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>62.980521488199514</v>
       </c>
       <c r="M17" t="s">
         <v>87</v>
@@ -7876,11 +8701,31 @@
       <c r="C18">
         <v>11.917999999999999</v>
       </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>10.613199999999999</v>
+      </c>
+      <c r="F18">
+        <v>4.4584999999999999</v>
+      </c>
       <c r="G18" t="s">
         <v>290</v>
       </c>
       <c r="H18" s="3">
         <v>0.52777777777777779</v>
+      </c>
+      <c r="I18" t="s">
+        <v>347</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K18">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>62.590199697935887</v>
       </c>
       <c r="M18" t="s">
         <v>5</v>
@@ -7896,11 +8741,31 @@
       <c r="C19">
         <v>11.47</v>
       </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>10.186</v>
+      </c>
+      <c r="F19">
+        <v>4.7111999999999998</v>
+      </c>
       <c r="G19" t="s">
         <v>290</v>
       </c>
       <c r="H19" s="3">
         <v>0.52777777777777779</v>
+      </c>
+      <c r="I19" t="s">
+        <v>347</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K19">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>58.925893635571057</v>
       </c>
       <c r="M19" t="s">
         <v>5</v>
@@ -7916,11 +8781,31 @@
       <c r="C20">
         <v>12.371</v>
       </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>11.088000000000001</v>
+      </c>
+      <c r="F20">
+        <v>4.8871200000000004</v>
+      </c>
       <c r="G20" t="s">
         <v>290</v>
       </c>
       <c r="H20" s="3">
         <v>0.52777777777777779</v>
+      </c>
+      <c r="I20" t="s">
+        <v>347</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K20">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>60.495352032980357</v>
       </c>
       <c r="M20" t="s">
         <v>5</v>
@@ -7936,11 +8821,24 @@
       <c r="C21">
         <v>8.2880000000000003</v>
       </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>7.0095000000000001</v>
+      </c>
       <c r="G21" t="s">
         <v>290</v>
       </c>
       <c r="H21" s="3">
         <v>0.52777777777777779</v>
+      </c>
+      <c r="I21" t="s">
+        <v>347</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K21">
+        <v>70.849999999999994</v>
       </c>
       <c r="M21" t="s">
         <v>5</v>
@@ -7956,13 +8854,273 @@
       <c r="C22">
         <v>8.6940000000000008</v>
       </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>7.4070000000000009</v>
+      </c>
+      <c r="F22">
+        <v>3.5720000000000001</v>
+      </c>
       <c r="G22" t="s">
         <v>290</v>
       </c>
       <c r="H22" s="3">
         <v>0.52777777777777779</v>
       </c>
+      <c r="I22" t="s">
+        <v>347</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K22">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>58.9141936968024</v>
+      </c>
       <c r="M22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23">
+        <v>11.761799999999999</v>
+      </c>
+      <c r="G23" t="s">
+        <v>350</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="I23" t="s">
+        <v>366</v>
+      </c>
+      <c r="M23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24">
+        <v>14.134399999999999</v>
+      </c>
+      <c r="G24" t="s">
+        <v>350</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="I24" t="s">
+        <v>366</v>
+      </c>
+      <c r="M24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25">
+        <v>16.858000000000001</v>
+      </c>
+      <c r="G25" t="s">
+        <v>350</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="I25" t="s">
+        <v>366</v>
+      </c>
+      <c r="M25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26">
+        <v>14.114599999999999</v>
+      </c>
+      <c r="G26" t="s">
+        <v>350</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="I26" t="s">
+        <v>366</v>
+      </c>
+      <c r="M26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27">
+        <v>16.641200000000001</v>
+      </c>
+      <c r="G27" t="s">
+        <v>350</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="I27" t="s">
+        <v>366</v>
+      </c>
+      <c r="M27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28">
+        <v>11.506</v>
+      </c>
+      <c r="G28" t="s">
+        <v>350</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="I28" t="s">
+        <v>366</v>
+      </c>
+      <c r="M28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>12.675000000000001</v>
+      </c>
+      <c r="G29" t="s">
+        <v>350</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="I29" t="s">
+        <v>366</v>
+      </c>
+      <c r="M29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30">
+        <v>13.179399999999999</v>
+      </c>
+      <c r="G30" t="s">
+        <v>350</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="I30" t="s">
+        <v>366</v>
+      </c>
+      <c r="M30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31">
+        <v>12.836</v>
+      </c>
+      <c r="G31" t="s">
+        <v>350</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="I31" t="s">
+        <v>366</v>
+      </c>
+      <c r="M31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32">
+        <v>14.662000000000001</v>
+      </c>
+      <c r="G32" t="s">
+        <v>350</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="I32" t="s">
+        <v>366</v>
+      </c>
+      <c r="M32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33">
+        <v>13.368600000000001</v>
+      </c>
+      <c r="G33" t="s">
+        <v>350</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="I33" t="s">
+        <v>366</v>
+      </c>
+      <c r="M33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34">
+        <v>11.9596</v>
+      </c>
+      <c r="G34" t="s">
+        <v>350</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="I34" t="s">
+        <v>366</v>
+      </c>
+      <c r="M34" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7978,8 +9136,8 @@
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8005,10 +9163,10 @@
         <v>344</v>
       </c>
       <c r="F1" t="s">
-        <v>211</v>
+        <v>368</v>
       </c>
       <c r="G1" t="s">
-        <v>211</v>
+        <v>381</v>
       </c>
       <c r="H1" t="s">
         <v>211</v>
@@ -8030,6 +9188,12 @@
       <c r="E2">
         <v>9</v>
       </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -8047,6 +9211,12 @@
       <c r="E3">
         <v>9</v>
       </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -8058,6 +9228,12 @@
       <c r="C4" t="s">
         <v>87</v>
       </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -8075,6 +9251,12 @@
       <c r="E5">
         <v>10</v>
       </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -8103,6 +9285,12 @@
       <c r="E7">
         <v>11</v>
       </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -8120,6 +9308,12 @@
       <c r="E8">
         <v>9</v>
       </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -8131,6 +9325,12 @@
       <c r="C9" t="s">
         <v>87</v>
       </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -8148,6 +9348,12 @@
       <c r="E10">
         <v>9</v>
       </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -8165,6 +9371,12 @@
       <c r="E11">
         <v>9</v>
       </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -8176,6 +9388,12 @@
       <c r="C12" t="s">
         <v>91</v>
       </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -8193,6 +9411,12 @@
       <c r="E13">
         <v>10</v>
       </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -8210,6 +9434,12 @@
       <c r="E14">
         <v>10</v>
       </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -8221,6 +9451,12 @@
       <c r="C15" t="s">
         <v>91</v>
       </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -8232,8 +9468,14 @@
       <c r="C16" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>294</v>
       </c>
@@ -8249,8 +9491,14 @@
       <c r="E17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>294</v>
       </c>
@@ -8260,8 +9508,14 @@
       <c r="C18" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>294</v>
       </c>
@@ -8271,8 +9525,14 @@
       <c r="C19" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>312</v>
       </c>
@@ -8283,7 +9543,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>312</v>
       </c>
@@ -8293,8 +9553,11 @@
       <c r="C21" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>312</v>
       </c>
@@ -8304,8 +9567,14 @@
       <c r="C22" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>312</v>
       </c>
@@ -8315,8 +9584,11 @@
       <c r="C23" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>312</v>
       </c>
@@ -8326,8 +9598,11 @@
       <c r="C24" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>313</v>
       </c>
@@ -8340,8 +9615,14 @@
       <c r="E25">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>313</v>
       </c>
@@ -8354,8 +9635,14 @@
       <c r="E26">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>313</v>
       </c>
@@ -8371,8 +9658,14 @@
       <c r="E27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>313</v>
       </c>
@@ -8386,7 +9679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>313</v>
       </c>
@@ -8396,8 +9689,14 @@
       <c r="C29" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>313</v>
       </c>
@@ -8408,7 +9707,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>313</v>
       </c>
@@ -8419,7 +9718,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>313</v>
       </c>
@@ -8432,8 +9731,14 @@
       <c r="E32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>313</v>
       </c>
@@ -8446,8 +9751,14 @@
       <c r="E33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>9</v>
+      </c>
+      <c r="G33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>328</v>
       </c>
@@ -8461,7 +9772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>328</v>
       </c>
@@ -8474,8 +9785,14 @@
       <c r="E35">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>9</v>
+      </c>
+      <c r="G35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>328</v>
       </c>
@@ -8488,8 +9805,14 @@
       <c r="E36">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>9</v>
+      </c>
+      <c r="G36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>328</v>
       </c>
@@ -8499,8 +9822,14 @@
       <c r="C37" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>9</v>
+      </c>
+      <c r="G37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>328</v>
       </c>
@@ -8511,7 +9840,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>328</v>
       </c>
@@ -8527,8 +9856,14 @@
       <c r="E39">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>9</v>
+      </c>
+      <c r="G39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>328</v>
       </c>
@@ -8544,8 +9879,14 @@
       <c r="E40">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>328</v>
       </c>
@@ -8556,7 +9897,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>329</v>
       </c>
@@ -8567,7 +9908,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>329</v>
       </c>
@@ -8577,8 +9918,14 @@
       <c r="C43" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>9</v>
+      </c>
+      <c r="G43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>329</v>
       </c>
@@ -8594,8 +9941,14 @@
       <c r="E44">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <v>9</v>
+      </c>
+      <c r="G44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>329</v>
       </c>
@@ -8611,8 +9964,14 @@
       <c r="E45">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>329</v>
       </c>
@@ -8622,8 +9981,14 @@
       <c r="C46" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>329</v>
       </c>
@@ -8633,8 +9998,14 @@
       <c r="C47" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>329</v>
       </c>
@@ -8645,7 +10016,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>330</v>
       </c>
@@ -8659,6 +10030,12 @@
         <v>9</v>
       </c>
       <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49">
         <v>10</v>
       </c>
     </row>
@@ -8813,15 +10190,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>200</v>
       </c>
@@ -8843,8 +10220,29 @@
       <c r="G1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42766</v>
       </c>
@@ -8866,8 +10264,29 @@
       <c r="G2">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I2" s="2">
+        <v>42807</v>
+      </c>
+      <c r="J2">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>16</v>
+      </c>
+      <c r="L2">
+        <v>47</v>
+      </c>
+      <c r="M2">
+        <v>72</v>
+      </c>
+      <c r="N2">
+        <v>82</v>
+      </c>
+      <c r="O2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42777</v>
       </c>
@@ -8890,7 +10309,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42780</v>
       </c>
@@ -8913,7 +10332,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>42793</v>
       </c>

--- a/data/treatmentC.xlsx
+++ b/data/treatmentC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="2740" windowWidth="36680" windowHeight="22120" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="7380" yWindow="2740" windowWidth="36680" windowHeight="22120" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="6" r:id="rId1"/>
@@ -7971,8 +7971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8100,7 +8100,7 @@
         <v>95.5</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L22" si="1">((C3-F3)/C3)*100</f>
+        <f t="shared" ref="L3:L34" si="1">((C3-F3)/C3)*100</f>
         <v>66.002120890774123</v>
       </c>
       <c r="M3" t="s">
@@ -8891,6 +8891,9 @@
       <c r="C23">
         <v>11.761799999999999</v>
       </c>
+      <c r="F23">
+        <v>4.3139000000000003</v>
+      </c>
       <c r="G23" t="s">
         <v>350</v>
       </c>
@@ -8899,6 +8902,16 @@
       </c>
       <c r="I23" t="s">
         <v>366</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="K23">
+        <v>97</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>63.322790729310128</v>
       </c>
       <c r="M23" t="s">
         <v>87</v>
@@ -8911,6 +8924,9 @@
       <c r="C24">
         <v>14.134399999999999</v>
       </c>
+      <c r="F24">
+        <v>4.4298000000000002</v>
+      </c>
       <c r="G24" t="s">
         <v>350</v>
       </c>
@@ -8919,6 +8935,16 @@
       </c>
       <c r="I24" t="s">
         <v>366</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="K24">
+        <v>97</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>68.65944079692099</v>
       </c>
       <c r="M24" t="s">
         <v>87</v>
@@ -8931,6 +8957,9 @@
       <c r="C25">
         <v>16.858000000000001</v>
       </c>
+      <c r="F25">
+        <v>5.4877000000000002</v>
+      </c>
       <c r="G25" t="s">
         <v>350</v>
       </c>
@@ -8939,6 +8968,16 @@
       </c>
       <c r="I25" t="s">
         <v>366</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="K25">
+        <v>97</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>67.447502669355799</v>
       </c>
       <c r="M25" t="s">
         <v>87</v>
@@ -8951,6 +8990,9 @@
       <c r="C26">
         <v>14.114599999999999</v>
       </c>
+      <c r="F26">
+        <v>4.7385999999999999</v>
+      </c>
       <c r="G26" t="s">
         <v>350</v>
       </c>
@@ -8959,6 +9001,16 @@
       </c>
       <c r="I26" t="s">
         <v>366</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="K26">
+        <v>97</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>66.4276706389129</v>
       </c>
       <c r="M26" t="s">
         <v>91</v>
@@ -8971,6 +9023,9 @@
       <c r="C27">
         <v>16.641200000000001</v>
       </c>
+      <c r="F27">
+        <v>5.41</v>
+      </c>
       <c r="G27" t="s">
         <v>350</v>
       </c>
@@ -8979,6 +9034,16 @@
       </c>
       <c r="I27" t="s">
         <v>366</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="K27">
+        <v>97</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>67.490325216931467</v>
       </c>
       <c r="M27" t="s">
         <v>91</v>
@@ -8991,6 +9056,9 @@
       <c r="C28">
         <v>11.506</v>
       </c>
+      <c r="F28">
+        <v>4.1604999999999999</v>
+      </c>
       <c r="G28" t="s">
         <v>350</v>
       </c>
@@ -8999,6 +9067,16 @@
       </c>
       <c r="I28" t="s">
         <v>366</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="K28">
+        <v>97</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>63.840604901790378</v>
       </c>
       <c r="M28" t="s">
         <v>87</v>
@@ -9011,6 +9089,9 @@
       <c r="C29">
         <v>12.675000000000001</v>
       </c>
+      <c r="F29">
+        <v>4.7146100000000004</v>
+      </c>
       <c r="G29" t="s">
         <v>350</v>
       </c>
@@ -9019,6 +9100,16 @@
       </c>
       <c r="I29" t="s">
         <v>366</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="K29">
+        <v>97</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>62.803865877712028</v>
       </c>
       <c r="M29" t="s">
         <v>5</v>
@@ -9031,6 +9122,9 @@
       <c r="C30">
         <v>13.179399999999999</v>
       </c>
+      <c r="F30">
+        <v>4.9550000000000001</v>
+      </c>
       <c r="G30" t="s">
         <v>350</v>
       </c>
@@ -9039,6 +9133,16 @@
       </c>
       <c r="I30" t="s">
         <v>366</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="K30">
+        <v>97</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>62.40344780490765</v>
       </c>
       <c r="M30" t="s">
         <v>5</v>
@@ -9051,6 +9155,9 @@
       <c r="C31">
         <v>12.836</v>
       </c>
+      <c r="F31">
+        <v>4.4400000000000004</v>
+      </c>
       <c r="G31" t="s">
         <v>350</v>
       </c>
@@ -9059,6 +9166,16 @@
       </c>
       <c r="I31" t="s">
         <v>366</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="K31">
+        <v>97</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>65.409784979744472</v>
       </c>
       <c r="M31" t="s">
         <v>91</v>
@@ -9071,6 +9188,9 @@
       <c r="C32">
         <v>14.662000000000001</v>
       </c>
+      <c r="F32">
+        <v>5.4114000000000004</v>
+      </c>
       <c r="G32" t="s">
         <v>350</v>
       </c>
@@ -9079,6 +9199,16 @@
       </c>
       <c r="I32" t="s">
         <v>366</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="K32">
+        <v>97</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>63.092347565134354</v>
       </c>
       <c r="M32" t="s">
         <v>5</v>
@@ -9091,6 +9221,9 @@
       <c r="C33">
         <v>13.368600000000001</v>
       </c>
+      <c r="F33">
+        <v>5.1678800000000003</v>
+      </c>
       <c r="G33" t="s">
         <v>350</v>
       </c>
@@ -9099,6 +9232,16 @@
       </c>
       <c r="I33" t="s">
         <v>366</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="K33">
+        <v>97</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>61.343147375192622</v>
       </c>
       <c r="M33" t="s">
         <v>5</v>
@@ -9111,6 +9254,9 @@
       <c r="C34">
         <v>11.9596</v>
       </c>
+      <c r="F34">
+        <v>4.8579999999999997</v>
+      </c>
       <c r="G34" t="s">
         <v>350</v>
       </c>
@@ -9119,6 +9265,16 @@
       </c>
       <c r="I34" t="s">
         <v>366</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="K34">
+        <v>97</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>59.37991237165123</v>
       </c>
       <c r="M34" t="s">
         <v>5</v>
@@ -9136,7 +9292,7 @@
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>

--- a/data/treatmentC.xlsx
+++ b/data/treatmentC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="2740" windowWidth="36680" windowHeight="22120" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="9400" yWindow="2300" windowWidth="36680" windowHeight="22120" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="391">
   <si>
     <t>OLD</t>
   </si>
@@ -1205,6 +1205,12 @@
   </si>
   <si>
     <t>BBCH 13.MAR (SPRAY APHIDS TOMORROW)</t>
+  </si>
+  <si>
+    <t>16.MAR</t>
+  </si>
+  <si>
+    <t>BBCH 16.MAR</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +1751,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="P104" sqref="P104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1804,7 +1810,7 @@
         <v>388</v>
       </c>
       <c r="P1" t="s">
-        <v>211</v>
+        <v>390</v>
       </c>
       <c r="Q1" t="s">
         <v>211</v>
@@ -1842,6 +1848,9 @@
       <c r="O2" s="1">
         <v>11</v>
       </c>
+      <c r="P2" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1875,6 +1884,9 @@
       <c r="O3">
         <v>10</v>
       </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1908,6 +1920,9 @@
       <c r="O4">
         <v>10</v>
       </c>
+      <c r="P4">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1927,6 +1942,9 @@
       </c>
       <c r="I5" s="7"/>
       <c r="L5" s="1"/>
+      <c r="P5">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1954,6 +1972,9 @@
       <c r="O6">
         <v>9</v>
       </c>
+      <c r="P6">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1976,6 +1997,9 @@
       </c>
       <c r="I7" s="7"/>
       <c r="L7" s="1"/>
+      <c r="P7">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2055,6 +2079,9 @@
       <c r="O10">
         <v>11</v>
       </c>
+      <c r="P10">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2085,6 +2112,9 @@
       <c r="O11">
         <v>13</v>
       </c>
+      <c r="P11" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2113,6 +2143,9 @@
       <c r="O12">
         <v>10</v>
       </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2141,6 +2174,9 @@
       <c r="O13">
         <v>10</v>
       </c>
+      <c r="P13">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -2171,6 +2207,9 @@
       <c r="O14">
         <v>14</v>
       </c>
+      <c r="P14" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2196,6 +2235,9 @@
       <c r="O15">
         <v>9</v>
       </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -2224,8 +2266,11 @@
       <c r="O16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2252,8 +2297,11 @@
       <c r="O17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2277,8 +2325,11 @@
       <c r="O18">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -2297,7 +2348,7 @@
       <c r="I19" s="7"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -2326,8 +2377,11 @@
       <c r="N20" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2346,7 +2400,7 @@
       <c r="I21" s="7"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -2365,7 +2419,7 @@
       <c r="I22" s="7"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>125</v>
       </c>
@@ -2383,8 +2437,11 @@
       </c>
       <c r="I23" s="7"/>
       <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -2411,8 +2468,11 @@
       <c r="O24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -2439,7 +2499,7 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2461,7 +2521,7 @@
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -2498,8 +2558,11 @@
       <c r="O27" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2521,7 +2584,7 @@
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -2561,8 +2624,11 @@
       <c r="O29">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2595,7 +2661,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>158</v>
       </c>
@@ -2614,7 +2680,7 @@
       <c r="I31" s="7"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -2652,8 +2718,11 @@
       <c r="O32" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -2688,8 +2757,11 @@
       <c r="O33">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -2724,8 +2796,11 @@
       <c r="O34" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -2752,8 +2827,11 @@
       <c r="O35">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -2780,8 +2858,11 @@
       <c r="O36">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2800,7 +2881,7 @@
       <c r="I37" s="7"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2819,7 +2900,7 @@
       <c r="I38" s="7"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2843,8 +2924,11 @@
       <c r="O39">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -2865,8 +2949,11 @@
       </c>
       <c r="I40" s="7"/>
       <c r="L40" s="1"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>3</v>
       </c>
@@ -2895,8 +2982,11 @@
       <c r="O41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -2915,7 +3005,7 @@
       <c r="I42" s="7"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -2935,8 +3025,11 @@
       <c r="L43" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -2957,8 +3050,11 @@
       <c r="O44">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -2977,7 +3073,7 @@
       <c r="I45" s="7"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -3009,8 +3105,11 @@
       <c r="O46">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -3028,8 +3127,11 @@
       </c>
       <c r="I47" s="7"/>
       <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -3048,7 +3150,7 @@
       <c r="I48" s="7"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>14</v>
       </c>
@@ -3080,8 +3182,11 @@
       <c r="O49">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>14</v>
       </c>
@@ -3110,8 +3215,11 @@
       <c r="O50">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>14</v>
       </c>
@@ -3140,8 +3248,11 @@
       <c r="O51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -3168,8 +3279,11 @@
       <c r="O52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>23</v>
       </c>
@@ -3198,8 +3312,11 @@
       <c r="O53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -3221,7 +3338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>41</v>
       </c>
@@ -3248,8 +3365,11 @@
       <c r="O55">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>125</v>
       </c>
@@ -3273,8 +3393,11 @@
       <c r="O56">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>125</v>
       </c>
@@ -3296,7 +3419,7 @@
       <c r="I57" s="7"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -3321,7 +3444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -3340,7 +3463,7 @@
       <c r="I59" s="7"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>149</v>
       </c>
@@ -3369,8 +3492,11 @@
       <c r="O60">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>144</v>
       </c>
@@ -3405,8 +3531,11 @@
       <c r="O61">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>144</v>
       </c>
@@ -3438,8 +3567,11 @@
       <c r="O62">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>43</v>
       </c>
@@ -3474,8 +3606,11 @@
       <c r="O63">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P63" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>43</v>
       </c>
@@ -3510,8 +3645,11 @@
       <c r="O64">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P64" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>43</v>
       </c>
@@ -3543,8 +3681,11 @@
       <c r="O65" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P65" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>142</v>
       </c>
@@ -3587,8 +3728,11 @@
       <c r="O66" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P66" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>158</v>
       </c>
@@ -3607,7 +3751,7 @@
       <c r="I67" s="7"/>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>171</v>
       </c>
@@ -3642,8 +3786,11 @@
       <c r="O68">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>61</v>
       </c>
@@ -3675,8 +3822,11 @@
       <c r="O69">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>61</v>
       </c>
@@ -3719,8 +3869,11 @@
       <c r="O70">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>57</v>
       </c>
@@ -3755,8 +3908,11 @@
       <c r="O71">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>78</v>
       </c>
@@ -3794,8 +3950,11 @@
       <c r="O72" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P72" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>70</v>
       </c>
@@ -3832,8 +3991,11 @@
       <c r="O73" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P73" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>67</v>
       </c>
@@ -3871,8 +4033,11 @@
       <c r="O74" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P74" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>73</v>
       </c>
@@ -3904,8 +4069,11 @@
       <c r="O75" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P75" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>83</v>
       </c>
@@ -3943,8 +4111,11 @@
       <c r="O76">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>66</v>
       </c>
@@ -3985,8 +4156,11 @@
       <c r="O77">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P77" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -4012,8 +4186,11 @@
       <c r="O78">
         <v>10</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>21</v>
       </c>
@@ -4047,8 +4224,11 @@
       <c r="O79" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P79" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>21</v>
       </c>
@@ -4072,7 +4252,7 @@
       </c>
       <c r="M80" s="6"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -4095,8 +4275,11 @@
         <v>5</v>
       </c>
       <c r="M81" s="6"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>19</v>
       </c>
@@ -4127,8 +4310,11 @@
       <c r="O82">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>28</v>
       </c>
@@ -4151,8 +4337,11 @@
         <v>2</v>
       </c>
       <c r="M83" s="6"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -4175,8 +4364,11 @@
         <v>9</v>
       </c>
       <c r="M84" s="6"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P84">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>14</v>
       </c>
@@ -4213,8 +4405,11 @@
       <c r="O85" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -4248,8 +4443,11 @@
       <c r="O86">
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P86">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>14</v>
       </c>
@@ -4283,8 +4481,11 @@
       <c r="O87">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P87" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>23</v>
       </c>
@@ -4315,8 +4516,11 @@
       <c r="O88">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>23</v>
       </c>
@@ -4347,8 +4551,11 @@
       <c r="O89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>23</v>
       </c>
@@ -4376,8 +4583,11 @@
       <c r="O90">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>31</v>
       </c>
@@ -4408,8 +4618,11 @@
       <c r="O91">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>39</v>
       </c>
@@ -4437,8 +4650,11 @@
       <c r="O92">
         <v>12</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P92">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>41</v>
       </c>
@@ -4458,8 +4674,11 @@
         <v>8</v>
       </c>
       <c r="M93" s="6"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>33</v>
       </c>
@@ -4480,7 +4699,7 @@
       </c>
       <c r="M94" s="6"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>37</v>
       </c>
@@ -4501,7 +4720,7 @@
       </c>
       <c r="M95" s="6"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>36</v>
       </c>
@@ -4522,7 +4741,7 @@
       </c>
       <c r="M96" s="6"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>52</v>
       </c>
@@ -4543,7 +4762,7 @@
       </c>
       <c r="M97" s="6"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>49</v>
       </c>
@@ -4577,8 +4796,11 @@
       <c r="O98">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P98" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>49</v>
       </c>
@@ -4599,7 +4821,7 @@
       </c>
       <c r="M99" s="6"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>43</v>
       </c>
@@ -4639,8 +4861,11 @@
       <c r="O100">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P100" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>45</v>
       </c>
@@ -4680,8 +4905,11 @@
       <c r="O101">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P101" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>55</v>
       </c>
@@ -4705,7 +4933,7 @@
       </c>
       <c r="M102" s="6"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>63</v>
       </c>
@@ -4742,8 +4970,11 @@
       <c r="O103" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>139</v>
       </c>
@@ -4776,7 +5007,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>144</v>
       </c>
@@ -4806,7 +5037,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>43</v>
       </c>
@@ -4839,7 +5070,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>142</v>
       </c>
@@ -4875,7 +5106,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>59</v>
       </c>
@@ -4911,7 +5142,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>162</v>
       </c>
@@ -4946,7 +5177,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>162</v>
       </c>
@@ -4981,7 +5212,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>61</v>
       </c>
@@ -5016,7 +5247,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>170</v>
       </c>
@@ -7969,10 +8200,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9277,6 +9508,215 @@
         <v>59.37991237165123</v>
       </c>
       <c r="M34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35">
+        <v>10.462999999999999</v>
+      </c>
+      <c r="G35" t="s">
+        <v>389</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="M35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36">
+        <v>11.1843</v>
+      </c>
+      <c r="G36" t="s">
+        <v>389</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="M36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37">
+        <v>15.006</v>
+      </c>
+      <c r="G37" t="s">
+        <v>389</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="M37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38">
+        <v>10.292</v>
+      </c>
+      <c r="G38" t="s">
+        <v>389</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="M38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39">
+        <v>12.579000000000001</v>
+      </c>
+      <c r="G39" t="s">
+        <v>389</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="M39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40">
+        <v>10.513999999999999</v>
+      </c>
+      <c r="G40" t="s">
+        <v>389</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="M40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>16.417000000000002</v>
+      </c>
+      <c r="G41" t="s">
+        <v>389</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="M41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42">
+        <v>17.248999999999999</v>
+      </c>
+      <c r="G42" t="s">
+        <v>389</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="M42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43">
+        <v>14.356</v>
+      </c>
+      <c r="G43" t="s">
+        <v>389</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="M43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44">
+        <v>14.18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>389</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="M44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45">
+        <v>12.242000000000001</v>
+      </c>
+      <c r="G45" t="s">
+        <v>389</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="M45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46">
+        <v>13.225</v>
+      </c>
+      <c r="G46" t="s">
+        <v>389</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="M46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M47" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9292,8 +9732,8 @@
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9350,6 +9790,9 @@
       <c r="G2">
         <v>9</v>
       </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -9373,6 +9816,9 @@
       <c r="G3">
         <v>10</v>
       </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -9390,6 +9836,9 @@
       <c r="G4">
         <v>9</v>
       </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -9413,6 +9862,9 @@
       <c r="G5">
         <v>11</v>
       </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -9447,6 +9899,9 @@
       <c r="G7">
         <v>11</v>
       </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -9470,6 +9925,9 @@
       <c r="G8">
         <v>10</v>
       </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -9487,6 +9945,9 @@
       <c r="G9">
         <v>10</v>
       </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -9510,6 +9971,9 @@
       <c r="G10">
         <v>10</v>
       </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -9533,6 +9997,9 @@
       <c r="G11">
         <v>10</v>
       </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -9550,6 +10017,9 @@
       <c r="G12">
         <v>9</v>
       </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -9573,6 +10043,9 @@
       <c r="G13">
         <v>10</v>
       </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -9596,6 +10069,9 @@
       <c r="G14">
         <v>10</v>
       </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -9613,6 +10089,9 @@
       <c r="G15">
         <v>9</v>
       </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -9630,8 +10109,11 @@
       <c r="G16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>294</v>
       </c>
@@ -9653,8 +10135,11 @@
       <c r="G17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>294</v>
       </c>
@@ -9670,8 +10155,11 @@
       <c r="G18">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>294</v>
       </c>
@@ -9687,8 +10175,11 @@
       <c r="G19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>312</v>
       </c>
@@ -9699,7 +10190,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>312</v>
       </c>
@@ -9712,8 +10203,11 @@
       <c r="G21">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>312</v>
       </c>
@@ -9729,8 +10223,11 @@
       <c r="G22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>312</v>
       </c>
@@ -9743,8 +10240,11 @@
       <c r="G23">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>312</v>
       </c>
@@ -9757,8 +10257,11 @@
       <c r="G24">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>313</v>
       </c>
@@ -9777,8 +10280,11 @@
       <c r="G25">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>313</v>
       </c>
@@ -9797,8 +10303,11 @@
       <c r="G26">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>313</v>
       </c>
@@ -9820,8 +10329,11 @@
       <c r="G27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>313</v>
       </c>
@@ -9835,7 +10347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>313</v>
       </c>
@@ -9851,8 +10363,11 @@
       <c r="G29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>313</v>
       </c>
@@ -9863,7 +10378,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>313</v>
       </c>
@@ -9874,7 +10389,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>313</v>
       </c>
@@ -9893,8 +10408,11 @@
       <c r="G32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>313</v>
       </c>
@@ -9913,8 +10431,11 @@
       <c r="G33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>328</v>
       </c>
@@ -9928,7 +10449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>328</v>
       </c>
@@ -9947,8 +10468,11 @@
       <c r="G35">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>328</v>
       </c>
@@ -9967,8 +10491,11 @@
       <c r="G36">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>328</v>
       </c>
@@ -9984,8 +10511,11 @@
       <c r="G37">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>328</v>
       </c>
@@ -9996,7 +10526,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>328</v>
       </c>
@@ -10018,8 +10548,11 @@
       <c r="G39">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>328</v>
       </c>
@@ -10041,8 +10574,11 @@
       <c r="G40">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>328</v>
       </c>
@@ -10053,7 +10589,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>329</v>
       </c>
@@ -10064,7 +10600,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>329</v>
       </c>
@@ -10080,8 +10616,11 @@
       <c r="G43">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>329</v>
       </c>
@@ -10103,8 +10642,11 @@
       <c r="G44">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>329</v>
       </c>
@@ -10126,8 +10668,11 @@
       <c r="G45">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>329</v>
       </c>
@@ -10143,8 +10688,11 @@
       <c r="G46">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>329</v>
       </c>
@@ -10160,8 +10708,11 @@
       <c r="G47">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>329</v>
       </c>
@@ -10172,7 +10723,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>330</v>
       </c>
@@ -10192,6 +10743,9 @@
         <v>10</v>
       </c>
       <c r="G49">
+        <v>10</v>
+      </c>
+      <c r="H49">
         <v>10</v>
       </c>
     </row>

--- a/data/treatmentC.xlsx
+++ b/data/treatmentC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9400" yWindow="2300" windowWidth="36680" windowHeight="22120" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="9400" yWindow="2300" windowWidth="36680" windowHeight="22120" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="407">
   <si>
     <t>OLD</t>
   </si>
@@ -1251,6 +1251,15 @@
   </si>
   <si>
     <t>20/3/17</t>
+  </si>
+  <si>
+    <t>21/3/17</t>
+  </si>
+  <si>
+    <t>BBCH 21.MAR</t>
+  </si>
+  <si>
+    <t>21.MAR</t>
   </si>
 </sst>
 </file>
@@ -1790,11 +1799,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q149"/>
+  <dimension ref="A1:R149"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:Q1048576"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1805,7 +1814,7 @@
     <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1857,8 +1866,11 @@
       <c r="Q1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1897,7 +1909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1936,7 +1948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1961,7 +1973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1994,7 +2006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2022,7 +2034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2044,7 +2056,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -2074,7 +2086,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2108,7 +2120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -2142,7 +2154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2173,7 +2185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2207,7 +2219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2241,7 +2253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2272,7 +2284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -2294,7 +2306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -2330,7 +2342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2350,7 +2362,7 @@
       <c r="L17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -2370,7 +2382,7 @@
       <c r="L18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>125</v>
       </c>
@@ -2395,7 +2407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2429,7 +2441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -2457,7 +2469,7 @@
       <c r="L21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2480,7 +2492,7 @@
       <c r="L22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -2503,7 +2515,7 @@
       <c r="L23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -2550,7 +2562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>158</v>
       </c>
@@ -2572,7 +2584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2605,8 +2617,11 @@
       <c r="Q26" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>6</v>
       </c>
@@ -2640,7 +2655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2660,7 +2675,7 @@
       <c r="L28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2682,7 +2697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2713,7 +2728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2741,7 +2756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>3</v>
       </c>
@@ -2776,8 +2791,11 @@
       <c r="Q32" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -2798,8 +2816,11 @@
       <c r="Q33" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
@@ -2826,7 +2847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
@@ -2854,7 +2875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -2874,7 +2895,7 @@
       <c r="L36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -2913,7 +2934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>100</v>
       </c>
@@ -2937,8 +2958,11 @@
       <c r="Q38" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -2960,7 +2984,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>14</v>
       </c>
@@ -2999,7 +3023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>14</v>
       </c>
@@ -3035,7 +3059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>23</v>
       </c>
@@ -3069,7 +3093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3091,8 +3115,11 @@
         <v>9</v>
       </c>
       <c r="Q43" s="1"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>41</v>
       </c>
@@ -3126,7 +3153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>125</v>
       </c>
@@ -3149,7 +3176,7 @@
       <c r="L45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -3172,7 +3199,7 @@
       <c r="L46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -3198,7 +3225,7 @@
       </c>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -3218,7 +3245,7 @@
       <c r="L48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>149</v>
       </c>
@@ -3254,7 +3281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>144</v>
       </c>
@@ -3296,7 +3323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>144</v>
       </c>
@@ -3335,7 +3362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -3355,7 +3382,7 @@
       <c r="L52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>171</v>
       </c>
@@ -3397,7 +3424,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>61</v>
       </c>
@@ -3436,7 +3463,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>57</v>
       </c>
@@ -3478,7 +3505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -3510,8 +3537,11 @@
       <c r="Q56">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -3538,7 +3568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>12</v>
       </c>
@@ -3567,8 +3597,11 @@
       <c r="Q58">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>19</v>
       </c>
@@ -3605,8 +3638,11 @@
       <c r="Q59">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>28</v>
       </c>
@@ -3636,7 +3672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>16</v>
       </c>
@@ -3666,7 +3702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>14</v>
       </c>
@@ -3710,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>14</v>
       </c>
@@ -3751,7 +3787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>14</v>
       </c>
@@ -3792,7 +3828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>23</v>
       </c>
@@ -3830,7 +3866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>23</v>
       </c>
@@ -3868,7 +3904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>23</v>
       </c>
@@ -3903,7 +3939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -3928,8 +3964,11 @@
       <c r="M68" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>39</v>
       </c>
@@ -3964,7 +4003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>41</v>
       </c>
@@ -3991,7 +4030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -4012,7 +4051,7 @@
       </c>
       <c r="M71" s="6"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>37</v>
       </c>
@@ -4033,7 +4072,7 @@
       </c>
       <c r="M72" s="6"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -4054,7 +4093,7 @@
       </c>
       <c r="M73" s="6"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>52</v>
       </c>
@@ -4075,7 +4114,7 @@
       </c>
       <c r="M74" s="6"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>49</v>
       </c>
@@ -4096,7 +4135,7 @@
       </c>
       <c r="M75" s="6"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>55</v>
       </c>
@@ -4120,7 +4159,7 @@
       </c>
       <c r="M76" s="6"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>63</v>
       </c>
@@ -4163,8 +4202,11 @@
       <c r="Q77">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R77">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -4203,7 +4245,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -4242,7 +4284,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -5437,7 +5479,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>43</v>
       </c>
@@ -5477,7 +5519,7 @@
       </c>
       <c r="Q113" s="1"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>43</v>
       </c>
@@ -5517,7 +5559,7 @@
       </c>
       <c r="Q114" s="1"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>43</v>
       </c>
@@ -5554,7 +5596,7 @@
       </c>
       <c r="Q115" s="1"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>142</v>
       </c>
@@ -5602,7 +5644,7 @@
       </c>
       <c r="Q116" s="1"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>142</v>
       </c>
@@ -5639,8 +5681,11 @@
       <c r="N117" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R117">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>61</v>
       </c>
@@ -5675,7 +5720,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
         <v>61</v>
       </c>
@@ -5711,7 +5756,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>61</v>
       </c>
@@ -5761,7 +5806,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>170</v>
       </c>
@@ -5799,7 +5844,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>78</v>
       </c>
@@ -5835,7 +5880,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>70</v>
       </c>
@@ -5868,7 +5913,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>67</v>
       </c>
@@ -5907,7 +5952,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>177</v>
       </c>
@@ -5943,7 +5988,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>177</v>
       </c>
@@ -5976,7 +6021,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>73</v>
       </c>
@@ -6009,7 +6054,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>73</v>
       </c>
@@ -6872,10 +6917,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:N149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6884,7 +6929,7 @@
     <col min="9" max="9" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6924,8 +6969,11 @@
       <c r="M1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -6955,7 +7003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -6982,7 +7030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -6998,7 +7046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -7022,7 +7070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -7038,7 +7086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -7051,7 +7099,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -7072,7 +7120,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -7097,40 +7145,40 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
         <v>87</v>
       </c>
       <c r="E10" s="7"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1">
-        <v>10</v>
-      </c>
       <c r="J10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M10" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
         <v>87</v>
       </c>
       <c r="E11" s="7"/>
       <c r="H11" s="1"/>
+      <c r="I11" s="1">
+        <v>9</v>
+      </c>
       <c r="J11">
         <v>9</v>
       </c>
@@ -7138,15 +7186,15 @@
         <v>9</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M11" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
         <v>87</v>
@@ -7166,21 +7214,18 @@
         <v>9</v>
       </c>
       <c r="M12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
         <v>87</v>
       </c>
       <c r="E13" s="7"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1">
-        <v>9</v>
-      </c>
       <c r="J13">
         <v>9</v>
       </c>
@@ -7188,77 +7233,66 @@
         <v>9</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M13" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
         <v>87</v>
       </c>
       <c r="E14" s="7"/>
       <c r="H14" s="1"/>
-      <c r="J14">
-        <v>9</v>
-      </c>
-      <c r="K14">
-        <v>9</v>
-      </c>
-      <c r="L14">
-        <v>10</v>
-      </c>
       <c r="M14" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
         <v>87</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="H15" s="1"/>
+      <c r="G15" t="s">
+        <v>283</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J15" t="s">
+        <v>352</v>
+      </c>
+      <c r="L15">
+        <v>9</v>
+      </c>
       <c r="M15" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
         <v>87</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="G16" t="s">
-        <v>283</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="J16" t="s">
-        <v>352</v>
-      </c>
-      <c r="L16">
-        <v>9</v>
-      </c>
-      <c r="M16" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
         <v>87</v>
@@ -7267,474 +7301,500 @@
       <c r="H17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="7"/>
       <c r="H18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>9</v>
+      </c>
+      <c r="M18" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
       </c>
       <c r="E19" s="7"/>
       <c r="H19" s="1"/>
+      <c r="I19" s="1">
+        <v>9</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
       <c r="L19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M19" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20" s="7">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1">
-        <v>9</v>
-      </c>
-      <c r="J20">
-        <v>10</v>
-      </c>
-      <c r="K20">
-        <v>10</v>
-      </c>
-      <c r="L20">
-        <v>11</v>
-      </c>
-      <c r="M20" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
         <v>87</v>
       </c>
-      <c r="D21">
-        <v>9</v>
-      </c>
-      <c r="E21" s="7">
-        <v>9</v>
-      </c>
+      <c r="E21" s="7"/>
       <c r="F21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="B22" t="s">
         <v>87</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B23" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23" s="7">
+        <v>11</v>
+      </c>
       <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="H23" s="1">
+        <v>9</v>
+      </c>
+      <c r="I23" s="1">
+        <v>9</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>9</v>
+      </c>
+      <c r="L23">
+        <v>9</v>
+      </c>
+      <c r="M23" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s">
         <v>87</v>
       </c>
-      <c r="C24">
-        <v>9</v>
-      </c>
-      <c r="D24">
-        <v>9</v>
-      </c>
-      <c r="E24" s="7">
-        <v>11</v>
-      </c>
-      <c r="F24">
-        <v>15</v>
-      </c>
-      <c r="H24" s="1">
-        <v>9</v>
-      </c>
-      <c r="I24" s="1">
-        <v>9</v>
-      </c>
-      <c r="J24">
-        <v>9</v>
-      </c>
-      <c r="K24">
-        <v>9</v>
-      </c>
-      <c r="L24">
-        <v>9</v>
-      </c>
+      <c r="E24" s="7"/>
+      <c r="H24" s="1"/>
       <c r="M24" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E25" s="7"/>
+      <c r="F25" s="4">
+        <v>4</v>
+      </c>
       <c r="H25" s="1"/>
+      <c r="J25">
+        <v>9</v>
+      </c>
+      <c r="K25">
+        <v>9</v>
+      </c>
+      <c r="L25">
+        <v>9</v>
+      </c>
       <c r="M25" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H26" s="1"/>
       <c r="J26">
         <v>9</v>
       </c>
       <c r="K26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M26" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s">
         <v>91</v>
       </c>
       <c r="E27" s="7"/>
-      <c r="F27" s="4">
-        <v>3</v>
-      </c>
       <c r="H27" s="1"/>
-      <c r="J27">
-        <v>9</v>
-      </c>
-      <c r="K27">
-        <v>10</v>
-      </c>
-      <c r="L27">
-        <v>11</v>
-      </c>
-      <c r="M27" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
         <v>91</v>
       </c>
       <c r="E28" s="7"/>
       <c r="H28" s="1"/>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
         <v>91</v>
       </c>
       <c r="E29" s="7"/>
       <c r="H29" s="1"/>
+      <c r="K29">
+        <v>9</v>
+      </c>
+      <c r="L29">
+        <v>9</v>
+      </c>
       <c r="M29" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="7"/>
       <c r="H30" s="1"/>
-      <c r="K30">
-        <v>9</v>
-      </c>
       <c r="L30">
         <v>9</v>
       </c>
       <c r="M30" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="H31" s="1">
+        <v>9</v>
+      </c>
+      <c r="I31" s="1">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="H32" s="1"/>
+      <c r="M32" s="1">
         <v>11</v>
       </c>
-      <c r="B31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="H31" s="1"/>
-      <c r="L31">
-        <v>9</v>
-      </c>
-      <c r="M31" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="H32" s="1">
-        <v>9</v>
-      </c>
-      <c r="I32" s="1">
-        <v>10</v>
-      </c>
-      <c r="J32">
-        <v>2</v>
-      </c>
-      <c r="K32">
+      <c r="N32">
         <v>3</v>
       </c>
-      <c r="L32">
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="H33" s="1">
+        <v>9</v>
+      </c>
+      <c r="L33">
+        <v>9</v>
+      </c>
+      <c r="M33" s="1">
+        <v>12</v>
+      </c>
+      <c r="N33">
         <v>3</v>
       </c>
-      <c r="M32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="H33" s="1"/>
-      <c r="M33" s="1">
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="H34" s="1"/>
+      <c r="K34">
+        <v>9</v>
+      </c>
+      <c r="L34">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="H34" s="1">
-        <v>9</v>
-      </c>
-      <c r="L34">
-        <v>9</v>
-      </c>
       <c r="M34" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" t="s">
         <v>91</v>
       </c>
       <c r="E35" s="7"/>
       <c r="H35" s="1"/>
-      <c r="K35">
-        <v>9</v>
-      </c>
-      <c r="L35">
-        <v>11</v>
-      </c>
-      <c r="M35" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="B36" t="s">
         <v>91</v>
       </c>
       <c r="E36" s="7"/>
-      <c r="H36" s="1"/>
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>209</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="G36" t="s">
+        <v>284</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J36" t="s">
+        <v>358</v>
+      </c>
+      <c r="K36">
+        <v>9</v>
+      </c>
+      <c r="L36">
+        <v>10</v>
+      </c>
+      <c r="M36" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="G37" t="s">
-        <v>284</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="J37" t="s">
-        <v>358</v>
-      </c>
-      <c r="K37">
-        <v>9</v>
-      </c>
+      <c r="H37" s="1"/>
       <c r="L37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M37" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" t="s">
         <v>91</v>
       </c>
       <c r="E38" s="7"/>
       <c r="H38" s="1"/>
-      <c r="L38">
-        <v>9</v>
-      </c>
-      <c r="M38" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="7"/>
+      <c r="M38" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="7">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
       <c r="H39" s="1"/>
-      <c r="M39" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I39" s="1">
+        <v>9</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="7">
-        <v>9</v>
-      </c>
-      <c r="F40">
-        <v>10</v>
-      </c>
-      <c r="H40" s="1"/>
+      <c r="E40" s="7"/>
+      <c r="H40" s="1">
+        <v>9</v>
+      </c>
       <c r="I40" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K40">
         <v>4</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M40" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E41" s="7"/>
-      <c r="H41" s="1">
-        <v>9</v>
-      </c>
+      <c r="H41" s="1"/>
       <c r="I41" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K41">
         <v>4</v>
       </c>
       <c r="L41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M41" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
         <v>91</v>
       </c>
       <c r="E42" s="7"/>
@@ -7742,24 +7802,13 @@
       <c r="I42" s="1">
         <v>9</v>
       </c>
-      <c r="J42">
-        <v>3</v>
-      </c>
-      <c r="K42">
-        <v>4</v>
-      </c>
-      <c r="L42">
-        <v>3</v>
-      </c>
-      <c r="M42" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>135</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E43" s="7"/>
@@ -7767,36 +7816,39 @@
       <c r="I43" s="1">
         <v>9</v>
       </c>
-      <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>91</v>
+      <c r="J43">
+        <v>9</v>
+      </c>
+      <c r="K43">
+        <v>9</v>
+      </c>
+      <c r="L43">
+        <v>9</v>
+      </c>
+      <c r="M43" s="1">
+        <v>12</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
       </c>
       <c r="E44" s="7"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1">
-        <v>9</v>
-      </c>
-      <c r="J44">
-        <v>9</v>
-      </c>
-      <c r="K44">
-        <v>9</v>
-      </c>
-      <c r="L44">
-        <v>9</v>
-      </c>
-      <c r="M44" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B45" t="s">
         <v>91</v>
@@ -7808,9 +7860,9 @@
       <c r="H45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B46" t="s">
         <v>91</v>
@@ -7820,76 +7872,92 @@
       </c>
       <c r="E46" s="7"/>
       <c r="H46" s="1"/>
+      <c r="J46">
+        <v>9</v>
+      </c>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
         <v>91</v>
-      </c>
-      <c r="D47">
-        <v>9</v>
       </c>
       <c r="E47" s="7"/>
       <c r="H47" s="1"/>
-      <c r="J47">
-        <v>9</v>
-      </c>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>134</v>
-      </c>
-      <c r="B48" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="7"/>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="7">
+        <v>9</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
       <c r="H48" s="1"/>
-      <c r="M48" s="1"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <v>9</v>
+      </c>
+      <c r="K48">
+        <v>10</v>
+      </c>
+      <c r="L48">
+        <v>12</v>
+      </c>
+      <c r="M48" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="7">
-        <v>9</v>
-      </c>
+      <c r="E49" s="7"/>
       <c r="F49">
-        <v>10</v>
-      </c>
-      <c r="H49" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>9</v>
+      </c>
+      <c r="H49" s="1">
+        <v>9</v>
+      </c>
+      <c r="I49" s="1">
+        <v>4</v>
+      </c>
       <c r="J49">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K49">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L49">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M49" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E50" s="7"/>
-      <c r="F50">
-        <v>9</v>
-      </c>
-      <c r="G50">
-        <v>9</v>
+      <c r="F50" t="s">
+        <v>265</v>
       </c>
       <c r="H50" s="1">
         <v>9</v>
@@ -7898,70 +7966,70 @@
         <v>4</v>
       </c>
       <c r="J50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M50" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B51" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" t="s">
         <v>91</v>
       </c>
       <c r="E51" s="7"/>
-      <c r="F51" t="s">
-        <v>265</v>
-      </c>
-      <c r="H51" s="1">
-        <v>9</v>
-      </c>
-      <c r="I51" s="1">
+      <c r="H51" s="1"/>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>9</v>
+      </c>
+      <c r="H52" s="1">
+        <v>9</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
         <v>4</v>
       </c>
-      <c r="J51">
-        <v>4</v>
-      </c>
-      <c r="K51">
-        <v>3</v>
-      </c>
-      <c r="L51">
-        <v>4</v>
-      </c>
-      <c r="M51" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>160</v>
-      </c>
-      <c r="B52" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="H52" s="1"/>
-      <c r="M52" s="1"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L52">
+        <v>5</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E53" s="7"/>
-      <c r="F53">
-        <v>9</v>
-      </c>
       <c r="G53">
         <v>9</v>
       </c>
@@ -7972,10 +8040,10 @@
         <v>362</v>
       </c>
       <c r="J53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L53">
         <v>5</v>
@@ -7984,494 +8052,501 @@
         <v>394</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="G54">
-        <v>9</v>
-      </c>
-      <c r="H54" s="1">
-        <v>9</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="J54">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="4">
+        <v>5</v>
+      </c>
+      <c r="I54" s="6"/>
+      <c r="K54">
+        <v>10</v>
+      </c>
+      <c r="L54">
+        <v>10</v>
+      </c>
+      <c r="M54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="4">
+        <v>4</v>
+      </c>
+      <c r="I55" s="6"/>
+      <c r="M55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="4">
+        <v>5</v>
+      </c>
+      <c r="I56" s="6"/>
+      <c r="L56">
+        <v>9</v>
+      </c>
+      <c r="M56">
+        <v>12</v>
+      </c>
+      <c r="N56">
         <v>3</v>
       </c>
-      <c r="K54">
-        <v>5</v>
-      </c>
-      <c r="L54">
-        <v>5</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="4">
-        <v>5</v>
-      </c>
-      <c r="G55">
-        <v>9</v>
-      </c>
-      <c r="H55" s="1">
-        <v>10</v>
-      </c>
-      <c r="I55" s="1">
-        <v>5</v>
-      </c>
-      <c r="J55">
-        <v>5</v>
-      </c>
-      <c r="K55">
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>9</v>
+      </c>
+      <c r="I57" s="6">
+        <v>11</v>
+      </c>
+      <c r="J57">
         <v>4</v>
       </c>
-      <c r="L55">
+      <c r="K57">
         <v>4</v>
       </c>
-      <c r="M55" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="L57">
         <v>4</v>
       </c>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="4">
-        <v>5</v>
-      </c>
-      <c r="I56" s="6"/>
-      <c r="K56">
-        <v>10</v>
-      </c>
-      <c r="L56">
-        <v>10</v>
-      </c>
-      <c r="M56">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="4">
+      <c r="M57">
         <v>4</v>
       </c>
-      <c r="I57" s="6"/>
-      <c r="M57">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F58" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I58" s="6"/>
       <c r="L58">
         <v>9</v>
       </c>
       <c r="M58">
+        <v>11</v>
+      </c>
+      <c r="N58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+      <c r="I59" s="6"/>
+      <c r="L59">
+        <v>9</v>
+      </c>
+      <c r="M59">
+        <v>13</v>
+      </c>
+      <c r="N59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" s="6">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>378</v>
+      </c>
+      <c r="K60" t="s">
+        <v>378</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>9</v>
+      </c>
+      <c r="D61">
+        <v>9</v>
+      </c>
+      <c r="I61" s="6">
+        <v>9</v>
+      </c>
+      <c r="J61">
+        <v>9</v>
+      </c>
+      <c r="K61">
+        <v>11</v>
+      </c>
+      <c r="L61">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59">
-        <v>9</v>
-      </c>
-      <c r="I59" s="6">
+      <c r="M61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="H62">
+        <v>9</v>
+      </c>
+      <c r="I62" s="6">
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <v>4</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H63" t="s">
+        <v>355</v>
+      </c>
+      <c r="I63" s="6">
+        <v>10</v>
+      </c>
+      <c r="J63">
+        <v>3</v>
+      </c>
+      <c r="K63">
+        <v>4</v>
+      </c>
+      <c r="L63">
+        <v>4</v>
+      </c>
+      <c r="M63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H64">
+        <v>9</v>
+      </c>
+      <c r="I64" s="6">
+        <v>4</v>
+      </c>
+      <c r="J64">
+        <v>5</v>
+      </c>
+      <c r="K64">
+        <v>5</v>
+      </c>
+      <c r="L64">
+        <v>5</v>
+      </c>
+      <c r="M64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I65" s="6">
         <v>11</v>
       </c>
-      <c r="J59">
+      <c r="J65">
         <v>4</v>
       </c>
-      <c r="K59">
+      <c r="K65">
+        <v>5</v>
+      </c>
+      <c r="L65">
+        <v>5</v>
+      </c>
+      <c r="M65">
         <v>4</v>
       </c>
-      <c r="L59">
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>9</v>
+      </c>
+      <c r="I66" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I67" s="6">
+        <v>10</v>
+      </c>
+      <c r="J67">
+        <v>10</v>
+      </c>
+      <c r="K67">
+        <v>12</v>
+      </c>
+      <c r="L67">
+        <v>13</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I68" s="6"/>
+      <c r="L68">
+        <v>9</v>
+      </c>
+      <c r="M68">
+        <v>12</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74">
+        <v>9</v>
+      </c>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75">
+        <v>9</v>
+      </c>
+      <c r="G75">
+        <v>9</v>
+      </c>
+      <c r="H75">
+        <v>10</v>
+      </c>
+      <c r="I75" s="6">
+        <v>3</v>
+      </c>
+      <c r="J75">
         <v>4</v>
       </c>
-      <c r="M59">
+      <c r="K75" t="s">
+        <v>385</v>
+      </c>
+      <c r="L75">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="4">
-        <v>2</v>
-      </c>
-      <c r="I60" s="6"/>
-      <c r="L60">
-        <v>9</v>
-      </c>
-      <c r="M60">
+      <c r="M75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" t="s">
+        <v>87</v>
+      </c>
+      <c r="E76" s="7"/>
+      <c r="G76">
+        <v>9</v>
+      </c>
+      <c r="H76" s="1">
+        <v>9</v>
+      </c>
+      <c r="I76" s="1">
+        <v>10</v>
+      </c>
+      <c r="J76">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61">
-        <v>9</v>
-      </c>
-      <c r="I61" s="6"/>
-      <c r="L61">
-        <v>9</v>
-      </c>
-      <c r="M61">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+      <c r="K76" s="5">
+        <v>11</v>
+      </c>
+      <c r="L76" s="5">
+        <v>14</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" t="s">
+        <v>87</v>
+      </c>
+      <c r="E77" s="7"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1">
+        <v>10</v>
+      </c>
+      <c r="J77">
+        <v>10</v>
+      </c>
+      <c r="K77">
+        <v>10</v>
+      </c>
+      <c r="L77">
+        <v>12</v>
+      </c>
+      <c r="M77" s="1">
+        <v>14</v>
+      </c>
+      <c r="N77">
         <v>15</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62">
-        <v>9</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62" s="6">
-        <v>1</v>
-      </c>
-      <c r="J62" t="s">
-        <v>378</v>
-      </c>
-      <c r="K62" t="s">
-        <v>378</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63">
-        <v>9</v>
-      </c>
-      <c r="D63">
-        <v>9</v>
-      </c>
-      <c r="I63" s="6">
-        <v>9</v>
-      </c>
-      <c r="J63">
-        <v>9</v>
-      </c>
-      <c r="K63">
-        <v>11</v>
-      </c>
-      <c r="L63">
-        <v>12</v>
-      </c>
-      <c r="M63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64">
-        <v>9</v>
-      </c>
-      <c r="H64">
-        <v>9</v>
-      </c>
-      <c r="I64" s="6">
-        <v>3</v>
-      </c>
-      <c r="J64">
-        <v>4</v>
-      </c>
-      <c r="K64">
-        <v>3</v>
-      </c>
-      <c r="L64">
-        <v>2</v>
-      </c>
-      <c r="M64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H65" t="s">
-        <v>355</v>
-      </c>
-      <c r="I65" s="6">
-        <v>10</v>
-      </c>
-      <c r="J65">
-        <v>3</v>
-      </c>
-      <c r="K65">
-        <v>4</v>
-      </c>
-      <c r="L65">
-        <v>4</v>
-      </c>
-      <c r="M65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66">
-        <v>9</v>
-      </c>
-      <c r="I66" s="6">
-        <v>4</v>
-      </c>
-      <c r="J66">
-        <v>5</v>
-      </c>
-      <c r="K66">
-        <v>5</v>
-      </c>
-      <c r="L66">
-        <v>5</v>
-      </c>
-      <c r="M66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I67" s="6">
-        <v>11</v>
-      </c>
-      <c r="J67">
-        <v>4</v>
-      </c>
-      <c r="K67">
-        <v>5</v>
-      </c>
-      <c r="L67">
-        <v>5</v>
-      </c>
-      <c r="M67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>32</v>
-      </c>
-      <c r="B68" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68">
-        <v>9</v>
-      </c>
-      <c r="I68" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I69" s="6">
-        <v>10</v>
-      </c>
-      <c r="J69">
-        <v>10</v>
-      </c>
-      <c r="K69">
-        <v>12</v>
-      </c>
-      <c r="L69">
-        <v>13</v>
-      </c>
-      <c r="M69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I70" s="6"/>
-      <c r="L70">
-        <v>9</v>
-      </c>
-      <c r="M70">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>34</v>
-      </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
-      <c r="I71" s="6"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>35</v>
-      </c>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="6"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>38</v>
-      </c>
-      <c r="B73" t="s">
-        <v>5</v>
-      </c>
-      <c r="I73" s="6"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>53</v>
-      </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
-      <c r="I74" s="6"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>51</v>
-      </c>
-      <c r="B75" t="s">
-        <v>5</v>
-      </c>
-      <c r="I75" s="6"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>56</v>
-      </c>
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76">
-        <v>9</v>
-      </c>
-      <c r="I76" s="6"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F77">
-        <v>9</v>
-      </c>
-      <c r="G77">
-        <v>9</v>
-      </c>
-      <c r="H77">
-        <v>10</v>
-      </c>
-      <c r="I77" s="6">
-        <v>3</v>
-      </c>
-      <c r="J77">
-        <v>4</v>
-      </c>
-      <c r="K77" t="s">
-        <v>385</v>
-      </c>
-      <c r="L77">
-        <v>4</v>
-      </c>
-      <c r="M77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B78" t="s">
         <v>87</v>
@@ -8484,54 +8559,49 @@
         <v>9</v>
       </c>
       <c r="I78" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J78">
+        <v>10</v>
+      </c>
+      <c r="K78">
         <v>11</v>
       </c>
-      <c r="K78" s="5">
-        <v>11</v>
-      </c>
-      <c r="L78" s="5">
+      <c r="L78">
         <v>14</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B79" t="s">
         <v>87</v>
       </c>
       <c r="E79" s="7"/>
-      <c r="G79">
-        <v>9</v>
-      </c>
       <c r="H79" s="1">
         <v>9</v>
       </c>
       <c r="I79" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J79">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K79">
-        <v>11</v>
-      </c>
-      <c r="L79">
-        <v>14</v>
-      </c>
-      <c r="M79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L79" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M79" s="1"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B80" t="s">
         <v>87</v>
@@ -8541,13 +8611,13 @@
         <v>9</v>
       </c>
       <c r="I80" s="1">
+        <v>10</v>
+      </c>
+      <c r="J80">
         <v>11</v>
       </c>
-      <c r="J80">
-        <v>12</v>
-      </c>
       <c r="K80">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L80" t="s">
         <v>383</v>
@@ -8556,12 +8626,20 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="B81" t="s">
         <v>87</v>
       </c>
-      <c r="E81" s="7"/>
+      <c r="D81">
+        <v>9</v>
+      </c>
+      <c r="E81" s="7">
+        <v>9</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
       <c r="H81" s="1">
         <v>9</v>
       </c>
@@ -8569,83 +8647,71 @@
         <v>10</v>
       </c>
       <c r="J81">
-        <v>11</v>
-      </c>
-      <c r="K81">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="K81" t="s">
+        <v>382</v>
       </c>
       <c r="L81" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="M81" s="1"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B82" t="s">
         <v>87</v>
       </c>
-      <c r="D82">
-        <v>9</v>
-      </c>
-      <c r="E82" s="7">
-        <v>9</v>
-      </c>
-      <c r="F82">
-        <v>10</v>
+      <c r="E82" s="7"/>
+      <c r="G82">
+        <v>9</v>
       </c>
       <c r="H82" s="1">
         <v>9</v>
       </c>
       <c r="I82" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J82">
         <v>12</v>
       </c>
       <c r="K82" t="s">
-        <v>382</v>
-      </c>
-      <c r="L82" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="M82" s="1"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B83" t="s">
         <v>87</v>
+      </c>
+      <c r="C83">
+        <v>9</v>
       </c>
       <c r="E83" s="7"/>
       <c r="G83">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H83" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I83" s="1">
-        <v>11</v>
-      </c>
-      <c r="J83">
-        <v>12</v>
-      </c>
-      <c r="K83" t="s">
-        <v>383</v>
-      </c>
-      <c r="M83" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="J83" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B84" t="s">
         <v>87</v>
-      </c>
-      <c r="C84">
-        <v>9</v>
       </c>
       <c r="E84" s="7"/>
       <c r="G84">
@@ -8663,10 +8729,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B85" t="s">
         <v>87</v>
+      </c>
+      <c r="C85">
+        <v>9</v>
       </c>
       <c r="E85" s="7"/>
       <c r="G85">
@@ -8684,7 +8753,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
@@ -8693,14 +8762,17 @@
         <v>9</v>
       </c>
       <c r="E86" s="7"/>
+      <c r="F86">
+        <v>10</v>
+      </c>
       <c r="G86">
-        <v>10</v>
-      </c>
-      <c r="H86" s="1">
-        <v>11</v>
-      </c>
-      <c r="I86" s="1">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="J86" t="s">
         <v>369</v>
@@ -8708,26 +8780,23 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="B87" t="s">
         <v>87</v>
-      </c>
-      <c r="C87">
-        <v>9</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G87">
-        <v>15</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>353</v>
+        <v>11</v>
+      </c>
+      <c r="H87" s="1">
+        <v>11</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="J87" t="s">
         <v>369</v>
@@ -8735,20 +8804,22 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="B88" t="s">
         <v>87</v>
       </c>
-      <c r="E88" s="7"/>
+      <c r="E88" s="7">
+        <v>9</v>
+      </c>
       <c r="F88">
         <v>9</v>
       </c>
       <c r="G88">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H88" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>360</v>
@@ -8759,7 +8830,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B89" t="s">
         <v>87</v>
@@ -8771,182 +8842,180 @@
         <v>9</v>
       </c>
       <c r="G89">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H89" s="1">
-        <v>10</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>360</v>
+        <v>11</v>
       </c>
       <c r="J89" t="s">
         <v>369</v>
       </c>
+      <c r="K89" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B90" t="s">
         <v>87</v>
       </c>
       <c r="E90" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F90">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G90">
         <v>11</v>
       </c>
       <c r="H90" s="1">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I90" s="1">
+        <v>15</v>
       </c>
       <c r="J90" t="s">
         <v>369</v>
       </c>
-      <c r="K90" t="s">
-        <v>387</v>
-      </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B91" t="s">
         <v>87</v>
       </c>
-      <c r="E91" s="7">
-        <v>12</v>
-      </c>
+      <c r="D91">
+        <v>10</v>
+      </c>
+      <c r="E91" s="7"/>
       <c r="F91">
         <v>12</v>
       </c>
       <c r="G91">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H91" s="1">
-        <v>12</v>
-      </c>
-      <c r="I91" s="1">
-        <v>15</v>
-      </c>
-      <c r="J91" t="s">
+        <v>9</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J91">
+        <v>14</v>
+      </c>
+      <c r="K91" t="s">
+        <v>384</v>
+      </c>
+      <c r="L91" t="s">
         <v>369</v>
       </c>
+      <c r="M91" s="1"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="B92" t="s">
         <v>87</v>
       </c>
-      <c r="D92">
-        <v>10</v>
-      </c>
-      <c r="E92" s="7"/>
+      <c r="E92" s="7">
+        <v>10</v>
+      </c>
       <c r="F92">
         <v>12</v>
       </c>
-      <c r="G92">
-        <v>9</v>
-      </c>
-      <c r="H92" s="1">
-        <v>9</v>
-      </c>
+      <c r="H92" s="1"/>
       <c r="I92" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J92">
+        <v>10</v>
+      </c>
+      <c r="K92">
         <v>14</v>
       </c>
-      <c r="K92" t="s">
-        <v>384</v>
-      </c>
       <c r="L92" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="M92" s="1"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="B93" t="s">
         <v>87</v>
       </c>
-      <c r="E93" s="7">
-        <v>10</v>
-      </c>
-      <c r="F93">
-        <v>12</v>
-      </c>
-      <c r="H93" s="1"/>
+      <c r="C93">
+        <v>9</v>
+      </c>
+      <c r="E93" s="7"/>
+      <c r="G93">
+        <v>9</v>
+      </c>
+      <c r="H93" s="1">
+        <v>10</v>
+      </c>
       <c r="I93" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J93">
-        <v>10</v>
-      </c>
-      <c r="K93">
         <v>14</v>
       </c>
+      <c r="K93" t="s">
+        <v>383</v>
+      </c>
       <c r="L93" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="M93" s="1"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B94" t="s">
         <v>87</v>
       </c>
-      <c r="C94">
-        <v>9</v>
+      <c r="D94">
+        <v>10</v>
       </c>
       <c r="E94" s="7"/>
       <c r="G94">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H94" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="J94">
-        <v>14</v>
-      </c>
-      <c r="K94" t="s">
-        <v>383</v>
-      </c>
-      <c r="L94" t="s">
+        <v>357</v>
+      </c>
+      <c r="J94" t="s">
         <v>369</v>
       </c>
-      <c r="M94" s="1"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="B95" t="s">
         <v>87</v>
       </c>
-      <c r="D95">
-        <v>10</v>
-      </c>
       <c r="E95" s="7"/>
+      <c r="F95">
+        <v>10</v>
+      </c>
       <c r="G95">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H95" s="1">
         <v>14</v>
       </c>
-      <c r="I95" s="1" t="s">
-        <v>357</v>
+      <c r="I95" s="1">
+        <v>15</v>
       </c>
       <c r="J95" t="s">
         <v>369</v>
@@ -8954,23 +9023,28 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="B96" t="s">
         <v>87</v>
       </c>
-      <c r="E96" s="7"/>
+      <c r="D96">
+        <v>9</v>
+      </c>
+      <c r="E96" s="7">
+        <v>10</v>
+      </c>
       <c r="F96">
         <v>10</v>
       </c>
       <c r="G96">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H96" s="1">
-        <v>14</v>
-      </c>
-      <c r="I96" s="1">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="J96" t="s">
         <v>369</v>
@@ -8978,28 +9052,28 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B97" t="s">
         <v>87</v>
       </c>
       <c r="D97">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F97">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G97">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H97" s="1">
-        <v>11</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>360</v>
+        <v>13</v>
+      </c>
+      <c r="I97" s="1">
+        <v>15</v>
       </c>
       <c r="J97" t="s">
         <v>369</v>
@@ -9007,28 +9081,25 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="B98" t="s">
         <v>87</v>
       </c>
-      <c r="D98">
-        <v>10</v>
-      </c>
       <c r="E98" s="7">
         <v>9</v>
       </c>
       <c r="F98">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G98">
-        <v>13</v>
-      </c>
-      <c r="H98" s="1">
-        <v>13</v>
-      </c>
-      <c r="I98" s="1">
         <v>15</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="J98" t="s">
         <v>369</v>
@@ -9036,25 +9107,28 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B99" t="s">
         <v>87</v>
       </c>
+      <c r="C99">
+        <v>9</v>
+      </c>
       <c r="E99" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F99">
         <v>12</v>
       </c>
       <c r="G99">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>353</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="J99" t="s">
         <v>369</v>
@@ -9062,20 +9136,12 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="B100" t="s">
         <v>87</v>
       </c>
-      <c r="C100">
-        <v>9</v>
-      </c>
-      <c r="E100" s="7">
-        <v>11</v>
-      </c>
-      <c r="F100">
-        <v>12</v>
-      </c>
+      <c r="E100" s="7"/>
       <c r="G100">
         <v>16</v>
       </c>
@@ -9083,7 +9149,7 @@
         <v>353</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="J100" t="s">
         <v>369</v>
@@ -9091,20 +9157,26 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B101" t="s">
         <v>87</v>
+      </c>
+      <c r="C101">
+        <v>9</v>
+      </c>
+      <c r="D101">
+        <v>9</v>
       </c>
       <c r="E101" s="7"/>
       <c r="G101">
-        <v>16</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>353</v>
+        <v>13</v>
+      </c>
+      <c r="H101" s="1">
+        <v>14</v>
+      </c>
+      <c r="I101" s="1">
+        <v>15</v>
       </c>
       <c r="J101" t="s">
         <v>369</v>
@@ -9112,20 +9184,19 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="B102" t="s">
         <v>87</v>
       </c>
-      <c r="C102">
-        <v>9</v>
-      </c>
-      <c r="D102">
-        <v>9</v>
-      </c>
-      <c r="E102" s="7"/>
+      <c r="E102" s="7">
+        <v>9</v>
+      </c>
+      <c r="F102">
+        <v>9</v>
+      </c>
       <c r="G102">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" s="1">
         <v>14</v>
@@ -9139,25 +9210,25 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B103" t="s">
         <v>87</v>
       </c>
       <c r="E103" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F103">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G103">
         <v>14</v>
       </c>
       <c r="H103" s="1">
-        <v>14</v>
-      </c>
-      <c r="I103" s="1">
         <v>15</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="J103" t="s">
         <v>369</v>
@@ -9165,13 +9236,13 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="B104" t="s">
         <v>87</v>
       </c>
       <c r="E104" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F104">
         <v>13</v>
@@ -9191,22 +9262,20 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="B105" t="s">
         <v>87</v>
       </c>
-      <c r="E105" s="7">
-        <v>9</v>
-      </c>
+      <c r="E105" s="7"/>
       <c r="F105">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G105">
+        <v>12</v>
+      </c>
+      <c r="H105" s="1">
         <v>14</v>
-      </c>
-      <c r="H105" s="1">
-        <v>15</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>353</v>
@@ -9217,23 +9286,25 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="B106" t="s">
         <v>87</v>
       </c>
-      <c r="E106" s="7"/>
+      <c r="E106" s="7">
+        <v>12</v>
+      </c>
       <c r="F106">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G106">
         <v>12</v>
       </c>
       <c r="H106" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="J106" t="s">
         <v>369</v>
@@ -9241,25 +9312,25 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="B107" t="s">
         <v>87</v>
       </c>
       <c r="E107" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F107">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G107">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H107" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="J107" t="s">
         <v>369</v>
@@ -9267,19 +9338,22 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B108" t="s">
         <v>87</v>
       </c>
+      <c r="C108">
+        <v>9</v>
+      </c>
       <c r="E108" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F108">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G108">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H108" s="1">
         <v>15</v>
@@ -9293,62 +9367,60 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="B109" t="s">
         <v>87</v>
       </c>
-      <c r="C109">
-        <v>9</v>
-      </c>
       <c r="E109" s="7">
+        <v>9</v>
+      </c>
+      <c r="F109">
         <v>12</v>
       </c>
-      <c r="F109">
+      <c r="G109">
+        <v>11</v>
+      </c>
+      <c r="H109" s="1">
         <v>14</v>
       </c>
-      <c r="G109">
+      <c r="I109" s="1">
         <v>15</v>
-      </c>
-      <c r="H109" s="1">
-        <v>15</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="J109" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>191</v>
-      </c>
-      <c r="B110" t="s">
-        <v>87</v>
-      </c>
-      <c r="E110" s="7">
-        <v>9</v>
-      </c>
-      <c r="F110">
-        <v>12</v>
-      </c>
-      <c r="G110">
-        <v>11</v>
-      </c>
+      <c r="A110" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E110" s="7"/>
       <c r="H110" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I110" s="1">
-        <v>15</v>
-      </c>
-      <c r="J110" t="s">
-        <v>369</v>
+        <v>4</v>
+      </c>
+      <c r="J110">
+        <v>3</v>
+      </c>
+      <c r="K110">
+        <v>3</v>
+      </c>
+      <c r="L110">
+        <v>3</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>91</v>
@@ -9358,7 +9430,7 @@
         <v>9</v>
       </c>
       <c r="I111" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J111">
         <v>3</v>
@@ -9375,17 +9447,23 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E112" s="7"/>
+      <c r="F112">
+        <v>9</v>
+      </c>
+      <c r="G112">
+        <v>2</v>
+      </c>
       <c r="H112" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I112" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J112">
         <v>3</v>
@@ -9393,24 +9471,22 @@
       <c r="K112">
         <v>3</v>
       </c>
-      <c r="L112">
-        <v>3</v>
-      </c>
-      <c r="M112" s="1" t="s">
+      <c r="L112" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M112" s="1"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>91</v>
       </c>
+      <c r="D113">
+        <v>9</v>
+      </c>
       <c r="E113" s="7"/>
-      <c r="F113">
-        <v>9</v>
-      </c>
       <c r="G113">
         <v>2</v>
       </c>
@@ -9431,56 +9507,64 @@
       </c>
       <c r="M113" s="1"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="D114">
-        <v>9</v>
       </c>
       <c r="E114" s="7"/>
       <c r="G114">
+        <v>9</v>
+      </c>
+      <c r="H114" s="1">
+        <v>10</v>
+      </c>
+      <c r="I114" s="1">
         <v>2</v>
       </c>
-      <c r="H114" s="1">
-        <v>4</v>
-      </c>
-      <c r="I114" s="1">
-        <v>3</v>
-      </c>
       <c r="J114">
-        <v>3</v>
-      </c>
-      <c r="K114">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="K114" t="s">
+        <v>285</v>
       </c>
       <c r="L114" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="M114" s="1"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E115" s="7"/>
-      <c r="G115">
-        <v>9</v>
+      <c r="C115">
+        <v>9</v>
+      </c>
+      <c r="D115">
+        <v>9</v>
+      </c>
+      <c r="E115" s="7">
+        <v>10</v>
+      </c>
+      <c r="F115" s="4">
+        <v>1</v>
+      </c>
+      <c r="G115" t="s">
+        <v>285</v>
       </c>
       <c r="H115" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I115" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K115" t="s">
         <v>285</v>
@@ -9490,17 +9574,14 @@
       </c>
       <c r="M115" s="1"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C116">
-        <v>9</v>
-      </c>
-      <c r="D116">
         <v>9</v>
       </c>
       <c r="E116" s="7">
@@ -9515,50 +9596,50 @@
       <c r="H116" s="1">
         <v>1</v>
       </c>
-      <c r="I116" s="1">
-        <v>1</v>
-      </c>
-      <c r="J116">
-        <v>1</v>
-      </c>
-      <c r="K116" t="s">
+      <c r="I116" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="L116" t="s">
-        <v>369</v>
-      </c>
-      <c r="M116" s="1"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J116" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C117">
-        <v>9</v>
-      </c>
-      <c r="E117" s="7">
-        <v>10</v>
-      </c>
+      <c r="E117" s="7"/>
       <c r="F117" s="4">
-        <v>1</v>
-      </c>
-      <c r="G117" t="s">
-        <v>285</v>
+        <v>5</v>
+      </c>
+      <c r="G117">
+        <v>9</v>
       </c>
       <c r="H117" s="1">
-        <v>1</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="J117" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="I117" s="1">
+        <v>5</v>
+      </c>
+      <c r="J117">
+        <v>5</v>
+      </c>
+      <c r="K117">
+        <v>4</v>
+      </c>
+      <c r="L117">
+        <v>4</v>
+      </c>
+      <c r="M117" s="1">
+        <v>3</v>
+      </c>
+      <c r="N117">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>168</v>
       </c>
@@ -9584,7 +9665,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
         <v>65</v>
       </c>
@@ -9608,7 +9689,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>62</v>
       </c>
@@ -9646,7 +9727,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>169</v>
       </c>
@@ -9675,7 +9756,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>193</v>
       </c>
@@ -9702,7 +9783,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>190</v>
       </c>
@@ -9726,7 +9807,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>68</v>
       </c>
@@ -9753,7 +9834,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>185</v>
       </c>
@@ -9780,7 +9861,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>198</v>
       </c>
@@ -9804,7 +9885,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>192</v>
       </c>
@@ -9828,7 +9909,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>74</v>
       </c>
@@ -10456,7 +10537,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11848,11 +11929,20 @@
       <c r="C56" s="3">
         <v>0.36388888888888887</v>
       </c>
+      <c r="D56" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0.43333333333333335</v>
+      </c>
       <c r="F56">
         <v>11</v>
       </c>
       <c r="G56" t="s">
         <v>91</v>
+      </c>
+      <c r="H56" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -11865,11 +11955,20 @@
       <c r="C57" s="3">
         <v>0.36388888888888887</v>
       </c>
+      <c r="D57" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0.43333333333333335</v>
+      </c>
       <c r="F57">
         <v>11</v>
       </c>
       <c r="G57" t="s">
         <v>91</v>
+      </c>
+      <c r="H57" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -11882,11 +11981,20 @@
       <c r="C58" s="3">
         <v>0.36388888888888887</v>
       </c>
+      <c r="D58" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0.43333333333333335</v>
+      </c>
       <c r="F58">
         <v>12</v>
       </c>
       <c r="G58" t="s">
         <v>91</v>
+      </c>
+      <c r="H58" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -11899,11 +12007,20 @@
       <c r="C59" s="3">
         <v>0.36388888888888887</v>
       </c>
+      <c r="D59" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0.43333333333333335</v>
+      </c>
       <c r="F59">
         <v>12</v>
       </c>
       <c r="G59" t="s">
         <v>5</v>
+      </c>
+      <c r="H59" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -11916,11 +12033,20 @@
       <c r="C60" s="3">
         <v>0.36388888888888887</v>
       </c>
+      <c r="D60" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0.43333333333333335</v>
+      </c>
       <c r="F60">
         <v>12</v>
       </c>
       <c r="G60" t="s">
         <v>91</v>
+      </c>
+      <c r="H60" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -11933,11 +12059,20 @@
       <c r="C61" s="3">
         <v>0.36388888888888887</v>
       </c>
+      <c r="D61" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0.43333333333333335</v>
+      </c>
       <c r="F61">
         <v>13</v>
       </c>
       <c r="G61" t="s">
         <v>5</v>
+      </c>
+      <c r="H61" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -11950,11 +12085,20 @@
       <c r="C62" s="3">
         <v>0.36388888888888887</v>
       </c>
+      <c r="D62" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0.43333333333333335</v>
+      </c>
       <c r="F62">
         <v>11</v>
       </c>
       <c r="G62" t="s">
         <v>5</v>
+      </c>
+      <c r="H62" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -11967,11 +12111,20 @@
       <c r="C63" s="3">
         <v>0.36388888888888887</v>
       </c>
+      <c r="D63" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.43333333333333335</v>
+      </c>
       <c r="F63">
         <v>13</v>
       </c>
       <c r="G63" t="s">
         <v>91</v>
+      </c>
+      <c r="H63" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -11984,11 +12137,20 @@
       <c r="C64" s="3">
         <v>0.36388888888888887</v>
       </c>
+      <c r="D64" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0.43333333333333335</v>
+      </c>
       <c r="F64">
         <v>12</v>
       </c>
       <c r="G64" t="s">
         <v>5</v>
+      </c>
+      <c r="H64" s="8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/treatmentC.xlsx
+++ b/data/treatmentC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9400" yWindow="2300" windowWidth="36680" windowHeight="22120" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="9400" yWindow="2300" windowWidth="36680" windowHeight="22120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="438">
   <si>
     <t>OLD</t>
   </si>
@@ -1260,6 +1260,99 @@
   </si>
   <si>
     <t>21.MAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBCH </t>
+  </si>
+  <si>
+    <t>MAR.23</t>
+  </si>
+  <si>
+    <t>23.MAR</t>
+  </si>
+  <si>
+    <t>TABS</t>
+  </si>
+  <si>
+    <t>BBCH observations for all individuals through leaf out, once the individual is past leaf out then they were no longer monitored</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>sheet that was synthesized to be converted to a csv for R</t>
+  </si>
+  <si>
+    <t>FRZ</t>
+  </si>
+  <si>
+    <t>all individuals that were put in the growth chamber, with stage, treatment code, time and date</t>
+  </si>
+  <si>
+    <t>tx.counts</t>
+  </si>
+  <si>
+    <t>number of individuals per species per site per treatment - breakdown</t>
+  </si>
+  <si>
+    <t>soil.moisture</t>
+  </si>
+  <si>
+    <t>wet weight and dry weights of soils for 12 individuals over the course of the experiment to test soil moisture</t>
+  </si>
+  <si>
+    <t>NEW.EXP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newly added individuals from greenhouse 7 to make data more robust and have less confounding variables. </t>
+  </si>
+  <si>
+    <t>monitor</t>
+  </si>
+  <si>
+    <t>individuals that early signs of struggle</t>
+  </si>
+  <si>
+    <t>GH</t>
+  </si>
+  <si>
+    <t>greenhouse temperature and humidity</t>
+  </si>
+  <si>
+    <t>old ID name and number</t>
+  </si>
+  <si>
+    <t>new experimental ID</t>
+  </si>
+  <si>
+    <t>is the treatment code associated with individual</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>is the soil moisture meter reading and date</t>
+  </si>
+  <si>
+    <t>is the BBCH stage individual is at on that date</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>columns that have been watered that day</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>rows of individuals that have been in the growth chamber</t>
+  </si>
+  <si>
+    <t>Double Frost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New sheet: need to determine which individuals should receive a second frost event. Will try before leaf out and after leaf out. </t>
   </si>
 </sst>
 </file>
@@ -1669,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1789,8 +1882,149 @@
         <v>277</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>412</v>
+      </c>
+      <c r="B27" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>414</v>
+      </c>
+      <c r="B28" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>416</v>
+      </c>
+      <c r="B29" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>418</v>
+      </c>
+      <c r="B30" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>420</v>
+      </c>
+      <c r="B31" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>422</v>
+      </c>
+      <c r="B32" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>424</v>
+      </c>
+      <c r="B33" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>429</v>
+      </c>
+      <c r="B39" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>432</v>
+      </c>
+      <c r="B42" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>434</v>
+      </c>
+      <c r="B43" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>437</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1799,11 +2033,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R149"/>
+  <dimension ref="A1:V149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R39" sqref="R39"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1812,9 +2046,10 @@
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="12" width="10.83203125" customWidth="1"/>
     <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
+    <col min="14" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1869,8 +2104,20 @@
       <c r="R1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" t="s">
+        <v>407</v>
+      </c>
+      <c r="T1" t="s">
+        <v>211</v>
+      </c>
+      <c r="U1" t="s">
+        <v>211</v>
+      </c>
+      <c r="V1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1909,7 +2156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1948,7 +2195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1973,7 +2220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2006,7 +2253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2034,7 +2281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2056,7 +2303,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -2086,7 +2333,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2120,7 +2367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -2154,7 +2401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2185,7 +2432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2219,7 +2466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2253,7 +2500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2284,7 +2531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -2306,7 +2553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -4244,6 +4491,9 @@
       <c r="Q78" s="1" t="s">
         <v>383</v>
       </c>
+      <c r="R78" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
@@ -4283,6 +4533,9 @@
       <c r="Q79" s="1" t="s">
         <v>383</v>
       </c>
+      <c r="R79" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
@@ -4317,8 +4570,11 @@
         <v>383</v>
       </c>
       <c r="Q80" s="1"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R80" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -4351,8 +4607,11 @@
         <v>383</v>
       </c>
       <c r="Q81" s="1"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R81" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>52</v>
       </c>
@@ -4393,8 +4652,11 @@
         <v>369</v>
       </c>
       <c r="Q82" s="1"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R82" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>43</v>
       </c>
@@ -4427,8 +4689,11 @@
         <v>383</v>
       </c>
       <c r="Q83" s="1"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R83" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>139</v>
       </c>
@@ -4460,8 +4725,11 @@
       <c r="N84" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R84" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>144</v>
       </c>
@@ -4490,8 +4758,11 @@
       <c r="N85" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R85" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>43</v>
       </c>
@@ -4523,8 +4794,11 @@
       <c r="N86" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R86" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>142</v>
       </c>
@@ -4559,8 +4833,11 @@
       <c r="N87" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R87" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>59</v>
       </c>
@@ -4595,8 +4872,11 @@
       <c r="N88" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R88" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>162</v>
       </c>
@@ -4630,8 +4910,11 @@
       <c r="N89" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R89" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>162</v>
       </c>
@@ -4665,8 +4948,11 @@
       <c r="O90" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R90" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>61</v>
       </c>
@@ -4700,8 +4986,11 @@
       <c r="N91" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R91" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>61</v>
       </c>
@@ -4743,8 +5032,11 @@
         <v>369</v>
       </c>
       <c r="Q92" s="1"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R92" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>57</v>
       </c>
@@ -4783,8 +5075,11 @@
         <v>383</v>
       </c>
       <c r="Q93" s="1"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R93" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>73</v>
       </c>
@@ -4823,8 +5118,11 @@
         <v>369</v>
       </c>
       <c r="Q94" s="1"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R94" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>170</v>
       </c>
@@ -4856,8 +5154,11 @@
       <c r="N95" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R95" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>78</v>
       </c>
@@ -4892,8 +5193,11 @@
       <c r="N96" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R96" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>70</v>
       </c>
@@ -4930,8 +5234,11 @@
       <c r="N97" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R97" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>177</v>
       </c>
@@ -4968,8 +5275,11 @@
       <c r="N98" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R98" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>70</v>
       </c>
@@ -5006,8 +5316,11 @@
       <c r="N99" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R99" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>70</v>
       </c>
@@ -5047,8 +5360,11 @@
       <c r="N100" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R100" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>177</v>
       </c>
@@ -5077,8 +5393,11 @@
       <c r="N101" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R101" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>177</v>
       </c>
@@ -5113,8 +5432,11 @@
       <c r="N102" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R102" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>73</v>
       </c>
@@ -5151,8 +5473,11 @@
       <c r="N103" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R103" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>73</v>
       </c>
@@ -5189,8 +5514,11 @@
       <c r="N104" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R104" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>73</v>
       </c>
@@ -5227,8 +5555,11 @@
       <c r="N105" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R105" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>76</v>
       </c>
@@ -5260,8 +5591,11 @@
       <c r="N106" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R106" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>76</v>
       </c>
@@ -5298,8 +5632,11 @@
       <c r="N107" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R107" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>66</v>
       </c>
@@ -5333,8 +5670,11 @@
       <c r="N108" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R108" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>66</v>
       </c>
@@ -5371,8 +5711,11 @@
       <c r="N109" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R109" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>66</v>
       </c>
@@ -5406,8 +5749,11 @@
       <c r="N110" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R110" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>23</v>
       </c>
@@ -5442,8 +5788,11 @@
       <c r="Q111" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R111" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>14</v>
       </c>
@@ -5477,6 +5826,9 @@
       </c>
       <c r="Q112" s="1" t="s">
         <v>377</v>
+      </c>
+      <c r="R112" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
@@ -5518,6 +5870,9 @@
         <v>377</v>
       </c>
       <c r="Q113" s="1"/>
+      <c r="R113" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
@@ -5558,6 +5913,9 @@
         <v>377</v>
       </c>
       <c r="Q114" s="1"/>
+      <c r="R114" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
@@ -5595,6 +5953,9 @@
         <v>369</v>
       </c>
       <c r="Q115" s="1"/>
+      <c r="R115" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
@@ -5643,6 +6004,9 @@
         <v>369</v>
       </c>
       <c r="Q116" s="1"/>
+      <c r="R116" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
@@ -5681,8 +6045,8 @@
       <c r="N117" t="s">
         <v>370</v>
       </c>
-      <c r="R117">
-        <v>15</v>
+      <c r="R117" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
@@ -5719,6 +6083,9 @@
       <c r="N118" t="s">
         <v>370</v>
       </c>
+      <c r="R118" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
@@ -5755,6 +6122,9 @@
       <c r="N119" t="s">
         <v>371</v>
       </c>
+      <c r="R119" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
@@ -5805,6 +6175,9 @@
       <c r="Q120" s="1" t="s">
         <v>395</v>
       </c>
+      <c r="R120" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
@@ -5843,6 +6216,9 @@
       <c r="N121" t="s">
         <v>370</v>
       </c>
+      <c r="R121" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
@@ -5879,6 +6255,9 @@
       <c r="N122" t="s">
         <v>370</v>
       </c>
+      <c r="R122" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
@@ -5912,6 +6291,9 @@
       <c r="N123" t="s">
         <v>373</v>
       </c>
+      <c r="R123" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
@@ -5951,6 +6333,9 @@
       <c r="N124" t="s">
         <v>375</v>
       </c>
+      <c r="R124" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
@@ -5987,6 +6372,9 @@
       <c r="N125" t="s">
         <v>373</v>
       </c>
+      <c r="R125" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
@@ -6020,6 +6408,9 @@
       <c r="N126" t="s">
         <v>376</v>
       </c>
+      <c r="R126" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
@@ -6053,6 +6444,9 @@
       <c r="N127" t="s">
         <v>354</v>
       </c>
+      <c r="R127" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
@@ -6091,8 +6485,11 @@
       <c r="N128" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R128" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>73</v>
       </c>
@@ -6132,8 +6529,11 @@
       <c r="N129" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R129" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>195</v>
       </c>
@@ -6168,8 +6568,11 @@
       <c r="N130" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R130" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>66</v>
       </c>
@@ -6204,8 +6607,11 @@
       <c r="N131" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R131" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>195</v>
       </c>
@@ -6237,8 +6643,11 @@
       <c r="N132" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R132" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>78</v>
       </c>
@@ -6280,8 +6689,11 @@
         <v>369</v>
       </c>
       <c r="Q133" s="1"/>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R133" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>70</v>
       </c>
@@ -6322,8 +6734,11 @@
         <v>369</v>
       </c>
       <c r="Q134" s="1"/>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R134" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>67</v>
       </c>
@@ -6365,8 +6780,11 @@
         <v>369</v>
       </c>
       <c r="Q135" s="1"/>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R135" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>73</v>
       </c>
@@ -6402,8 +6820,11 @@
         <v>369</v>
       </c>
       <c r="Q136" s="1"/>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R136" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>83</v>
       </c>
@@ -6447,8 +6868,11 @@
       <c r="Q137" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R137" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>66</v>
       </c>
@@ -6493,8 +6917,11 @@
         <v>377</v>
       </c>
       <c r="Q138" s="1"/>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R138" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>21</v>
       </c>
@@ -6531,8 +6958,11 @@
       <c r="P139" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R139" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>49</v>
       </c>
@@ -6569,8 +6999,11 @@
       <c r="P140" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R140" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>43</v>
       </c>
@@ -6598,8 +7031,11 @@
       <c r="N141" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R141" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>43</v>
       </c>
@@ -6642,8 +7078,11 @@
       <c r="P142" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R142" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>45</v>
       </c>
@@ -6689,8 +7128,11 @@
       <c r="Q143" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R143" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>43</v>
       </c>
@@ -6727,8 +7169,11 @@
       <c r="N144" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R144" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>43</v>
       </c>
@@ -6768,8 +7213,11 @@
       <c r="N145" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R145" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>78</v>
       </c>
@@ -6803,8 +7251,11 @@
       <c r="N146" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R146" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>78</v>
       </c>
@@ -6841,8 +7292,11 @@
       <c r="N147" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R147" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>78</v>
       </c>
@@ -6873,8 +7327,11 @@
       <c r="N148" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R148" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>78</v>
       </c>
@@ -6904,6 +7361,9 @@
       </c>
       <c r="N149" t="s">
         <v>380</v>
+      </c>
+      <c r="R149" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -6911,7 +7371,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="99" fitToHeight="4" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="34" fitToHeight="4" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -10534,10 +10994,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12151,6 +12611,74 @@
       </c>
       <c r="H64" s="8">
         <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" t="s">
+        <v>409</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="F65">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>409</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="F66">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>409</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="F67">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" t="s">
+        <v>409</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="F68">
+        <v>11</v>
+      </c>
+      <c r="G68" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -12336,20 +12864,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M45"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -12393,7 +12926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -12436,7 +12969,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>131</v>
       </c>
@@ -12479,7 +13012,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -12522,7 +13055,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>160</v>
       </c>
@@ -12565,7 +13098,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -12608,7 +13141,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>199</v>
       </c>
@@ -12651,7 +13184,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -12694,7 +13227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -12737,7 +13270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -12780,7 +13313,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -12823,7 +13356,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -12863,7 +13396,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>131</v>
       </c>
@@ -12903,7 +13436,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>178</v>
       </c>
@@ -12943,7 +13476,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -12983,7 +13516,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -13023,7 +13556,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -13063,7 +13596,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -13103,7 +13636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -13143,7 +13676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -13183,7 +13716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -13223,7 +13756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -13256,7 +13789,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -13289,7 +13822,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>178</v>
       </c>
@@ -13322,7 +13855,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>160</v>
       </c>
@@ -13355,7 +13888,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -13388,7 +13921,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -13421,7 +13954,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -13454,7 +13987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -13487,7 +14020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -13520,7 +14053,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -13553,7 +14086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -13586,7 +14119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -13619,7 +14152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -13652,7 +14185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -13685,7 +14218,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>178</v>
       </c>
@@ -13718,7 +14251,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>160</v>
       </c>
@@ -13751,7 +14284,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -13784,7 +14317,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>199</v>
       </c>
@@ -13817,7 +14350,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -13850,7 +14383,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -13883,7 +14416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -13916,7 +14449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -13949,7 +14482,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -13982,7 +14515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -14015,8 +14548,239 @@
         <v>5</v>
       </c>
     </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46">
+        <v>11.771000000000001</v>
+      </c>
+      <c r="G46" t="s">
+        <v>408</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.40972222222222227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47">
+        <v>12.689</v>
+      </c>
+      <c r="G47" t="s">
+        <v>408</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0.40972222222222227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48">
+        <v>10.932</v>
+      </c>
+      <c r="G48" t="s">
+        <v>408</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0.40972222222222227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49">
+        <v>12.311999999999999</v>
+      </c>
+      <c r="G49" t="s">
+        <v>408</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0.40972222222222227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50">
+        <v>10.342000000000001</v>
+      </c>
+      <c r="G50" t="s">
+        <v>408</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0.40972222222222227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51">
+        <v>9.66</v>
+      </c>
+      <c r="G51" t="s">
+        <v>408</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0.40972222222222227</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>10.509</v>
+      </c>
+      <c r="G52" t="s">
+        <v>408</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0.40972222222222227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53">
+        <v>9.8219999999999992</v>
+      </c>
+      <c r="G53" t="s">
+        <v>408</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0.40972222222222227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54">
+        <v>12.757999999999999</v>
+      </c>
+      <c r="G54" t="s">
+        <v>408</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0.40972222222222227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55">
+        <v>10.352</v>
+      </c>
+      <c r="G55" t="s">
+        <v>408</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0.40972222222222227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56">
+        <v>11.042</v>
+      </c>
+      <c r="G56" t="s">
+        <v>408</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0.40972222222222227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57">
+        <v>11.2074</v>
+      </c>
+      <c r="G57" t="s">
+        <v>408</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0.40972222222222227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="92" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -15362,5 +16126,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>